--- a/GameDesign/Planning_Dust'n'Groove.xlsx
+++ b/GameDesign/Planning_Dust'n'Groove.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1737" uniqueCount="517">
   <si>
     <t>Feature</t>
   </si>
@@ -63,12 +63,6 @@
     <t>4 états du bouton: normal, survolé, cliqué, grisé</t>
   </si>
   <si>
-    <t>background_MenuMain</t>
-  </si>
-  <si>
-    <t>Fond du menu principal avec crédits</t>
-  </si>
-  <si>
     <t>Code</t>
   </si>
   <si>
@@ -105,12 +99,6 @@
     <t>Duplicata</t>
   </si>
   <si>
-    <t>background_MenuLevelSelection</t>
-  </si>
-  <si>
-    <t>Fond du menu sélection de niveau</t>
-  </si>
-  <si>
     <t>icon_Vinyl</t>
   </si>
   <si>
@@ -342,9 +330,6 @@
     <t>Jauge de vie</t>
   </si>
   <si>
-    <t>Munition actuellement utilisée</t>
-  </si>
-  <si>
     <t>code_ShowGramophone</t>
   </si>
   <si>
@@ -1582,6 +1567,15 @@
   </si>
   <si>
     <t>Bruissements couvrant la musique du niveau</t>
+  </si>
+  <si>
+    <t>Switch des icônes de la munition actuellement utilisée</t>
+  </si>
+  <si>
+    <t>background_Menu</t>
+  </si>
+  <si>
+    <t>Fond du menu avec crédits</t>
   </si>
 </sst>
 </file>
@@ -2658,8 +2652,8 @@
   <dimension ref="A1:AMJ200"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C87" sqref="C87"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2731,10 +2725,10 @@
         <v>8</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>12</v>
+        <v>515</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>13</v>
+        <v>516</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="9"/>
@@ -2747,16 +2741,16 @@
         <v>6</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="13"/>
@@ -2769,16 +2763,16 @@
         <v>6</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="13"/>
@@ -2791,16 +2785,16 @@
         <v>6</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="13"/>
@@ -2813,16 +2807,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="13"/>
@@ -2835,16 +2829,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="14"/>
@@ -2854,7 +2848,7 @@
     </row>
     <row r="9" spans="1:1024" s="6" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>7</v>
@@ -2872,13 +2866,13 @@
       <c r="G9" s="4"/>
       <c r="H9" s="5"/>
       <c r="I9" s="20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AMJ9" s="7"/>
     </row>
     <row r="10" spans="1:1024" s="11" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>7</v>
@@ -2887,20 +2881,22 @@
         <v>8</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>26</v>
+        <v>515</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>27</v>
+        <v>516</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="9"/>
       <c r="H10" s="10"/>
-      <c r="I10" s="21"/>
+      <c r="I10" s="21" t="s">
+        <v>23</v>
+      </c>
       <c r="AMJ10" s="12"/>
     </row>
     <row r="11" spans="1:1024" s="11" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>7</v>
@@ -2909,22 +2905,22 @@
         <v>8</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="9"/>
       <c r="H11" s="10"/>
       <c r="I11" s="22" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AMJ11" s="12"/>
     </row>
     <row r="12" spans="1:1024" s="11" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>7</v>
@@ -2933,22 +2929,22 @@
         <v>8</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="9"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AMJ12" s="12"/>
     </row>
     <row r="13" spans="1:1024" s="11" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>7</v>
@@ -2957,34 +2953,34 @@
         <v>8</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="9"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AMJ13" s="12"/>
     </row>
     <row r="14" spans="1:1024" s="11" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="13"/>
@@ -2994,67 +2990,67 @@
     </row>
     <row r="15" spans="1:1024" s="11" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="13"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AMJ15" s="12"/>
     </row>
     <row r="16" spans="1:1024" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="13"/>
       <c r="H16" s="10"/>
       <c r="I16" s="10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AMJ16" s="12"/>
     </row>
     <row r="17" spans="1:1024" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="13"/>
@@ -3064,43 +3060,43 @@
     </row>
     <row r="18" spans="1:1024" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="13"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AMJ18" s="12"/>
     </row>
     <row r="19" spans="1:1024" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="13"/>
@@ -3111,22 +3107,22 @@
     <row r="20" spans="1:1024" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="14"/>
       <c r="H20" s="10"/>
       <c r="I20" s="10" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="AMJ20" s="12"/>
     </row>
@@ -3135,16 +3131,16 @@
         <v>6</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="14"/>
@@ -3154,7 +3150,7 @@
     </row>
     <row r="22" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>7</v>
@@ -3163,10 +3159,10 @@
         <v>8</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="4"/>
@@ -3176,7 +3172,7 @@
     </row>
     <row r="23" spans="1:1024" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>7</v>
@@ -3194,13 +3190,13 @@
       <c r="G23" s="9"/>
       <c r="H23" s="10"/>
       <c r="I23" s="21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AMJ23" s="12"/>
     </row>
     <row r="24" spans="1:1024" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>7</v>
@@ -3209,34 +3205,34 @@
         <v>8</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F24" s="10"/>
       <c r="G24" s="9"/>
       <c r="H24" s="10"/>
       <c r="I24" s="21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AMJ24" s="12"/>
     </row>
     <row r="25" spans="1:1024" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="13"/>
@@ -3246,19 +3242,19 @@
     </row>
     <row r="26" spans="1:1024" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C26" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="13"/>
@@ -3268,19 +3264,19 @@
     </row>
     <row r="27" spans="1:1024" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="13"/>
@@ -3290,19 +3286,19 @@
     </row>
     <row r="28" spans="1:1024" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="13"/>
@@ -3312,7 +3308,7 @@
     </row>
     <row r="29" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>7</v>
@@ -3321,22 +3317,22 @@
         <v>8</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="4"/>
       <c r="H29" s="5"/>
       <c r="I29" s="20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AMJ29" s="7"/>
     </row>
     <row r="30" spans="1:1024" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>7</v>
@@ -3354,25 +3350,25 @@
       <c r="G30" s="9"/>
       <c r="H30" s="10"/>
       <c r="I30" s="21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AMJ30" s="12"/>
     </row>
     <row r="31" spans="1:1024" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C31" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="13"/>
@@ -3382,19 +3378,19 @@
     </row>
     <row r="32" spans="1:1024" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C32" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F32" s="10"/>
       <c r="G32" s="13"/>
@@ -3404,19 +3400,19 @@
     </row>
     <row r="33" spans="1:1024" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="15" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B33" s="104" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C33" s="104" t="s">
         <v>8</v>
       </c>
       <c r="D33" s="104" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E33" s="104" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F33" s="17"/>
       <c r="G33" s="104"/>
@@ -3426,7 +3422,7 @@
     </row>
     <row r="34" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>7</v>
@@ -3435,22 +3431,22 @@
         <v>8</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F34" s="5"/>
       <c r="G34" s="4"/>
       <c r="H34" s="5"/>
       <c r="I34" s="27" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="AMJ34" s="7"/>
     </row>
     <row r="35" spans="1:1024" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>7</v>
@@ -3468,13 +3464,13 @@
       <c r="G35" s="9"/>
       <c r="H35" s="10"/>
       <c r="I35" s="21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AMJ35" s="12"/>
     </row>
     <row r="36" spans="1:1024" s="11" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>7</v>
@@ -3483,22 +3479,22 @@
         <v>8</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="9"/>
       <c r="H36" s="10"/>
       <c r="I36" s="21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AMJ36" s="12"/>
     </row>
     <row r="37" spans="1:1024" s="11" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>7</v>
@@ -3507,22 +3503,22 @@
         <v>8</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="9"/>
       <c r="H37" s="10"/>
       <c r="I37" s="21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AMJ37" s="12"/>
     </row>
     <row r="38" spans="1:1024" s="11" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>7</v>
@@ -3531,34 +3527,34 @@
         <v>8</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F38" s="10"/>
       <c r="G38" s="9"/>
       <c r="H38" s="10"/>
       <c r="I38" s="21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AMJ38" s="12"/>
     </row>
     <row r="39" spans="1:1024" s="11" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C39" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F39" s="10"/>
       <c r="G39" s="13"/>
@@ -3568,67 +3564,67 @@
     </row>
     <row r="40" spans="1:1024" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C40" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F40" s="10"/>
       <c r="G40" s="13"/>
       <c r="H40" s="10"/>
       <c r="I40" s="22" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="AMJ40" s="12"/>
     </row>
     <row r="41" spans="1:1024" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C41" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F41" s="10"/>
       <c r="G41" s="13"/>
       <c r="H41" s="10"/>
       <c r="I41" s="22" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AMJ41" s="12"/>
     </row>
     <row r="42" spans="1:1024" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C42" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F42" s="10"/>
       <c r="G42" s="13"/>
@@ -3638,7 +3634,7 @@
     </row>
     <row r="43" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>7</v>
@@ -3647,10 +3643,10 @@
         <v>8</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F43" s="5"/>
       <c r="G43" s="4"/>
@@ -3667,10 +3663,10 @@
         <v>8</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F44" s="10"/>
       <c r="G44" s="9"/>
@@ -3687,10 +3683,10 @@
         <v>8</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F45" s="10"/>
       <c r="G45" s="9"/>
@@ -3701,16 +3697,16 @@
     <row r="46" spans="1:1024" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="26"/>
       <c r="B46" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C46" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F46" s="10"/>
       <c r="G46" s="13"/>
@@ -3721,16 +3717,16 @@
     <row r="47" spans="1:1024" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="26"/>
       <c r="B47" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C47" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F47" s="10"/>
       <c r="G47" s="13"/>
@@ -3740,25 +3736,25 @@
     </row>
     <row r="48" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F48" s="5"/>
       <c r="G48" s="4"/>
       <c r="H48" s="5"/>
       <c r="I48" s="27" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="AMJ48" s="7"/>
     </row>
@@ -3768,19 +3764,19 @@
         <v>7</v>
       </c>
       <c r="C49" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D49" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="D49" s="9" t="s">
-        <v>93</v>
-      </c>
       <c r="E49" s="9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F49" s="10"/>
       <c r="G49" s="9"/>
       <c r="H49" s="10"/>
       <c r="I49" s="22" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="AMJ49" s="12"/>
     </row>
@@ -3790,19 +3786,19 @@
         <v>7</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F50" s="10"/>
       <c r="G50" s="9"/>
       <c r="H50" s="10"/>
       <c r="I50" s="22" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="AMJ50" s="12"/>
     </row>
@@ -3812,13 +3808,13 @@
         <v>7</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F51" s="10"/>
       <c r="G51" s="9"/>
@@ -3832,13 +3828,13 @@
         <v>7</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F52" s="10"/>
       <c r="G52" s="9"/>
@@ -3852,35 +3848,35 @@
         <v>7</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F53" s="10"/>
       <c r="G53" s="9"/>
       <c r="H53" s="10"/>
       <c r="I53" s="21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AMJ53" s="12"/>
     </row>
     <row r="54" spans="1:1024" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="101"/>
       <c r="B54" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F54" s="10"/>
       <c r="G54" s="13"/>
@@ -3891,16 +3887,16 @@
     <row r="55" spans="1:1024" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="101"/>
       <c r="B55" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F55" s="10"/>
       <c r="G55" s="13"/>
@@ -3911,16 +3907,16 @@
     <row r="56" spans="1:1024" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="101"/>
       <c r="B56" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>105</v>
+        <v>514</v>
       </c>
       <c r="F56" s="10"/>
       <c r="G56" s="13"/>
@@ -3931,38 +3927,38 @@
     <row r="57" spans="1:1024" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="101"/>
       <c r="B57" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F57" s="10"/>
       <c r="G57" s="13"/>
       <c r="H57" s="10"/>
       <c r="I57" s="21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AMJ57" s="12"/>
     </row>
     <row r="58" spans="1:1024" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="101"/>
       <c r="B58" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F58" s="10"/>
       <c r="G58" s="13"/>
@@ -3973,16 +3969,16 @@
     <row r="59" spans="1:1024" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="101"/>
       <c r="B59" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E59" s="14" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F59" s="10"/>
       <c r="G59" s="14"/>
@@ -3993,16 +3989,16 @@
     <row r="60" spans="1:1024" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="101"/>
       <c r="B60" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E60" s="14" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F60" s="10"/>
       <c r="G60" s="14"/>
@@ -4013,16 +4009,16 @@
     <row r="61" spans="1:1024" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="101"/>
       <c r="B61" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E61" s="14" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F61" s="10"/>
       <c r="G61" s="14"/>
@@ -4033,16 +4029,16 @@
     <row r="62" spans="1:1024" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="101"/>
       <c r="B62" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E62" s="14" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F62" s="10"/>
       <c r="G62" s="14"/>
@@ -4053,16 +4049,16 @@
     <row r="63" spans="1:1024" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="102"/>
       <c r="B63" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D63" s="16" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F63" s="17"/>
       <c r="G63" s="16"/>
@@ -4072,19 +4068,19 @@
     </row>
     <row r="64" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="23" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B64" s="105" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C64" s="105" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D64" s="105" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E64" s="105" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F64" s="5"/>
       <c r="G64" s="106"/>
@@ -4094,16 +4090,16 @@
     <row r="65" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="101"/>
       <c r="B65" s="103" t="s">
+        <v>114</v>
+      </c>
+      <c r="C65" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="D65" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="E65" s="103" t="s">
         <v>119</v>
-      </c>
-      <c r="C65" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="D65" s="35" t="s">
-        <v>123</v>
-      </c>
-      <c r="E65" s="103" t="s">
-        <v>124</v>
       </c>
       <c r="F65" s="10"/>
       <c r="G65" s="35"/>
@@ -4113,16 +4109,16 @@
     <row r="66" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="101"/>
       <c r="B66" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C66" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="D66" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="D66" s="14" t="s">
-        <v>125</v>
-      </c>
       <c r="E66" s="14" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F66" s="10"/>
       <c r="G66" s="14"/>
@@ -4132,16 +4128,16 @@
     <row r="67" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="101"/>
       <c r="B67" s="103" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C67" s="35" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D67" s="35" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E67" s="103" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F67" s="10"/>
       <c r="G67" s="35"/>
@@ -4151,16 +4147,16 @@
     <row r="68" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="101"/>
       <c r="B68" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E68" s="14" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F68" s="10"/>
       <c r="G68" s="14"/>
@@ -4170,16 +4166,16 @@
     <row r="69" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="101"/>
       <c r="B69" s="103" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C69" s="103" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D69" s="103" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E69" s="103" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F69" s="10"/>
       <c r="G69" s="35"/>
@@ -4189,16 +4185,16 @@
     <row r="70" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="101"/>
       <c r="B70" s="35" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C70" s="35" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D70" s="35" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E70" s="103" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F70" s="10"/>
       <c r="G70" s="35"/>
@@ -4208,16 +4204,16 @@
     <row r="71" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="101"/>
       <c r="B71" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E71" s="14" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F71" s="10"/>
       <c r="G71" s="14"/>
@@ -4227,16 +4223,16 @@
     <row r="72" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="101"/>
       <c r="B72" s="35" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C72" s="35" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D72" s="35" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E72" s="103" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F72" s="10"/>
       <c r="G72" s="35"/>
@@ -4246,16 +4242,16 @@
     <row r="73" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="101"/>
       <c r="B73" s="35" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C73" s="35" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D73" s="35" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E73" s="103" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F73" s="10"/>
       <c r="G73" s="35"/>
@@ -4265,16 +4261,16 @@
     <row r="74" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="101"/>
       <c r="B74" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E74" s="14" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F74" s="10"/>
       <c r="G74" s="14"/>
@@ -4284,16 +4280,16 @@
     <row r="75" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="101"/>
       <c r="B75" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E75" s="13" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F75" s="10"/>
       <c r="G75" s="13"/>
@@ -4303,16 +4299,16 @@
     <row r="76" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="101"/>
       <c r="B76" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D76" s="13" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E76" s="13" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F76" s="10"/>
       <c r="G76" s="13"/>
@@ -4322,16 +4318,16 @@
     <row r="77" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="101"/>
       <c r="B77" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D77" s="13" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E77" s="13" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F77" s="10"/>
       <c r="G77" s="13"/>
@@ -4341,16 +4337,16 @@
     <row r="78" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="101"/>
       <c r="B78" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D78" s="13" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E78" s="13" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F78" s="10"/>
       <c r="G78" s="13"/>
@@ -4360,16 +4356,16 @@
     <row r="79" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="101"/>
       <c r="B79" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D79" s="13" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E79" s="13" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F79" s="10"/>
       <c r="G79" s="13"/>
@@ -4379,16 +4375,16 @@
     <row r="80" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="101"/>
       <c r="B80" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D80" s="13" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E80" s="13" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F80" s="10"/>
       <c r="G80" s="13"/>
@@ -4398,16 +4394,16 @@
     <row r="81" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="101"/>
       <c r="B81" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E81" s="13" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F81" s="10"/>
       <c r="G81" s="13"/>
@@ -4417,16 +4413,16 @@
     <row r="82" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="101"/>
       <c r="B82" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D82" s="13" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E82" s="13" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F82" s="10"/>
       <c r="G82" s="13"/>
@@ -4436,16 +4432,16 @@
     <row r="83" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="101"/>
       <c r="B83" s="35" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C83" s="35" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D83" s="35" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E83" s="103" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F83" s="10"/>
       <c r="G83" s="35"/>
@@ -4455,16 +4451,16 @@
     <row r="84" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="101"/>
       <c r="B84" s="35" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C84" s="35" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D84" s="35" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E84" s="103" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F84" s="10"/>
       <c r="G84" s="35"/>
@@ -4495,19 +4491,19 @@
     </row>
     <row r="87" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="23" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F87" s="5"/>
       <c r="G87" s="4"/>
@@ -4517,16 +4513,16 @@
     <row r="88" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="101"/>
       <c r="B88" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D88" s="13" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E88" s="13" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F88" s="10"/>
       <c r="G88" s="13"/>
@@ -4536,16 +4532,16 @@
     <row r="89" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="101"/>
       <c r="B89" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C89" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="D89" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="D89" s="13" t="s">
-        <v>165</v>
-      </c>
       <c r="E89" s="13" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="F89" s="10"/>
       <c r="G89" s="13"/>
@@ -4555,16 +4551,16 @@
     <row r="90" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="101"/>
       <c r="B90" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D90" s="13" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="E90" s="13" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="F90" s="10"/>
       <c r="G90" s="13"/>
@@ -4574,37 +4570,37 @@
     <row r="91" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="101"/>
       <c r="B91" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D91" s="14" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E91" s="14" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="F91" s="10"/>
       <c r="G91" s="14"/>
       <c r="H91" s="10"/>
       <c r="I91" s="21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="101"/>
       <c r="B92" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D92" s="14" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="E92" s="14" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="F92" s="10"/>
       <c r="G92" s="14"/>
@@ -4646,25 +4642,25 @@
     </row>
     <row r="96" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="23" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F96" s="5"/>
       <c r="G96" s="4"/>
       <c r="H96" s="5"/>
       <c r="I96" s="5" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
     </row>
     <row r="97" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -4673,13 +4669,13 @@
         <v>7</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F97" s="10"/>
       <c r="G97" s="9"/>
@@ -4692,13 +4688,13 @@
         <v>7</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F98" s="10"/>
       <c r="G98" s="9"/>
@@ -4708,16 +4704,16 @@
     <row r="99" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="101"/>
       <c r="B99" s="35" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C99" s="35" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D99" s="35" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="E99" s="103" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F99" s="10"/>
       <c r="G99" s="35"/>
@@ -4730,19 +4726,19 @@
         <v>7</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="F100" s="10"/>
       <c r="G100" s="9"/>
       <c r="H100" s="10"/>
       <c r="I100" s="10" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="101" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -4751,13 +4747,13 @@
         <v>7</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="F101" s="10"/>
       <c r="G101" s="9"/>
@@ -4770,19 +4766,19 @@
         <v>7</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="F102" s="10"/>
       <c r="G102" s="9"/>
       <c r="H102" s="10"/>
       <c r="I102" s="10" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="103" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -4791,19 +4787,19 @@
         <v>7</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="F103" s="10"/>
       <c r="G103" s="9"/>
       <c r="H103" s="10"/>
       <c r="I103" s="10" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
     </row>
     <row r="104" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -4812,13 +4808,13 @@
         <v>7</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="F104" s="10"/>
       <c r="G104" s="9"/>
@@ -4831,19 +4827,19 @@
         <v>7</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="F105" s="10"/>
       <c r="G105" s="9"/>
       <c r="H105" s="10"/>
       <c r="I105" s="10" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="106" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -4852,13 +4848,13 @@
         <v>7</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="F106" s="10"/>
       <c r="G106" s="9"/>
@@ -4871,13 +4867,13 @@
         <v>7</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="F107" s="10"/>
       <c r="G107" s="9"/>
@@ -4931,16 +4927,16 @@
     <row r="112" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="101"/>
       <c r="B112" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C112" s="13" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D112" s="13" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="E112" s="13" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="F112" s="10"/>
       <c r="G112" s="13"/>
@@ -4950,16 +4946,16 @@
     <row r="113" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="101"/>
       <c r="B113" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C113" s="13" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D113" s="13" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="E113" s="13" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="F113" s="10"/>
       <c r="G113" s="13"/>
@@ -4969,16 +4965,16 @@
     <row r="114" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="101"/>
       <c r="B114" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C114" s="13" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D114" s="13" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="E114" s="13" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F114" s="10"/>
       <c r="G114" s="13"/>
@@ -4988,16 +4984,16 @@
     <row r="115" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="101"/>
       <c r="B115" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C115" s="13" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D115" s="13" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="E115" s="13" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="F115" s="10"/>
       <c r="G115" s="13"/>
@@ -5007,37 +5003,37 @@
     <row r="116" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="101"/>
       <c r="B116" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C116" s="13" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D116" s="13" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="E116" s="13" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="F116" s="10"/>
       <c r="G116" s="13"/>
       <c r="H116" s="10"/>
       <c r="I116" s="10" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
     </row>
     <row r="117" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="101"/>
       <c r="B117" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C117" s="13" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D117" s="13" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="E117" s="13" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="F117" s="10"/>
       <c r="G117" s="13"/>
@@ -5047,16 +5043,16 @@
     <row r="118" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="101"/>
       <c r="B118" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C118" s="13" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D118" s="13" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="E118" s="13" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="F118" s="10"/>
       <c r="G118" s="13"/>
@@ -5120,19 +5116,19 @@
     </row>
     <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="43" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B124" s="44" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C124" s="45" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D124" s="44" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E124" s="46" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F124" s="34"/>
       <c r="G124" s="45"/>
@@ -5140,24 +5136,24 @@
         <v>80</v>
       </c>
       <c r="I124" s="34" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B125" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="C125" s="45" t="s">
         <v>173</v>
       </c>
-      <c r="C125" s="45" t="s">
-        <v>178</v>
-      </c>
       <c r="D125" s="45" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E125" s="48" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F125" s="34"/>
       <c r="G125" s="45"/>
@@ -5165,24 +5161,24 @@
         <v>80</v>
       </c>
       <c r="I125" s="34" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B126" s="45" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C126" s="45" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D126" s="45" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E126" s="48" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F126" s="34"/>
       <c r="G126" s="45"/>
@@ -5190,24 +5186,24 @@
         <v>80</v>
       </c>
       <c r="I126" s="34" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B127" s="49" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C127" s="49" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D127" s="49" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E127" s="50" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F127" s="10"/>
       <c r="G127" s="49"/>
@@ -5216,19 +5212,19 @@
     </row>
     <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B128" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C128" s="39" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D128" s="13" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E128" s="31" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F128" s="34"/>
       <c r="G128" s="39"/>
@@ -5237,19 +5233,19 @@
     </row>
     <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B129" s="49" t="s">
+        <v>180</v>
+      </c>
+      <c r="C129" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="D129" s="49" t="s">
         <v>185</v>
       </c>
-      <c r="C129" s="51" t="s">
-        <v>174</v>
-      </c>
-      <c r="D129" s="49" t="s">
-        <v>190</v>
-      </c>
       <c r="E129" s="49" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F129" s="34"/>
       <c r="G129" s="51"/>
@@ -5258,19 +5254,19 @@
     </row>
     <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B130" s="39" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C130" s="39" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D130" s="39" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E130" s="24" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F130" s="34"/>
       <c r="G130" s="39"/>
@@ -5279,19 +5275,19 @@
     </row>
     <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B131" s="51" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C131" s="51" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D131" s="51" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E131" s="52" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F131" s="34"/>
       <c r="G131" s="51"/>
@@ -5300,19 +5296,19 @@
     </row>
     <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B132" s="39" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C132" s="39" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D132" s="39" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E132" s="24" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F132" s="34"/>
       <c r="G132" s="39"/>
@@ -5321,19 +5317,19 @@
     </row>
     <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B133" s="51" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C133" s="51" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D133" s="51" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E133" s="52" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F133" s="34"/>
       <c r="G133" s="51"/>
@@ -5342,19 +5338,19 @@
     </row>
     <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B134" s="39" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C134" s="39" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D134" s="39" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E134" s="24" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F134" s="34"/>
       <c r="G134" s="39"/>
@@ -5363,19 +5359,19 @@
     </row>
     <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B135" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C135" s="28" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D135" s="28" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E135" s="29" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F135" s="34"/>
       <c r="G135" s="28"/>
@@ -5384,19 +5380,19 @@
     </row>
     <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B136" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C136" s="28" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D136" s="28" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E136" s="29" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F136" s="34"/>
       <c r="G136" s="28"/>
@@ -5405,19 +5401,19 @@
     </row>
     <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B137" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C137" s="28" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D137" s="28" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E137" s="29" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F137" s="34"/>
       <c r="G137" s="28"/>
@@ -5426,19 +5422,19 @@
     </row>
     <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B138" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C138" s="28" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D138" s="28" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E138" s="29" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F138" s="34"/>
       <c r="G138" s="28"/>
@@ -5447,19 +5443,19 @@
     </row>
     <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B139" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C139" s="28" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D139" s="28" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E139" s="29" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="F139" s="34"/>
       <c r="G139" s="28"/>
@@ -5468,19 +5464,19 @@
     </row>
     <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B140" s="39" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C140" s="39" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D140" s="39" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E140" s="24" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="F140" s="34"/>
       <c r="G140" s="39"/>
@@ -5489,19 +5485,19 @@
     </row>
     <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B141" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C141" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="D141" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="D141" s="9" t="s">
-        <v>215</v>
-      </c>
       <c r="E141" s="40" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F141" s="10"/>
       <c r="G141" s="9"/>
@@ -5510,19 +5506,19 @@
     </row>
     <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B142" s="35" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C142" s="35" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D142" s="35" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E142" s="37" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F142" s="10"/>
       <c r="G142" s="35"/>
@@ -5531,19 +5527,19 @@
     </row>
     <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B143" s="35" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C143" s="35" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D143" s="35" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E143" s="37" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F143" s="10"/>
       <c r="G143" s="35"/>
@@ -5552,19 +5548,19 @@
     </row>
     <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B144" s="35" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C144" s="35" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D144" s="35" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E144" s="37" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F144" s="10"/>
       <c r="G144" s="35"/>
@@ -5573,19 +5569,19 @@
     </row>
     <row r="145" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B145" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C145" s="14" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D145" s="14" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E145" s="38" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="F145" s="10"/>
       <c r="G145" s="14"/>
@@ -5594,19 +5590,19 @@
     </row>
     <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B146" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C146" s="13" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D146" s="13" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E146" s="31" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F146" s="10"/>
       <c r="G146" s="13"/>
@@ -5615,19 +5611,19 @@
     </row>
     <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B147" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C147" s="13" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D147" s="13" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="E147" s="31" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F147" s="10"/>
       <c r="G147" s="13"/>
@@ -5636,19 +5632,19 @@
     </row>
     <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B148" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C148" s="13" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D148" s="13" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E148" s="31" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="F148" s="10"/>
       <c r="G148" s="13"/>
@@ -5657,19 +5653,19 @@
     </row>
     <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B149" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D149" s="9" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E149" s="40" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F149" s="10"/>
       <c r="G149" s="9"/>
@@ -5678,19 +5674,19 @@
     </row>
     <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B150" s="35" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C150" s="35" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D150" s="35" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="E150" s="37" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F150" s="10"/>
       <c r="G150" s="35"/>
@@ -5699,19 +5695,19 @@
     </row>
     <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B151" s="35" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C151" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="D151" s="35" t="s">
         <v>231</v>
       </c>
-      <c r="D151" s="35" t="s">
-        <v>236</v>
-      </c>
       <c r="E151" s="37" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F151" s="10"/>
       <c r="G151" s="35"/>
@@ -5720,19 +5716,19 @@
     </row>
     <row r="152" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B152" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C152" s="14" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D152" s="14" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E152" s="38" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F152" s="10"/>
       <c r="G152" s="14"/>
@@ -5741,19 +5737,19 @@
     </row>
     <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B153" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C153" s="13" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D153" s="13" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E153" s="31" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F153" s="10"/>
       <c r="G153" s="13"/>
@@ -5762,19 +5758,19 @@
     </row>
     <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B154" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C154" s="13" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D154" s="13" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="E154" s="31" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F154" s="10"/>
       <c r="G154" s="13"/>
@@ -5783,19 +5779,19 @@
     </row>
     <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B155" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C155" s="13" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D155" s="13" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="E155" s="31" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F155" s="10"/>
       <c r="G155" s="13"/>
@@ -5804,19 +5800,19 @@
     </row>
     <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B156" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C156" s="9" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D156" s="9" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="E156" s="40" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F156" s="10"/>
       <c r="G156" s="9"/>
@@ -5825,19 +5821,19 @@
     </row>
     <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B157" s="35" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C157" s="35" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D157" s="35" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E157" s="37" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F157" s="10"/>
       <c r="G157" s="35"/>
@@ -5846,19 +5842,19 @@
     </row>
     <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B158" s="35" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C158" s="35" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D158" s="35" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="E158" s="37" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F158" s="10"/>
       <c r="G158" s="35"/>
@@ -5867,22 +5863,22 @@
     </row>
     <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B159" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C159" s="14" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D159" s="14" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="E159" s="38" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F159" s="14" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="G159" s="14"/>
       <c r="H159" s="10"/>
@@ -5890,19 +5886,19 @@
     </row>
     <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B160" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C160" s="14" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D160" s="14" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E160" s="38" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="F160" s="10"/>
       <c r="G160" s="14"/>
@@ -5911,19 +5907,19 @@
     </row>
     <row r="161" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B161" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C161" s="13" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D161" s="13" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="E161" s="31" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="F161" s="10"/>
       <c r="G161" s="13"/>
@@ -5932,19 +5928,19 @@
     </row>
     <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B162" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C162" s="13" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D162" s="13" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="E162" s="31" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="F162" s="10"/>
       <c r="G162" s="13"/>
@@ -5953,19 +5949,19 @@
     </row>
     <row r="163" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B163" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C163" s="13" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D163" s="13" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E163" s="31" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="F163" s="10"/>
       <c r="G163" s="13"/>
@@ -5974,19 +5970,19 @@
     </row>
     <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B164" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C164" s="9" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D164" s="9" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="E164" s="40" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F164" s="10"/>
       <c r="G164" s="9"/>
@@ -5995,19 +5991,19 @@
     </row>
     <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B165" s="35" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C165" s="35" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D165" s="35" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E165" s="37" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F165" s="10"/>
       <c r="G165" s="35"/>
@@ -6016,19 +6012,19 @@
     </row>
     <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B166" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C166" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="D166" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="D166" s="13" t="s">
-        <v>268</v>
-      </c>
       <c r="E166" s="31" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F166" s="10"/>
       <c r="G166" s="13"/>
@@ -6037,19 +6033,19 @@
     </row>
     <row r="167" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B167" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C167" s="9" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D167" s="9" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="E167" s="40" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F167" s="10"/>
       <c r="G167" s="9"/>
@@ -6058,19 +6054,19 @@
     </row>
     <row r="168" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B168" s="35" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C168" s="35" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D168" s="35" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="E168" s="37" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F168" s="10"/>
       <c r="G168" s="35"/>
@@ -6079,19 +6075,19 @@
     </row>
     <row r="169" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B169" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C169" s="13" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D169" s="13" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="E169" s="31" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="F169" s="10"/>
       <c r="G169" s="13"/>
@@ -6100,19 +6096,19 @@
     </row>
     <row r="170" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B170" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C170" s="9" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D170" s="9" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="E170" s="40" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F170" s="10"/>
       <c r="G170" s="9"/>
@@ -6121,19 +6117,19 @@
     </row>
     <row r="171" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B171" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C171" s="13" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D171" s="13" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="E171" s="31" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F171" s="10"/>
       <c r="G171" s="13"/>
@@ -6142,19 +6138,19 @@
     </row>
     <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B172" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C172" s="9" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D172" s="9" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="E172" s="40" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F172" s="10"/>
       <c r="G172" s="9"/>
@@ -6163,19 +6159,19 @@
     </row>
     <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B173" s="35" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C173" s="35" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D173" s="35" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E173" s="37" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="F173" s="10"/>
       <c r="G173" s="35"/>
@@ -6184,19 +6180,19 @@
     </row>
     <row r="174" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B174" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C174" s="13" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D174" s="13" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="E174" s="31" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="F174" s="10"/>
       <c r="G174" s="13"/>
@@ -6205,19 +6201,19 @@
     </row>
     <row r="175" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B175" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C175" s="9" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D175" s="9" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="E175" s="40" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F175" s="10"/>
       <c r="G175" s="9"/>
@@ -6226,19 +6222,19 @@
     </row>
     <row r="176" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B176" s="35" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C176" s="35" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D176" s="35" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="E176" s="37" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F176" s="10"/>
       <c r="G176" s="35"/>
@@ -6247,19 +6243,19 @@
     </row>
     <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B177" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C177" s="13" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D177" s="13" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E177" s="31" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F177" s="10"/>
       <c r="G177" s="13"/>
@@ -6268,19 +6264,19 @@
     </row>
     <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B178" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C178" s="9" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D178" s="9" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E178" s="40" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F178" s="10"/>
       <c r="G178" s="9"/>
@@ -6289,19 +6285,19 @@
     </row>
     <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B179" s="35" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C179" s="35" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D179" s="35" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="E179" s="37" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F179" s="10"/>
       <c r="G179" s="35"/>
@@ -6310,19 +6306,19 @@
     </row>
     <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B180" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C180" s="13" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D180" s="13" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="E180" s="31" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F180" s="10"/>
       <c r="G180" s="13"/>
@@ -6331,19 +6327,19 @@
     </row>
     <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B181" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C181" s="9" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D181" s="9" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="E181" s="40" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F181" s="10"/>
       <c r="G181" s="9"/>
@@ -6352,19 +6348,19 @@
     </row>
     <row r="182" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B182" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C182" s="13" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D182" s="13" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="E182" s="31" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F182" s="10"/>
       <c r="G182" s="13"/>
@@ -6373,19 +6369,19 @@
     </row>
     <row r="183" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B183" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C183" s="9" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D183" s="9" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="E183" s="40" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F183" s="10"/>
       <c r="G183" s="9"/>
@@ -6394,19 +6390,19 @@
     </row>
     <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B184" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C184" s="13" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D184" s="13" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="E184" s="31" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F184" s="10"/>
       <c r="G184" s="13"/>
@@ -6417,19 +6413,19 @@
     </row>
     <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B185" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C185" s="9" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D185" s="9" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="E185" s="40" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="F185" s="10"/>
       <c r="G185" s="9"/>
@@ -6438,19 +6434,19 @@
     </row>
     <row r="186" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B186" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C186" s="13" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D186" s="13" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="E186" s="31" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F186" s="10"/>
       <c r="G186" s="13"/>
@@ -6459,19 +6455,19 @@
     </row>
     <row r="187" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B187" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C187" s="9" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D187" s="9" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="E187" s="40" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="F187" s="10"/>
       <c r="G187" s="9"/>
@@ -6480,19 +6476,19 @@
     </row>
     <row r="188" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B188" s="35" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C188" s="35" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D188" s="35" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="E188" s="37" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F188" s="10"/>
       <c r="G188" s="35"/>
@@ -6501,19 +6497,19 @@
     </row>
     <row r="189" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B189" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C189" s="14" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D189" s="14" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="E189" s="38" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="F189" s="10"/>
       <c r="G189" s="14"/>
@@ -6522,19 +6518,19 @@
     </row>
     <row r="190" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B190" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C190" s="13" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D190" s="13" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="E190" s="31" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="F190" s="10"/>
       <c r="G190" s="13"/>
@@ -6543,19 +6539,19 @@
     </row>
     <row r="191" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B191" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C191" s="9" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D191" s="9" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="E191" s="40" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="F191" s="10"/>
       <c r="G191" s="9"/>
@@ -6566,19 +6562,19 @@
     </row>
     <row r="192" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B192" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C192" s="13" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D192" s="13" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="E192" s="31" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="F192" s="10"/>
       <c r="G192" s="13"/>
@@ -6587,19 +6583,19 @@
     </row>
     <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B193" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C193" s="9" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D193" s="9" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="E193" s="40" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="F193" s="10"/>
       <c r="G193" s="9"/>
@@ -6608,19 +6604,19 @@
     </row>
     <row r="194" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B194" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C194" s="13" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D194" s="13" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="E194" s="31" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="F194" s="10"/>
       <c r="G194" s="13"/>
@@ -6629,19 +6625,19 @@
     </row>
     <row r="195" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B195" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C195" s="9" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D195" s="9" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="E195" s="40" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="F195" s="10"/>
       <c r="G195" s="9"/>
@@ -6652,19 +6648,19 @@
     </row>
     <row r="196" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B196" s="35" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C196" s="35" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D196" s="35" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="E196" s="37" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="F196" s="10"/>
       <c r="G196" s="35"/>
@@ -6673,19 +6669,19 @@
     </row>
     <row r="197" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B197" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C197" s="14" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D197" s="14" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="E197" s="38" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="F197" s="10"/>
       <c r="G197" s="14"/>
@@ -6694,19 +6690,19 @@
     </row>
     <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B198" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C198" s="13" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D198" s="13" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="E198" s="31" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="F198" s="10"/>
       <c r="G198" s="13"/>
@@ -6715,19 +6711,19 @@
     </row>
     <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B199" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C199" s="9" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D199" s="9" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="E199" s="40" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="F199" s="10"/>
       <c r="G199" s="9"/>
@@ -6736,19 +6732,19 @@
     </row>
     <row r="200" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B200" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C200" s="9" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D200" s="9" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="E200" s="40" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="F200" s="10"/>
       <c r="G200" s="9"/>
@@ -7258,19 +7254,19 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="F2" s="54"/>
       <c r="G2" s="9"/>
@@ -7290,10 +7286,10 @@
         <v>8</v>
       </c>
       <c r="D3" s="56" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="E3" s="56" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F3" s="57"/>
       <c r="G3" s="55"/>
@@ -7313,10 +7309,10 @@
         <v>8</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="59"/>
@@ -7336,10 +7332,10 @@
         <v>8</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="9"/>
@@ -7359,10 +7355,10 @@
         <v>8</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="28"/>
@@ -7373,19 +7369,19 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="43" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B7" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D7" s="56" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="E7" s="56" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="F7" s="57"/>
       <c r="G7" s="56"/>
@@ -7396,19 +7392,19 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="36" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="9"/>
@@ -7419,7 +7415,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="61" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B9" s="60" t="s">
         <v>7</v>
@@ -7428,10 +7424,10 @@
         <v>8</v>
       </c>
       <c r="D9" s="60" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="E9" s="60" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="F9" s="42"/>
       <c r="G9" s="60"/>
@@ -7442,7 +7438,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="62" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B10" s="63" t="s">
         <v>7</v>
@@ -7451,10 +7447,10 @@
         <v>8</v>
       </c>
       <c r="D10" s="63" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="E10" s="63" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F10" s="64"/>
       <c r="G10" s="63"/>
@@ -7465,19 +7461,19 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="66" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B11" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F11" s="34"/>
       <c r="G11" s="28"/>
@@ -7488,19 +7484,19 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="9"/>
@@ -7511,19 +7507,19 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="36" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>356</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>361</v>
-      </c>
       <c r="E13" s="40" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="9"/>
@@ -7534,19 +7530,19 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="36" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="9"/>
@@ -7557,7 +7553,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="36" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>7</v>
@@ -7566,10 +7562,10 @@
         <v>8</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="9"/>
@@ -7580,7 +7576,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="36" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>7</v>
@@ -7589,10 +7585,10 @@
         <v>8</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="E16" s="40" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="9"/>
@@ -7603,7 +7599,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="36" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B17" s="60" t="s">
         <v>7</v>
@@ -7612,10 +7608,10 @@
         <v>8</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="E17" s="40" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F17" s="42"/>
       <c r="G17" s="60"/>
@@ -7626,19 +7622,19 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="43" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B18" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D18" s="56" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E18" s="56" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="F18" s="34"/>
       <c r="G18" s="28"/>
@@ -7649,19 +7645,19 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="36" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B19" s="60" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="60" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D19" s="60" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="E19" s="68" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="F19" s="42"/>
       <c r="G19" s="60"/>
@@ -7672,19 +7668,19 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="43" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B20" s="63" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="63" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D20" s="69" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="E20" s="70" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="F20" s="67"/>
       <c r="G20" s="69"/>
@@ -7695,19 +7691,19 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="43" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B21" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D21" s="56" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E21" s="56" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F21" s="57"/>
       <c r="G21" s="56"/>
@@ -7718,19 +7714,19 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B22" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F22" s="34"/>
       <c r="G22" s="9"/>
@@ -7741,19 +7737,19 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B23" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F23" s="34"/>
       <c r="G23" s="9"/>
@@ -7764,19 +7760,19 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B24" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F24" s="34"/>
       <c r="G24" s="9"/>
@@ -7787,19 +7783,19 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B25" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="F25" s="34"/>
       <c r="G25" s="9"/>
@@ -7810,19 +7806,19 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="D26" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="D26" s="9" t="s">
-        <v>215</v>
-      </c>
       <c r="E26" s="40" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="9"/>
@@ -7833,19 +7829,19 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E27" s="40" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="9"/>
@@ -7856,19 +7852,19 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="E28" s="40" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="9"/>
@@ -7879,19 +7875,19 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="E29" s="40" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="9"/>
@@ -7902,19 +7898,19 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="E30" s="40" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="9"/>
@@ -7925,19 +7921,19 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="E31" s="40" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="9"/>
@@ -7948,19 +7944,19 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="E32" s="40" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F32" s="10"/>
       <c r="G32" s="9"/>
@@ -7971,19 +7967,19 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="E33" s="40" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F33" s="10"/>
       <c r="G33" s="9"/>
@@ -7994,19 +7990,19 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E34" s="40" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F34" s="10"/>
       <c r="G34" s="9"/>
@@ -8017,19 +8013,19 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="E35" s="40" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="9"/>
@@ -8040,19 +8036,19 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="E36" s="40" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="9"/>
@@ -8063,19 +8059,19 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="E37" s="40" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="F37" s="10"/>
       <c r="G37" s="9"/>
@@ -8086,19 +8082,19 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="E38" s="40" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="F38" s="10"/>
       <c r="G38" s="9"/>
@@ -8109,19 +8105,19 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="E39" s="40" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="F39" s="10"/>
       <c r="G39" s="9"/>
@@ -8132,19 +8128,19 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="E40" s="40" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="F40" s="10"/>
       <c r="G40" s="9"/>
@@ -8155,19 +8151,19 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="E41" s="40" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="F41" s="10"/>
       <c r="G41" s="9"/>
@@ -8178,19 +8174,19 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="E42" s="40" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="F42" s="10"/>
       <c r="G42" s="9"/>
@@ -8201,19 +8197,19 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B43" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="E43" s="40" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="F43" s="10"/>
       <c r="G43" s="9"/>
@@ -8302,22 +8298,22 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="66" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="E2" s="38" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="G2" s="14"/>
       <c r="H2" s="10">
@@ -8328,19 +8324,19 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B3" s="71" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" s="71" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D3" s="71" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="E3" s="71" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="F3" s="42"/>
       <c r="G3" s="71"/>
@@ -8352,22 +8348,22 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B4" s="71" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" s="71" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="D4" s="71" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="E4" s="72" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="F4" s="71" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="G4" s="71"/>
       <c r="H4" s="64" t="e">
@@ -8378,19 +8374,19 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="43" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="D5" s="14" t="s">
-        <v>125</v>
-      </c>
       <c r="E5" s="38" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="14"/>
@@ -8402,19 +8398,19 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="36" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="14"/>
@@ -8426,19 +8422,19 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="14"/>
@@ -8450,19 +8446,19 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="61" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B8" s="71" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C8" s="71" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D8" s="71" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="E8" s="72" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="F8" s="42"/>
       <c r="G8" s="71"/>
@@ -8474,19 +8470,19 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="43" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B9" s="73" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C9" s="73" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D9" s="73" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E9" s="74" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="F9" s="34"/>
       <c r="G9" s="73"/>
@@ -8498,19 +8494,19 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E10" s="38" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="14"/>
@@ -8522,22 +8518,22 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="E11" s="38" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="10">
@@ -8548,19 +8544,19 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="14"/>
@@ -8572,19 +8568,19 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="E13" s="38" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="14"/>
@@ -8593,19 +8589,19 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="14"/>
@@ -8683,19 +8679,19 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B2" s="75" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C2" s="75" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D2" s="75" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="E2" s="75" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="F2" s="42"/>
       <c r="G2" s="75"/>
@@ -8703,19 +8699,19 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="43" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F3" s="34"/>
       <c r="G3" s="32"/>
@@ -8723,19 +8719,19 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B4" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>385</v>
+      </c>
+      <c r="E4" s="37" t="s">
         <v>119</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>390</v>
-      </c>
-      <c r="E4" s="37" t="s">
-        <v>124</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="35"/>
@@ -8743,19 +8739,19 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="35"/>
@@ -8763,19 +8759,19 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="36" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="35"/>
@@ -8783,19 +8779,19 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="35"/>
@@ -8803,19 +8799,19 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="61" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B8" s="75" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C8" s="75" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D8" s="75" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="E8" s="76" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="F8" s="42"/>
       <c r="G8" s="75"/>
@@ -8823,19 +8819,19 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="43" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F9" s="34"/>
       <c r="G9" s="32"/>
@@ -8843,19 +8839,19 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E10" s="37" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="35"/>
@@ -8863,19 +8859,19 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E11" s="37" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="35"/>
@@ -8883,19 +8879,19 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="E12" s="37" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="35"/>
@@ -8903,19 +8899,19 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C13" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="D13" s="35" t="s">
         <v>231</v>
       </c>
-      <c r="D13" s="35" t="s">
-        <v>236</v>
-      </c>
       <c r="E13" s="37" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="35"/>
@@ -8923,19 +8919,19 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E14" s="37" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="35"/>
@@ -8943,19 +8939,19 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="E15" s="37" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="35"/>
@@ -8963,19 +8959,19 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E16" s="37" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="35"/>
@@ -8983,19 +8979,19 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="E17" s="37" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="35"/>
@@ -9003,19 +8999,19 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E18" s="37" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="35"/>
@@ -9023,19 +9019,19 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="E19" s="37" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="35"/>
@@ -9043,19 +9039,19 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="E20" s="37" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="35"/>
@@ -9063,19 +9059,19 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C21" s="35" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="E21" s="37" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="35"/>
@@ -9083,19 +9079,19 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="E22" s="37" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="35"/>
@@ -9163,19 +9159,19 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="77" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B2" s="78" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" s="78" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D2" s="78" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="E2" s="78" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="F2" s="42"/>
       <c r="G2" s="78"/>
@@ -9187,16 +9183,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" s="39" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="E3" s="39" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F3" s="34"/>
       <c r="G3" s="39"/>
@@ -9208,16 +9204,16 @@
         <v>6</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" s="39" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="E4" s="39" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="39"/>
@@ -9229,16 +9225,16 @@
         <v>6</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" s="39" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="39" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="39"/>
@@ -9250,16 +9246,16 @@
         <v>6</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" s="39" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="39"/>
@@ -9271,16 +9267,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7" s="41" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="78" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="E7" s="82" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F7" s="42"/>
       <c r="G7" s="78"/>
@@ -9289,19 +9285,19 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="43" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="F8" s="34"/>
       <c r="G8" s="39"/>
@@ -9310,19 +9306,19 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="13"/>
@@ -9331,19 +9327,19 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="61" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B10" s="78" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C10" s="78" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="78" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="E10" s="82" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="F10" s="84"/>
       <c r="G10" s="78"/>
@@ -9352,19 +9348,19 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="66" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C11" s="39" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="F11" s="34"/>
       <c r="G11" s="39"/>
@@ -9373,19 +9369,19 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C12" s="39" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="39" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="F12" s="34"/>
       <c r="G12" s="39"/>
@@ -9394,19 +9390,19 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="36" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C13" s="39" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="39" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="F13" s="34"/>
       <c r="G13" s="39"/>
@@ -9415,19 +9411,19 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="61" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="B14" s="41" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C14" s="41" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="41" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="E14" s="41" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="F14" s="42"/>
       <c r="G14" s="41"/>
@@ -9436,19 +9432,19 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="66" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="B15" s="39" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C15" s="39" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="39" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F15" s="34"/>
       <c r="G15" s="39"/>
@@ -9457,19 +9453,19 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="36" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="B16" s="39" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C16" s="39" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="39" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="F16" s="34"/>
       <c r="G16" s="39"/>
@@ -9478,19 +9474,19 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="36" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="B17" s="39" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C17" s="39" t="s">
         <v>8</v>
       </c>
       <c r="D17" s="39" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F17" s="34"/>
       <c r="G17" s="39"/>
@@ -9499,19 +9495,19 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="61" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="B18" s="41" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C18" s="41" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="41" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E18" s="41" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="F18" s="42"/>
       <c r="G18" s="41"/>
@@ -9520,19 +9516,19 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="66" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C19" s="39" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="39" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="E19" s="39" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="F19" s="34"/>
       <c r="G19" s="39"/>
@@ -9541,19 +9537,19 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="36" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="13"/>
@@ -9562,19 +9558,19 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="36" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B21" s="85" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C21" s="85" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="85" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="E21" s="85" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="F21" s="54"/>
       <c r="G21" s="85"/>
@@ -9583,19 +9579,19 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="61" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B22" s="41" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C22" s="41" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="41" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="E22" s="41" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="F22" s="42"/>
       <c r="G22" s="41"/>
@@ -9604,19 +9600,19 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="66" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="B23" s="86" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C23" s="86" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="86" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="E23" s="86" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="F23" s="57"/>
       <c r="G23" s="86"/>
@@ -9625,19 +9621,19 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="36" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="F24" s="10"/>
       <c r="G24" s="13"/>
@@ -9646,19 +9642,19 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="36" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="13"/>
@@ -9667,19 +9663,19 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="61" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="B26" s="78" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C26" s="78" t="s">
         <v>8</v>
       </c>
       <c r="D26" s="78" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="E26" s="41" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="F26" s="64"/>
       <c r="G26" s="78"/>
@@ -9688,19 +9684,19 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="66" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="E27" s="31" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="13"/>
@@ -9709,19 +9705,19 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="36" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="E28" s="31" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="13"/>
@@ -9730,19 +9726,19 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="36" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C29" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="E29" s="31" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="13"/>
@@ -9751,19 +9747,19 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="36" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C30" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="E30" s="31" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="13"/>
@@ -9772,19 +9768,19 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="36" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C31" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="E31" s="31" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="13"/>
@@ -9793,19 +9789,19 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="36" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C32" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="E32" s="31" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="F32" s="10"/>
       <c r="G32" s="13"/>
@@ -9814,19 +9810,19 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="61" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C33" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="E33" s="31" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="F33" s="10"/>
       <c r="G33" s="13"/>
@@ -9835,19 +9831,19 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="66" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B34" s="86" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C34" s="86" t="s">
         <v>8</v>
       </c>
       <c r="D34" s="86" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="E34" s="87" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="F34" s="57"/>
       <c r="G34" s="86"/>
@@ -9856,19 +9852,19 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="36" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B35" s="39" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C35" s="39" t="s">
         <v>8</v>
       </c>
       <c r="D35" s="39" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="F35" s="34"/>
       <c r="G35" s="39"/>
@@ -9877,19 +9873,19 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="36" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B36" s="78" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C36" s="78" t="s">
         <v>8</v>
       </c>
       <c r="D36" s="41" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="E36" s="41" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="F36" s="64"/>
       <c r="G36" s="78"/>
@@ -9898,19 +9894,19 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="43" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B37" s="39" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C37" s="39" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D37" s="39" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="E37" s="24" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="F37" s="34"/>
       <c r="G37" s="39"/>
@@ -9919,19 +9915,19 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="36" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="F38" s="10"/>
       <c r="G38" s="13"/>
@@ -9940,19 +9936,19 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="36" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B39" s="41" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C39" s="41" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D39" s="41" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="E39" s="41" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="F39" s="42"/>
       <c r="G39" s="41"/>
@@ -9961,19 +9957,19 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="43" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B40" s="39" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C40" s="39" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D40" s="39" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="E40" s="24" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="F40" s="34"/>
       <c r="G40" s="39"/>
@@ -9982,19 +9978,19 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="36" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="E41" s="31" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="F41" s="10"/>
       <c r="G41" s="13"/>
@@ -10003,19 +9999,19 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="36" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="E42" s="31" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="F42" s="10"/>
       <c r="G42" s="13"/>
@@ -10024,19 +10020,19 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="36" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="E43" s="31" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="F43" s="10"/>
       <c r="G43" s="13"/>
@@ -10045,19 +10041,19 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="36" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="E44" s="31" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="F44" s="10"/>
       <c r="G44" s="13"/>
@@ -10066,19 +10062,19 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="36" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B45" s="41" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C45" s="41" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D45" s="41" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="E45" s="41" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="F45" s="42"/>
       <c r="G45" s="41"/>
@@ -10087,19 +10083,19 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="43" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B46" s="39" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C46" s="39" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D46" s="39" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E46" s="24" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F46" s="34"/>
       <c r="G46" s="39"/>
@@ -10108,19 +10104,19 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B47" s="39" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C47" s="39" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D47" s="39" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E47" s="24" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F47" s="34"/>
       <c r="G47" s="39"/>
@@ -10129,19 +10125,19 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B48" s="39" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C48" s="39" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D48" s="39" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E48" s="24" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F48" s="34"/>
       <c r="G48" s="39"/>
@@ -10150,19 +10146,19 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B49" s="39" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C49" s="39" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D49" s="39" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E49" s="24" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F49" s="34"/>
       <c r="G49" s="39"/>
@@ -10171,19 +10167,19 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B50" s="39" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C50" s="39" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D50" s="39" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E50" s="24" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="F50" s="34"/>
       <c r="G50" s="39"/>
@@ -10192,19 +10188,19 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E51" s="31" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F51" s="10"/>
       <c r="G51" s="13"/>
@@ -10213,19 +10209,19 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="E52" s="31" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F52" s="10"/>
       <c r="G52" s="13"/>
@@ -10234,19 +10230,19 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E53" s="31" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="F53" s="10"/>
       <c r="G53" s="13"/>
@@ -10255,19 +10251,19 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E54" s="31" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F54" s="10"/>
       <c r="G54" s="13"/>
@@ -10276,19 +10272,19 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="E55" s="31" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F55" s="10"/>
       <c r="G55" s="13"/>
@@ -10297,19 +10293,19 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="E56" s="31" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F56" s="10"/>
       <c r="G56" s="13"/>
@@ -10318,19 +10314,19 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="E57" s="31" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="F57" s="10"/>
       <c r="G57" s="13"/>
@@ -10339,19 +10335,19 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="E58" s="31" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="F58" s="10"/>
       <c r="G58" s="13"/>
@@ -10360,19 +10356,19 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E59" s="31" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="F59" s="10"/>
       <c r="G59" s="13"/>
@@ -10381,19 +10377,19 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C60" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="D60" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="D60" s="13" t="s">
-        <v>268</v>
-      </c>
       <c r="E60" s="31" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F60" s="10"/>
       <c r="G60" s="13"/>
@@ -10402,19 +10398,19 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="E61" s="31" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="F61" s="10"/>
       <c r="G61" s="13"/>
@@ -10423,19 +10419,19 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="E62" s="31" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F62" s="10"/>
       <c r="G62" s="13"/>
@@ -10444,19 +10440,19 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D63" s="13" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="E63" s="31" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="F63" s="10"/>
       <c r="G63" s="13"/>
@@ -10465,19 +10461,19 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E64" s="31" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F64" s="10"/>
       <c r="G64" s="13"/>
@@ -10486,19 +10482,19 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D65" s="13" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="E65" s="31" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F65" s="10"/>
       <c r="G65" s="13"/>
@@ -10507,19 +10503,19 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="E66" s="31" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F66" s="10"/>
       <c r="G66" s="13"/>
@@ -10528,19 +10524,19 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D67" s="13" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="E67" s="31" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F67" s="10"/>
       <c r="G67" s="13"/>
@@ -10549,19 +10545,19 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D68" s="13" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="E68" s="31" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F68" s="10"/>
       <c r="G68" s="13"/>
@@ -10570,19 +10566,19 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D69" s="13" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="E69" s="31" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="F69" s="10"/>
       <c r="G69" s="13"/>
@@ -10591,19 +10587,19 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="E70" s="31" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="F70" s="10"/>
       <c r="G70" s="13"/>
@@ -10612,19 +10608,19 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="E71" s="31" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="F71" s="10"/>
       <c r="G71" s="13"/>
@@ -10633,19 +10629,19 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D72" s="13" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="E72" s="31" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="F72" s="10"/>
       <c r="G72" s="13"/>
@@ -10705,19 +10701,19 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="66" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C2" s="49" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D2" s="49" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="E2" s="50" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="49"/>
@@ -10728,19 +10724,19 @@
     </row>
     <row r="3" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="B3" s="49" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C3" s="49" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D3" s="49" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="E3" s="50" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="49"/>
@@ -10751,19 +10747,19 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="61" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="B4" s="91" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C4" s="91" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D4" s="91" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="E4" s="92" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="F4" s="42"/>
       <c r="G4" s="91"/>
@@ -10774,19 +10770,19 @@
     </row>
     <row r="5" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="66" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B5" s="93" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C5" s="93" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="D5" s="93" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="E5" s="93" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="F5" s="94"/>
       <c r="G5" s="93"/>
@@ -10795,19 +10791,19 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B6" s="51" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C6" s="51" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D6" s="51" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E6" s="52" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F6" s="34"/>
       <c r="G6" s="51"/>
@@ -10816,19 +10812,19 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B7" s="49" t="s">
+        <v>180</v>
+      </c>
+      <c r="C7" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="D7" s="49" t="s">
         <v>185</v>
       </c>
-      <c r="C7" s="51" t="s">
-        <v>174</v>
-      </c>
-      <c r="D7" s="49" t="s">
-        <v>190</v>
-      </c>
       <c r="E7" s="49" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F7" s="34"/>
       <c r="G7" s="51"/>
@@ -10837,19 +10833,19 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B8" s="51" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C8" s="51" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D8" s="51" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E8" s="52" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F8" s="34"/>
       <c r="G8" s="51"/>
@@ -10858,19 +10854,19 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B9" s="51" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C9" s="51" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D9" s="51" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E9" s="52" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F9" s="34"/>
       <c r="G9" s="51"/>
@@ -10977,19 +10973,19 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="66" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B2" s="45" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C2" s="45" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D2" s="45" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E2" s="48" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F2" s="34"/>
       <c r="G2" s="45"/>
@@ -10997,24 +10993,24 @@
         <v>80</v>
       </c>
       <c r="I2" s="34" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B3" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" s="45" t="s">
         <v>173</v>
       </c>
-      <c r="C3" s="45" t="s">
-        <v>178</v>
-      </c>
       <c r="D3" s="45" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E3" s="48" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F3" s="34"/>
       <c r="G3" s="45"/>
@@ -11022,24 +11018,24 @@
         <v>80</v>
       </c>
       <c r="I3" s="34" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B4" s="45" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C4" s="45" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D4" s="45" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E4" s="48" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F4" s="34"/>
       <c r="G4" s="45"/>
@@ -11047,7 +11043,7 @@
         <v>80</v>
       </c>
       <c r="I4" s="34" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/GameDesign/Planning_Dust'n'Groove.xlsx
+++ b/GameDesign/Planning_Dust'n'Groove.xlsx
@@ -2652,7 +2652,7 @@
   <dimension ref="A1:AMJ200"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>

--- a/GameDesign/Planning_Dust'n'Groove.xlsx
+++ b/GameDesign/Planning_Dust'n'Groove.xlsx
@@ -4,28 +4,27 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Résumé" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil1" sheetId="2" r:id="rId2"/>
-    <sheet name="Général" sheetId="3" r:id="rId3"/>
-    <sheet name="Graphisme" sheetId="4" r:id="rId4"/>
-    <sheet name="Son" sheetId="5" r:id="rId5"/>
-    <sheet name="Animation" sheetId="6" r:id="rId6"/>
-    <sheet name="Code" sheetId="7" r:id="rId7"/>
-    <sheet name="Story" sheetId="8" r:id="rId8"/>
-    <sheet name="Design" sheetId="9" r:id="rId9"/>
+    <sheet name="Général" sheetId="3" r:id="rId2"/>
+    <sheet name="Graphisme" sheetId="4" r:id="rId3"/>
+    <sheet name="Son" sheetId="5" r:id="rId4"/>
+    <sheet name="Animation" sheetId="6" r:id="rId5"/>
+    <sheet name="Code" sheetId="7" r:id="rId6"/>
+    <sheet name="Story" sheetId="8" r:id="rId7"/>
+    <sheet name="Design" sheetId="9" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2">Général!$A$1:$I$200</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1">Général!$A$1:$I$200</definedName>
   </definedNames>
   <calcPr calcId="145621" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1737" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="385">
   <si>
     <t>Feature</t>
   </si>
@@ -306,9 +305,6 @@
     <t>Fin de la note de musique représentant la vie</t>
   </si>
   <si>
-    <t>Interface Musée</t>
-  </si>
-  <si>
     <t>icon_BreakingWave</t>
   </si>
   <si>
@@ -1029,408 +1025,6 @@
     <t>Morceaux de puzzle Art</t>
   </si>
   <si>
-    <t>Ecran Titre</t>
-  </si>
-  <si>
-    <t>logo_jeu</t>
-  </si>
-  <si>
-    <t>Logo du jeu</t>
-  </si>
-  <si>
-    <t>bouton_NouveauJeu</t>
-  </si>
-  <si>
-    <t>bouton_Continuer</t>
-  </si>
-  <si>
-    <t>bouton_Options</t>
-  </si>
-  <si>
-    <t>Bouton "Options"</t>
-  </si>
-  <si>
-    <t>bouton_Quitter</t>
-  </si>
-  <si>
-    <t>Choix du personnage</t>
-  </si>
-  <si>
-    <t>main_Character_Boy</t>
-  </si>
-  <si>
-    <t>Graph. Personnage général garçon</t>
-  </si>
-  <si>
-    <t>main_Character_Girl</t>
-  </si>
-  <si>
-    <t>Graph. Personnage général fille</t>
-  </si>
-  <si>
-    <t>bouton_Valider</t>
-  </si>
-  <si>
-    <t>Bouton "Valider"</t>
-  </si>
-  <si>
-    <t>Menu Options</t>
-  </si>
-  <si>
-    <t>bouton_Return</t>
-  </si>
-  <si>
-    <t>Préhistoire</t>
-  </si>
-  <si>
-    <t>icône_Feu</t>
-  </si>
-  <si>
-    <t>Icône complète du puzzle Feu</t>
-  </si>
-  <si>
-    <t>icône_Silex</t>
-  </si>
-  <si>
-    <t>Icône complète du puzzle Silex</t>
-  </si>
-  <si>
-    <t>icône_Art</t>
-  </si>
-  <si>
-    <t>Icône complète du puzzle Art</t>
-  </si>
-  <si>
-    <t>tableau_Général</t>
-  </si>
-  <si>
-    <t>Tableau représentant la Préhistoire</t>
-  </si>
-  <si>
-    <t>bouton_Ordinateur</t>
-  </si>
-  <si>
-    <t>Bouton "Ordinateur"</t>
-  </si>
-  <si>
-    <t>Interface In Game</t>
-  </si>
-  <si>
-    <t>life</t>
-  </si>
-  <si>
-    <t>Jauge de vie (cœurs plein)</t>
-  </si>
-  <si>
-    <t>life2</t>
-  </si>
-  <si>
-    <t>Jauge de vie (cœurs vides)</t>
-  </si>
-  <si>
-    <t>In Game : Général</t>
-  </si>
-  <si>
-    <t>chara_Mascotte</t>
-  </si>
-  <si>
-    <t>Graph. Mascotte</t>
-  </si>
-  <si>
-    <t>sound_Musée</t>
-  </si>
-  <si>
-    <t>Thème général du musée</t>
-  </si>
-  <si>
-    <t>Theme_Amb_Musee</t>
-  </si>
-  <si>
-    <t>sound_SélectionBouton</t>
-  </si>
-  <si>
-    <t>Petit son quand tu sélectionnes un bouton/Tableau</t>
-  </si>
-  <si>
-    <t>sound_Préhistoire</t>
-  </si>
-  <si>
-    <t>Thème général de la Préhistoire</t>
-  </si>
-  <si>
-    <t>Theme_Amb_Prehistoire</t>
-  </si>
-  <si>
-    <t>sound_FindPuzzle</t>
-  </si>
-  <si>
-    <t>Son quand trouve pièce de puzzle</t>
-  </si>
-  <si>
-    <t>sound_PuzzleComplete</t>
-  </si>
-  <si>
-    <t>Son quand puzzle complet</t>
-  </si>
-  <si>
-    <t>anim_logo</t>
-  </si>
-  <si>
-    <t>Animation du logo</t>
-  </si>
-  <si>
-    <t>main_Character_walk</t>
-  </si>
-  <si>
-    <t>main_Character_jump</t>
-  </si>
-  <si>
-    <t>main_Character_shoot</t>
-  </si>
-  <si>
-    <t>Tire avec le lance-pierre</t>
-  </si>
-  <si>
-    <t>main_Character_idle</t>
-  </si>
-  <si>
-    <t>Quand le joueur ne fait pas bouger le personnage</t>
-  </si>
-  <si>
-    <t>main_Character_loselife</t>
-  </si>
-  <si>
-    <t>Quand le joueur n'a plus de cœurs</t>
-  </si>
-  <si>
-    <t>anim_Mascotte_idle</t>
-  </si>
-  <si>
-    <t>La mascotte pop devant le perso pour parler, puis disparait</t>
-  </si>
-  <si>
-    <t>code_EcranTitre</t>
-  </si>
-  <si>
-    <t>Intégration pour l'écran titre</t>
-  </si>
-  <si>
-    <t>code_MenuPrincipal</t>
-  </si>
-  <si>
-    <t>code_Choix du nom</t>
-  </si>
-  <si>
-    <t>Mettre un bloc pour que l'enfant puisse donner son nom</t>
-  </si>
-  <si>
-    <t>code_ChoixPersonnage</t>
-  </si>
-  <si>
-    <t>Intégration pour le choix du personnage</t>
-  </si>
-  <si>
-    <t>Waiting Screen</t>
-  </si>
-  <si>
-    <t>code_WaitingScreen</t>
-  </si>
-  <si>
-    <t>Intégration pour le waiting screen</t>
-  </si>
-  <si>
-    <t>code_storyFeu</t>
-  </si>
-  <si>
-    <t>Intégration histoire Feu</t>
-  </si>
-  <si>
-    <t>code_storySilex</t>
-  </si>
-  <si>
-    <t>Intégration histoire Silex</t>
-  </si>
-  <si>
-    <t>code_storyArt</t>
-  </si>
-  <si>
-    <t>Intégration histoire Art</t>
-  </si>
-  <si>
-    <t>Menu pause</t>
-  </si>
-  <si>
-    <t>bouton_QuitterNiveau</t>
-  </si>
-  <si>
-    <t>Bouton "Quitter le niveau"</t>
-  </si>
-  <si>
-    <t>code_Thème</t>
-  </si>
-  <si>
-    <t>Augmenter/diminuer le niveau du son (thème)</t>
-  </si>
-  <si>
-    <t>code_Son</t>
-  </si>
-  <si>
-    <t>Augmenter/diminuer le niveau du son (bruitages)</t>
-  </si>
-  <si>
-    <t>code_Return</t>
-  </si>
-  <si>
-    <t>Bouton retour à l'écran du musée</t>
-  </si>
-  <si>
-    <t>code_Controles</t>
-  </si>
-  <si>
-    <t>Possibilité de changer les contrôles du clavier</t>
-  </si>
-  <si>
-    <t>Menu Ordinateur</t>
-  </si>
-  <si>
-    <t>Clic sur l'icône Feu et obtient info</t>
-  </si>
-  <si>
-    <t>code_Silex</t>
-  </si>
-  <si>
-    <t>Clic sur l'icône Silex et obtient info</t>
-  </si>
-  <si>
-    <t>code_Art</t>
-  </si>
-  <si>
-    <t>Clic sur l'icône Art et obtient info</t>
-  </si>
-  <si>
-    <t>code_InterfaceMusee</t>
-  </si>
-  <si>
-    <t>Intégration pour l'interface du musée</t>
-  </si>
-  <si>
-    <t>code_Inventions</t>
-  </si>
-  <si>
-    <t>Emplacement des inventions au-dessus du level</t>
-  </si>
-  <si>
-    <t>code_LockLevel</t>
-  </si>
-  <si>
-    <t>Lock les levels</t>
-  </si>
-  <si>
-    <t>code_UnlockLevel</t>
-  </si>
-  <si>
-    <t>Unlock les levels</t>
-  </si>
-  <si>
-    <t>In Game : Musée</t>
-  </si>
-  <si>
-    <t>code_DeplCharacterMenu</t>
-  </si>
-  <si>
-    <t>Déplacement du personnage dans le musée</t>
-  </si>
-  <si>
-    <t>Entrer dans le niveau unlock</t>
-  </si>
-  <si>
-    <t>code_sonMusée</t>
-  </si>
-  <si>
-    <t>Intégrer les sons du musée</t>
-  </si>
-  <si>
-    <t>code_Life</t>
-  </si>
-  <si>
-    <t>Intégration des cœurs de vie (plein, vide et milieu)</t>
-  </si>
-  <si>
-    <t>code_Puzzle</t>
-  </si>
-  <si>
-    <t>Intégration des bulles pour puzzle (complet, incomplet et vide)</t>
-  </si>
-  <si>
-    <t>code_SonPrehistoire</t>
-  </si>
-  <si>
-    <t>Intégration du thème préhistoire</t>
-  </si>
-  <si>
-    <t>code_Mascotte</t>
-  </si>
-  <si>
-    <t>Intégration de la mascotte</t>
-  </si>
-  <si>
-    <t>code_DeplCharacter</t>
-  </si>
-  <si>
-    <t>Déplacement du personnage dans les levels (walk, jump, idle)</t>
-  </si>
-  <si>
-    <t>code_AttackCharacter</t>
-  </si>
-  <si>
-    <t>Action du personnage dans les levels (shoot et loselife)</t>
-  </si>
-  <si>
-    <t>code_Character</t>
-  </si>
-  <si>
-    <t>Intégration du personnage dans les niveaux</t>
-  </si>
-  <si>
-    <t>code_sonPuzzle</t>
-  </si>
-  <si>
-    <t>Intégration des sons puzzle (complete et find)</t>
-  </si>
-  <si>
-    <t>code_sonCharacter</t>
-  </si>
-  <si>
-    <t>Intégration des sons du personnage (jump, shoot)</t>
-  </si>
-  <si>
-    <t>story_Feu</t>
-  </si>
-  <si>
-    <t>Petit descriptif du feu</t>
-  </si>
-  <si>
-    <t>story_Silex</t>
-  </si>
-  <si>
-    <t>Petit descriptif du silex</t>
-  </si>
-  <si>
-    <t>story_Art</t>
-  </si>
-  <si>
-    <t>Petit descriptif de l'art rupestre</t>
-  </si>
-  <si>
-    <t>Introduction</t>
-  </si>
-  <si>
-    <t>intro_Jeu</t>
-  </si>
-  <si>
-    <t>Intro générale au jeu</t>
-  </si>
-  <si>
     <t>tile_Decor_Pylon</t>
   </si>
   <si>
@@ -1576,6 +1170,15 @@
   </si>
   <si>
     <t>Fond du menu avec crédits</t>
+  </si>
+  <si>
+    <t>Facultatif</t>
+  </si>
+  <si>
+    <t>Haut du poteau en platforme</t>
+  </si>
+  <si>
+    <t>Tronc du poteau décoratif</t>
   </si>
 </sst>
 </file>
@@ -2633,27 +2236,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1025" width="10.7109375"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ200"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I99" sqref="I99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2725,10 +2312,10 @@
         <v>8</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>515</v>
+        <v>380</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>516</v>
+        <v>381</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="9"/>
@@ -2835,10 +2422,10 @@
         <v>8</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>510</v>
+        <v>375</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>511</v>
+        <v>376</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="14"/>
@@ -2881,10 +2468,10 @@
         <v>8</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>515</v>
+        <v>380</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>516</v>
+        <v>381</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="9"/>
@@ -3137,10 +2724,10 @@
         <v>8</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>510</v>
+        <v>375</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>511</v>
+        <v>376</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="14"/>
@@ -3811,10 +3398,10 @@
         <v>85</v>
       </c>
       <c r="D51" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E51" s="9" t="s">
         <v>94</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>95</v>
       </c>
       <c r="F51" s="10"/>
       <c r="G51" s="9"/>
@@ -3831,10 +3418,10 @@
         <v>85</v>
       </c>
       <c r="D52" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E52" s="9" t="s">
         <v>96</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>97</v>
       </c>
       <c r="F52" s="10"/>
       <c r="G52" s="9"/>
@@ -3873,10 +3460,10 @@
         <v>85</v>
       </c>
       <c r="D54" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="E54" s="13" t="s">
         <v>98</v>
-      </c>
-      <c r="E54" s="13" t="s">
-        <v>99</v>
       </c>
       <c r="F54" s="10"/>
       <c r="G54" s="13"/>
@@ -3893,10 +3480,10 @@
         <v>85</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>504</v>
+        <v>369</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F55" s="10"/>
       <c r="G55" s="13"/>
@@ -3913,10 +3500,10 @@
         <v>85</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>505</v>
+        <v>370</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>514</v>
+        <v>379</v>
       </c>
       <c r="F56" s="10"/>
       <c r="G56" s="13"/>
@@ -3955,10 +3542,10 @@
         <v>85</v>
       </c>
       <c r="D58" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E58" s="13" t="s">
         <v>101</v>
-      </c>
-      <c r="E58" s="13" t="s">
-        <v>102</v>
       </c>
       <c r="F58" s="10"/>
       <c r="G58" s="13"/>
@@ -3975,10 +3562,10 @@
         <v>85</v>
       </c>
       <c r="D59" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="E59" s="14" t="s">
         <v>103</v>
-      </c>
-      <c r="E59" s="14" t="s">
-        <v>104</v>
       </c>
       <c r="F59" s="10"/>
       <c r="G59" s="14"/>
@@ -3995,10 +3582,10 @@
         <v>85</v>
       </c>
       <c r="D60" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E60" s="14" t="s">
         <v>105</v>
-      </c>
-      <c r="E60" s="14" t="s">
-        <v>106</v>
       </c>
       <c r="F60" s="10"/>
       <c r="G60" s="14"/>
@@ -4015,10 +3602,10 @@
         <v>85</v>
       </c>
       <c r="D61" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="E61" s="14" t="s">
         <v>107</v>
-      </c>
-      <c r="E61" s="14" t="s">
-        <v>108</v>
       </c>
       <c r="F61" s="10"/>
       <c r="G61" s="14"/>
@@ -4035,10 +3622,10 @@
         <v>85</v>
       </c>
       <c r="D62" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="E62" s="14" t="s">
         <v>109</v>
-      </c>
-      <c r="E62" s="14" t="s">
-        <v>110</v>
       </c>
       <c r="F62" s="10"/>
       <c r="G62" s="14"/>
@@ -4055,10 +3642,10 @@
         <v>85</v>
       </c>
       <c r="D63" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="E63" s="16" t="s">
         <v>111</v>
-      </c>
-      <c r="E63" s="16" t="s">
-        <v>112</v>
       </c>
       <c r="F63" s="17"/>
       <c r="G63" s="16"/>
@@ -4068,19 +3655,19 @@
     </row>
     <row r="64" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="B64" s="105" t="s">
         <v>113</v>
       </c>
-      <c r="B64" s="105" t="s">
+      <c r="C64" s="105" t="s">
         <v>114</v>
       </c>
-      <c r="C64" s="105" t="s">
+      <c r="D64" s="105" t="s">
         <v>115</v>
       </c>
-      <c r="D64" s="105" t="s">
+      <c r="E64" s="105" t="s">
         <v>116</v>
-      </c>
-      <c r="E64" s="105" t="s">
-        <v>117</v>
       </c>
       <c r="F64" s="5"/>
       <c r="G64" s="106"/>
@@ -4090,16 +3677,16 @@
     <row r="65" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="101"/>
       <c r="B65" s="103" t="s">
+        <v>113</v>
+      </c>
+      <c r="C65" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="C65" s="35" t="s">
-        <v>115</v>
-      </c>
       <c r="D65" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="E65" s="103" t="s">
         <v>118</v>
-      </c>
-      <c r="E65" s="103" t="s">
-        <v>119</v>
       </c>
       <c r="F65" s="10"/>
       <c r="G65" s="35"/>
@@ -4112,13 +3699,13 @@
         <v>21</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D66" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="E66" s="14" t="s">
         <v>120</v>
-      </c>
-      <c r="E66" s="14" t="s">
-        <v>121</v>
       </c>
       <c r="F66" s="10"/>
       <c r="G66" s="14"/>
@@ -4128,16 +3715,16 @@
     <row r="67" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="101"/>
       <c r="B67" s="103" t="s">
+        <v>113</v>
+      </c>
+      <c r="C67" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="C67" s="35" t="s">
-        <v>115</v>
-      </c>
       <c r="D67" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="E67" s="103" t="s">
         <v>122</v>
-      </c>
-      <c r="E67" s="103" t="s">
-        <v>123</v>
       </c>
       <c r="F67" s="10"/>
       <c r="G67" s="35"/>
@@ -4150,13 +3737,13 @@
         <v>21</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D68" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E68" s="14" t="s">
         <v>124</v>
-      </c>
-      <c r="E68" s="14" t="s">
-        <v>125</v>
       </c>
       <c r="F68" s="10"/>
       <c r="G68" s="14"/>
@@ -4166,16 +3753,16 @@
     <row r="69" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="101"/>
       <c r="B69" s="103" t="s">
+        <v>113</v>
+      </c>
+      <c r="C69" s="103" t="s">
         <v>114</v>
       </c>
-      <c r="C69" s="103" t="s">
-        <v>115</v>
-      </c>
       <c r="D69" s="103" t="s">
+        <v>125</v>
+      </c>
+      <c r="E69" s="103" t="s">
         <v>126</v>
-      </c>
-      <c r="E69" s="103" t="s">
-        <v>127</v>
       </c>
       <c r="F69" s="10"/>
       <c r="G69" s="35"/>
@@ -4185,16 +3772,16 @@
     <row r="70" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="101"/>
       <c r="B70" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="C70" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="C70" s="35" t="s">
-        <v>115</v>
-      </c>
       <c r="D70" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="E70" s="103" t="s">
         <v>128</v>
-      </c>
-      <c r="E70" s="103" t="s">
-        <v>129</v>
       </c>
       <c r="F70" s="10"/>
       <c r="G70" s="35"/>
@@ -4207,13 +3794,13 @@
         <v>21</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D71" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="E71" s="14" t="s">
         <v>130</v>
-      </c>
-      <c r="E71" s="14" t="s">
-        <v>131</v>
       </c>
       <c r="F71" s="10"/>
       <c r="G71" s="14"/>
@@ -4223,16 +3810,16 @@
     <row r="72" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="101"/>
       <c r="B72" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="C72" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="C72" s="35" t="s">
-        <v>115</v>
-      </c>
       <c r="D72" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="E72" s="103" t="s">
         <v>132</v>
-      </c>
-      <c r="E72" s="103" t="s">
-        <v>133</v>
       </c>
       <c r="F72" s="10"/>
       <c r="G72" s="35"/>
@@ -4242,16 +3829,16 @@
     <row r="73" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="101"/>
       <c r="B73" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="C73" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="C73" s="35" t="s">
-        <v>115</v>
-      </c>
       <c r="D73" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="E73" s="103" t="s">
         <v>134</v>
-      </c>
-      <c r="E73" s="103" t="s">
-        <v>135</v>
       </c>
       <c r="F73" s="10"/>
       <c r="G73" s="35"/>
@@ -4264,13 +3851,13 @@
         <v>21</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D74" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="E74" s="14" t="s">
         <v>136</v>
-      </c>
-      <c r="E74" s="14" t="s">
-        <v>137</v>
       </c>
       <c r="F74" s="10"/>
       <c r="G74" s="14"/>
@@ -4283,13 +3870,13 @@
         <v>12</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E75" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F75" s="10"/>
       <c r="G75" s="13"/>
@@ -4302,13 +3889,13 @@
         <v>12</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D76" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E76" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F76" s="10"/>
       <c r="G76" s="13"/>
@@ -4321,13 +3908,13 @@
         <v>12</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D77" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E77" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F77" s="10"/>
       <c r="G77" s="13"/>
@@ -4340,13 +3927,13 @@
         <v>12</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D78" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E78" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F78" s="10"/>
       <c r="G78" s="13"/>
@@ -4359,13 +3946,13 @@
         <v>12</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D79" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="E79" s="13" t="s">
         <v>142</v>
-      </c>
-      <c r="E79" s="13" t="s">
-        <v>143</v>
       </c>
       <c r="F79" s="10"/>
       <c r="G79" s="13"/>
@@ -4378,13 +3965,13 @@
         <v>12</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D80" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="E80" s="13" t="s">
         <v>144</v>
-      </c>
-      <c r="E80" s="13" t="s">
-        <v>145</v>
       </c>
       <c r="F80" s="10"/>
       <c r="G80" s="13"/>
@@ -4397,13 +3984,13 @@
         <v>12</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D81" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="E81" s="13" t="s">
         <v>146</v>
-      </c>
-      <c r="E81" s="13" t="s">
-        <v>147</v>
       </c>
       <c r="F81" s="10"/>
       <c r="G81" s="13"/>
@@ -4416,13 +4003,13 @@
         <v>12</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D82" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="E82" s="13" t="s">
         <v>148</v>
-      </c>
-      <c r="E82" s="13" t="s">
-        <v>149</v>
       </c>
       <c r="F82" s="10"/>
       <c r="G82" s="13"/>
@@ -4432,40 +4019,44 @@
     <row r="83" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="101"/>
       <c r="B83" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="C83" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="C83" s="35" t="s">
-        <v>115</v>
-      </c>
       <c r="D83" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="E83" s="103" t="s">
         <v>150</v>
-      </c>
-      <c r="E83" s="103" t="s">
-        <v>151</v>
       </c>
       <c r="F83" s="10"/>
       <c r="G83" s="35"/>
       <c r="H83" s="10"/>
-      <c r="I83" s="10"/>
+      <c r="I83" s="10" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="84" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="101"/>
       <c r="B84" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="C84" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="C84" s="35" t="s">
-        <v>115</v>
-      </c>
       <c r="D84" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="E84" s="103" t="s">
         <v>152</v>
-      </c>
-      <c r="E84" s="103" t="s">
-        <v>153</v>
       </c>
       <c r="F84" s="10"/>
       <c r="G84" s="35"/>
       <c r="H84" s="10"/>
-      <c r="I84" s="10"/>
+      <c r="I84" s="10" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="85" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="101"/>
@@ -4491,19 +4082,19 @@
     </row>
     <row r="87" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C87" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D87" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="D87" s="4" t="s">
+      <c r="E87" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="E87" s="4" t="s">
-        <v>157</v>
       </c>
       <c r="F87" s="5"/>
       <c r="G87" s="4"/>
@@ -4516,13 +4107,13 @@
         <v>12</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D88" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E88" s="13" t="s">
         <v>158</v>
-      </c>
-      <c r="E88" s="13" t="s">
-        <v>159</v>
       </c>
       <c r="F88" s="10"/>
       <c r="G88" s="13"/>
@@ -4535,13 +4126,13 @@
         <v>12</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D89" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E89" s="13" t="s">
-        <v>509</v>
+        <v>374</v>
       </c>
       <c r="F89" s="10"/>
       <c r="G89" s="13"/>
@@ -4554,13 +4145,13 @@
         <v>12</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D90" s="13" t="s">
-        <v>507</v>
+        <v>372</v>
       </c>
       <c r="E90" s="13" t="s">
-        <v>508</v>
+        <v>373</v>
       </c>
       <c r="F90" s="10"/>
       <c r="G90" s="13"/>
@@ -4573,13 +4164,13 @@
         <v>21</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D91" s="14" t="s">
         <v>47</v>
       </c>
       <c r="E91" s="14" t="s">
-        <v>506</v>
+        <v>371</v>
       </c>
       <c r="F91" s="10"/>
       <c r="G91" s="14"/>
@@ -4594,13 +4185,13 @@
         <v>21</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D92" s="14" t="s">
-        <v>512</v>
+        <v>377</v>
       </c>
       <c r="E92" s="14" t="s">
-        <v>513</v>
+        <v>378</v>
       </c>
       <c r="F92" s="10"/>
       <c r="G92" s="14"/>
@@ -4642,25 +4233,25 @@
     </row>
     <row r="96" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C96" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="E96" s="4" t="s">
         <v>162</v>
-      </c>
-      <c r="D96" s="4" t="s">
-        <v>468</v>
-      </c>
-      <c r="E96" s="4" t="s">
-        <v>163</v>
       </c>
       <c r="F96" s="5"/>
       <c r="G96" s="4"/>
       <c r="H96" s="5"/>
       <c r="I96" s="5" t="s">
-        <v>476</v>
+        <v>341</v>
       </c>
     </row>
     <row r="97" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -4669,18 +4260,20 @@
         <v>7</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>469</v>
+        <v>334</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F97" s="10"/>
       <c r="G97" s="9"/>
       <c r="H97" s="10"/>
-      <c r="I97" s="10"/>
+      <c r="I97" s="10" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="98" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="101"/>
@@ -4688,13 +4281,13 @@
         <v>7</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>489</v>
+        <v>354</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F98" s="10"/>
       <c r="G98" s="9"/>
@@ -4704,16 +4297,16 @@
     <row r="99" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="101"/>
       <c r="B99" s="35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C99" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D99" s="35" t="s">
-        <v>470</v>
+        <v>335</v>
       </c>
       <c r="E99" s="103" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F99" s="10"/>
       <c r="G99" s="35"/>
@@ -4726,19 +4319,19 @@
         <v>7</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>479</v>
+        <v>344</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>471</v>
+        <v>336</v>
       </c>
       <c r="F100" s="10"/>
       <c r="G100" s="9"/>
       <c r="H100" s="10"/>
       <c r="I100" s="10" t="s">
-        <v>473</v>
+        <v>338</v>
       </c>
     </row>
     <row r="101" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -4747,18 +4340,20 @@
         <v>7</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>480</v>
+        <v>345</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>472</v>
+        <v>337</v>
       </c>
       <c r="F101" s="10"/>
       <c r="G101" s="9"/>
       <c r="H101" s="10"/>
-      <c r="I101" s="10"/>
+      <c r="I101" s="10" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="102" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="101"/>
@@ -4766,19 +4361,19 @@
         <v>7</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>481</v>
+        <v>346</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>474</v>
+        <v>339</v>
       </c>
       <c r="F102" s="10"/>
       <c r="G102" s="9"/>
       <c r="H102" s="10"/>
       <c r="I102" s="10" t="s">
-        <v>475</v>
+        <v>340</v>
       </c>
     </row>
     <row r="103" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -4787,19 +4382,19 @@
         <v>7</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>482</v>
+        <v>347</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>477</v>
+        <v>342</v>
       </c>
       <c r="F103" s="10"/>
       <c r="G103" s="9"/>
       <c r="H103" s="10"/>
       <c r="I103" s="10" t="s">
-        <v>478</v>
+        <v>343</v>
       </c>
     </row>
     <row r="104" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -4808,13 +4403,13 @@
         <v>7</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>484</v>
+        <v>349</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>486</v>
+        <v>351</v>
       </c>
       <c r="F104" s="10"/>
       <c r="G104" s="9"/>
@@ -4827,19 +4422,19 @@
         <v>7</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>490</v>
+        <v>355</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>493</v>
+        <v>358</v>
       </c>
       <c r="F105" s="10"/>
       <c r="G105" s="9"/>
       <c r="H105" s="10"/>
       <c r="I105" s="10" t="s">
-        <v>491</v>
+        <v>356</v>
       </c>
     </row>
     <row r="106" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -4848,13 +4443,13 @@
         <v>7</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>497</v>
+        <v>362</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>498</v>
+        <v>363</v>
       </c>
       <c r="F106" s="10"/>
       <c r="G106" s="9"/>
@@ -4867,13 +4462,13 @@
         <v>7</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>503</v>
+        <v>368</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>499</v>
+        <v>364</v>
       </c>
       <c r="F107" s="10"/>
       <c r="G107" s="9"/>
@@ -4930,13 +4525,13 @@
         <v>12</v>
       </c>
       <c r="C112" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D112" s="13" t="s">
-        <v>483</v>
+        <v>348</v>
       </c>
       <c r="E112" s="13" t="s">
-        <v>485</v>
+        <v>350</v>
       </c>
       <c r="F112" s="10"/>
       <c r="G112" s="13"/>
@@ -4949,13 +4544,13 @@
         <v>12</v>
       </c>
       <c r="C113" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D113" s="13" t="s">
-        <v>488</v>
+        <v>353</v>
       </c>
       <c r="E113" s="13" t="s">
-        <v>486</v>
+        <v>351</v>
       </c>
       <c r="F113" s="10"/>
       <c r="G113" s="13"/>
@@ -4968,13 +4563,13 @@
         <v>12</v>
       </c>
       <c r="C114" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D114" s="13" t="s">
-        <v>487</v>
+        <v>352</v>
       </c>
       <c r="E114" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F114" s="10"/>
       <c r="G114" s="13"/>
@@ -4987,13 +4582,13 @@
         <v>12</v>
       </c>
       <c r="C115" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D115" s="13" t="s">
-        <v>492</v>
+        <v>357</v>
       </c>
       <c r="E115" s="13" t="s">
-        <v>493</v>
+        <v>358</v>
       </c>
       <c r="F115" s="10"/>
       <c r="G115" s="13"/>
@@ -5006,19 +4601,19 @@
         <v>12</v>
       </c>
       <c r="C116" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D116" s="13" t="s">
-        <v>494</v>
+        <v>359</v>
       </c>
       <c r="E116" s="13" t="s">
-        <v>501</v>
+        <v>366</v>
       </c>
       <c r="F116" s="10"/>
       <c r="G116" s="13"/>
       <c r="H116" s="10"/>
       <c r="I116" s="10" t="s">
-        <v>495</v>
+        <v>360</v>
       </c>
     </row>
     <row r="117" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -5027,13 +4622,13 @@
         <v>12</v>
       </c>
       <c r="C117" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D117" s="13" t="s">
-        <v>500</v>
+        <v>365</v>
       </c>
       <c r="E117" s="13" t="s">
-        <v>502</v>
+        <v>367</v>
       </c>
       <c r="F117" s="10"/>
       <c r="G117" s="13"/>
@@ -5046,13 +4641,13 @@
         <v>12</v>
       </c>
       <c r="C118" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D118" s="13" t="s">
-        <v>496</v>
+        <v>361</v>
       </c>
       <c r="E118" s="13" t="s">
-        <v>499</v>
+        <v>364</v>
       </c>
       <c r="F118" s="10"/>
       <c r="G118" s="13"/>
@@ -5116,19 +4711,19 @@
     </row>
     <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="43" t="s">
+        <v>166</v>
+      </c>
+      <c r="B124" s="44" t="s">
         <v>167</v>
       </c>
-      <c r="B124" s="44" t="s">
+      <c r="C124" s="45" t="s">
         <v>168</v>
       </c>
-      <c r="C124" s="45" t="s">
+      <c r="D124" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="D124" s="44" t="s">
+      <c r="E124" s="46" t="s">
         <v>170</v>
-      </c>
-      <c r="E124" s="46" t="s">
-        <v>171</v>
       </c>
       <c r="F124" s="34"/>
       <c r="G124" s="45"/>
@@ -5136,24 +4731,24 @@
         <v>80</v>
       </c>
       <c r="I124" s="34" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="B125" s="47" t="s">
         <v>167</v>
       </c>
-      <c r="B125" s="47" t="s">
-        <v>168</v>
-      </c>
       <c r="C125" s="45" t="s">
+        <v>172</v>
+      </c>
+      <c r="D125" s="45" t="s">
         <v>173</v>
       </c>
-      <c r="D125" s="45" t="s">
+      <c r="E125" s="48" t="s">
         <v>174</v>
-      </c>
-      <c r="E125" s="48" t="s">
-        <v>175</v>
       </c>
       <c r="F125" s="34"/>
       <c r="G125" s="45"/>
@@ -5161,24 +4756,24 @@
         <v>80</v>
       </c>
       <c r="I125" s="34" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B126" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="C126" s="45" t="s">
         <v>176</v>
       </c>
-      <c r="C126" s="45" t="s">
+      <c r="D126" s="45" t="s">
         <v>177</v>
       </c>
-      <c r="D126" s="45" t="s">
+      <c r="E126" s="48" t="s">
         <v>178</v>
-      </c>
-      <c r="E126" s="48" t="s">
-        <v>179</v>
       </c>
       <c r="F126" s="34"/>
       <c r="G126" s="45"/>
@@ -5186,24 +4781,24 @@
         <v>80</v>
       </c>
       <c r="I126" s="34" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B127" s="49" t="s">
+        <v>179</v>
+      </c>
+      <c r="C127" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="D127" s="49" t="s">
         <v>180</v>
       </c>
-      <c r="C127" s="49" t="s">
-        <v>115</v>
-      </c>
-      <c r="D127" s="49" t="s">
+      <c r="E127" s="50" t="s">
         <v>181</v>
-      </c>
-      <c r="E127" s="50" t="s">
-        <v>182</v>
       </c>
       <c r="F127" s="10"/>
       <c r="G127" s="49"/>
@@ -5212,19 +4807,19 @@
     </row>
     <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B128" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C128" s="39" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D128" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="E128" s="31" t="s">
         <v>183</v>
-      </c>
-      <c r="E128" s="31" t="s">
-        <v>184</v>
       </c>
       <c r="F128" s="34"/>
       <c r="G128" s="39"/>
@@ -5233,19 +4828,19 @@
     </row>
     <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B129" s="49" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C129" s="51" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D129" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="E129" s="49" t="s">
         <v>185</v>
-      </c>
-      <c r="E129" s="49" t="s">
-        <v>186</v>
       </c>
       <c r="F129" s="34"/>
       <c r="G129" s="51"/>
@@ -5254,19 +4849,19 @@
     </row>
     <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B130" s="39" t="s">
         <v>12</v>
       </c>
       <c r="C130" s="39" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D130" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="E130" s="24" t="s">
         <v>187</v>
-      </c>
-      <c r="E130" s="24" t="s">
-        <v>188</v>
       </c>
       <c r="F130" s="34"/>
       <c r="G130" s="39"/>
@@ -5275,19 +4870,19 @@
     </row>
     <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B131" s="51" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C131" s="51" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D131" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="E131" s="52" t="s">
         <v>189</v>
-      </c>
-      <c r="E131" s="52" t="s">
-        <v>190</v>
       </c>
       <c r="F131" s="34"/>
       <c r="G131" s="51"/>
@@ -5296,19 +4891,19 @@
     </row>
     <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B132" s="39" t="s">
         <v>12</v>
       </c>
       <c r="C132" s="39" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D132" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="E132" s="24" t="s">
         <v>191</v>
-      </c>
-      <c r="E132" s="24" t="s">
-        <v>192</v>
       </c>
       <c r="F132" s="34"/>
       <c r="G132" s="39"/>
@@ -5317,19 +4912,19 @@
     </row>
     <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B133" s="51" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C133" s="51" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D133" s="51" t="s">
+        <v>192</v>
+      </c>
+      <c r="E133" s="52" t="s">
         <v>193</v>
-      </c>
-      <c r="E133" s="52" t="s">
-        <v>194</v>
       </c>
       <c r="F133" s="34"/>
       <c r="G133" s="51"/>
@@ -5338,19 +4933,19 @@
     </row>
     <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B134" s="39" t="s">
         <v>12</v>
       </c>
       <c r="C134" s="39" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D134" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="E134" s="24" t="s">
         <v>195</v>
-      </c>
-      <c r="E134" s="24" t="s">
-        <v>196</v>
       </c>
       <c r="F134" s="34"/>
       <c r="G134" s="39"/>
@@ -5359,19 +4954,19 @@
     </row>
     <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B135" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C135" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D135" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="E135" s="29" t="s">
         <v>197</v>
-      </c>
-      <c r="E135" s="29" t="s">
-        <v>198</v>
       </c>
       <c r="F135" s="34"/>
       <c r="G135" s="28"/>
@@ -5380,19 +4975,19 @@
     </row>
     <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B136" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C136" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D136" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="E136" s="29" t="s">
         <v>199</v>
-      </c>
-      <c r="E136" s="29" t="s">
-        <v>200</v>
       </c>
       <c r="F136" s="34"/>
       <c r="G136" s="28"/>
@@ -5401,19 +4996,19 @@
     </row>
     <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B137" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C137" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D137" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="E137" s="29" t="s">
         <v>201</v>
-      </c>
-      <c r="E137" s="29" t="s">
-        <v>202</v>
       </c>
       <c r="F137" s="34"/>
       <c r="G137" s="28"/>
@@ -5422,19 +5017,19 @@
     </row>
     <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B138" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C138" s="28" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D138" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="E138" s="29" t="s">
         <v>203</v>
-      </c>
-      <c r="E138" s="29" t="s">
-        <v>204</v>
       </c>
       <c r="F138" s="34"/>
       <c r="G138" s="28"/>
@@ -5443,19 +5038,19 @@
     </row>
     <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B139" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C139" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="D139" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="D139" s="28" t="s">
+      <c r="E139" s="29" t="s">
         <v>206</v>
-      </c>
-      <c r="E139" s="29" t="s">
-        <v>207</v>
       </c>
       <c r="F139" s="34"/>
       <c r="G139" s="28"/>
@@ -5464,19 +5059,19 @@
     </row>
     <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B140" s="39" t="s">
         <v>12</v>
       </c>
       <c r="C140" s="39" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D140" s="39" t="s">
+        <v>207</v>
+      </c>
+      <c r="E140" s="24" t="s">
         <v>208</v>
-      </c>
-      <c r="E140" s="24" t="s">
-        <v>209</v>
       </c>
       <c r="F140" s="34"/>
       <c r="G140" s="39"/>
@@ -5485,19 +5080,19 @@
     </row>
     <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B141" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D141" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="E141" s="40" t="s">
         <v>210</v>
-      </c>
-      <c r="E141" s="40" t="s">
-        <v>211</v>
       </c>
       <c r="F141" s="10"/>
       <c r="G141" s="9"/>
@@ -5506,19 +5101,19 @@
     </row>
     <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B142" s="35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C142" s="35" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D142" s="35" t="s">
+        <v>211</v>
+      </c>
+      <c r="E142" s="37" t="s">
         <v>212</v>
-      </c>
-      <c r="E142" s="37" t="s">
-        <v>213</v>
       </c>
       <c r="F142" s="10"/>
       <c r="G142" s="35"/>
@@ -5527,19 +5122,19 @@
     </row>
     <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B143" s="35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C143" s="35" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D143" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="E143" s="37" t="s">
         <v>214</v>
-      </c>
-      <c r="E143" s="37" t="s">
-        <v>215</v>
       </c>
       <c r="F143" s="10"/>
       <c r="G143" s="35"/>
@@ -5548,19 +5143,19 @@
     </row>
     <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B144" s="35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C144" s="35" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D144" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="E144" s="37" t="s">
         <v>216</v>
-      </c>
-      <c r="E144" s="37" t="s">
-        <v>217</v>
       </c>
       <c r="F144" s="10"/>
       <c r="G144" s="35"/>
@@ -5569,19 +5164,19 @@
     </row>
     <row r="145" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B145" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C145" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D145" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="E145" s="38" t="s">
         <v>218</v>
-      </c>
-      <c r="E145" s="38" t="s">
-        <v>219</v>
       </c>
       <c r="F145" s="10"/>
       <c r="G145" s="14"/>
@@ -5590,19 +5185,19 @@
     </row>
     <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B146" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C146" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D146" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="E146" s="31" t="s">
         <v>220</v>
-      </c>
-      <c r="E146" s="31" t="s">
-        <v>221</v>
       </c>
       <c r="F146" s="10"/>
       <c r="G146" s="13"/>
@@ -5611,19 +5206,19 @@
     </row>
     <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B147" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C147" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D147" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="E147" s="31" t="s">
         <v>222</v>
-      </c>
-      <c r="E147" s="31" t="s">
-        <v>223</v>
       </c>
       <c r="F147" s="10"/>
       <c r="G147" s="13"/>
@@ -5632,19 +5227,19 @@
     </row>
     <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B148" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C148" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D148" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="E148" s="31" t="s">
         <v>224</v>
-      </c>
-      <c r="E148" s="31" t="s">
-        <v>225</v>
       </c>
       <c r="F148" s="10"/>
       <c r="G148" s="13"/>
@@ -5653,19 +5248,19 @@
     </row>
     <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B149" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C149" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="D149" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="D149" s="9" t="s">
+      <c r="E149" s="40" t="s">
         <v>227</v>
-      </c>
-      <c r="E149" s="40" t="s">
-        <v>228</v>
       </c>
       <c r="F149" s="10"/>
       <c r="G149" s="9"/>
@@ -5674,19 +5269,19 @@
     </row>
     <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B150" s="35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C150" s="35" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D150" s="35" t="s">
+        <v>228</v>
+      </c>
+      <c r="E150" s="37" t="s">
         <v>229</v>
-      </c>
-      <c r="E150" s="37" t="s">
-        <v>230</v>
       </c>
       <c r="F150" s="10"/>
       <c r="G150" s="35"/>
@@ -5695,19 +5290,19 @@
     </row>
     <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B151" s="35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C151" s="35" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D151" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="E151" s="37" t="s">
         <v>231</v>
-      </c>
-      <c r="E151" s="37" t="s">
-        <v>232</v>
       </c>
       <c r="F151" s="10"/>
       <c r="G151" s="35"/>
@@ -5716,19 +5311,19 @@
     </row>
     <row r="152" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B152" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C152" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D152" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="E152" s="38" t="s">
         <v>233</v>
-      </c>
-      <c r="E152" s="38" t="s">
-        <v>234</v>
       </c>
       <c r="F152" s="10"/>
       <c r="G152" s="14"/>
@@ -5737,19 +5332,19 @@
     </row>
     <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B153" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C153" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D153" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="E153" s="31" t="s">
         <v>235</v>
-      </c>
-      <c r="E153" s="31" t="s">
-        <v>236</v>
       </c>
       <c r="F153" s="10"/>
       <c r="G153" s="13"/>
@@ -5758,19 +5353,19 @@
     </row>
     <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B154" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C154" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D154" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="E154" s="31" t="s">
         <v>237</v>
-      </c>
-      <c r="E154" s="31" t="s">
-        <v>238</v>
       </c>
       <c r="F154" s="10"/>
       <c r="G154" s="13"/>
@@ -5779,19 +5374,19 @@
     </row>
     <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B155" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C155" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D155" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="E155" s="31" t="s">
         <v>239</v>
-      </c>
-      <c r="E155" s="31" t="s">
-        <v>240</v>
       </c>
       <c r="F155" s="10"/>
       <c r="G155" s="13"/>
@@ -5800,19 +5395,19 @@
     </row>
     <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B156" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C156" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D156" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="E156" s="40" t="s">
         <v>241</v>
-      </c>
-      <c r="E156" s="40" t="s">
-        <v>242</v>
       </c>
       <c r="F156" s="10"/>
       <c r="G156" s="9"/>
@@ -5821,19 +5416,19 @@
     </row>
     <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B157" s="35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C157" s="35" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D157" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="E157" s="37" t="s">
         <v>243</v>
-      </c>
-      <c r="E157" s="37" t="s">
-        <v>244</v>
       </c>
       <c r="F157" s="10"/>
       <c r="G157" s="35"/>
@@ -5842,19 +5437,19 @@
     </row>
     <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B158" s="35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C158" s="35" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D158" s="35" t="s">
+        <v>244</v>
+      </c>
+      <c r="E158" s="37" t="s">
         <v>245</v>
-      </c>
-      <c r="E158" s="37" t="s">
-        <v>246</v>
       </c>
       <c r="F158" s="10"/>
       <c r="G158" s="35"/>
@@ -5863,22 +5458,22 @@
     </row>
     <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B159" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C159" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D159" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="E159" s="38" t="s">
         <v>247</v>
       </c>
-      <c r="E159" s="38" t="s">
+      <c r="F159" s="14" t="s">
         <v>248</v>
-      </c>
-      <c r="F159" s="14" t="s">
-        <v>249</v>
       </c>
       <c r="G159" s="14"/>
       <c r="H159" s="10"/>
@@ -5886,19 +5481,19 @@
     </row>
     <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B160" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C160" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D160" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="E160" s="38" t="s">
         <v>250</v>
-      </c>
-      <c r="E160" s="38" t="s">
-        <v>251</v>
       </c>
       <c r="F160" s="10"/>
       <c r="G160" s="14"/>
@@ -5907,19 +5502,19 @@
     </row>
     <row r="161" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B161" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C161" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D161" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="E161" s="31" t="s">
         <v>252</v>
-      </c>
-      <c r="E161" s="31" t="s">
-        <v>253</v>
       </c>
       <c r="F161" s="10"/>
       <c r="G161" s="13"/>
@@ -5928,19 +5523,19 @@
     </row>
     <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B162" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C162" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D162" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="E162" s="31" t="s">
         <v>254</v>
-      </c>
-      <c r="E162" s="31" t="s">
-        <v>255</v>
       </c>
       <c r="F162" s="10"/>
       <c r="G162" s="13"/>
@@ -5949,19 +5544,19 @@
     </row>
     <row r="163" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B163" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C163" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D163" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="E163" s="31" t="s">
         <v>256</v>
-      </c>
-      <c r="E163" s="31" t="s">
-        <v>257</v>
       </c>
       <c r="F163" s="10"/>
       <c r="G163" s="13"/>
@@ -5970,19 +5565,19 @@
     </row>
     <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B164" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C164" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="D164" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="D164" s="9" t="s">
+      <c r="E164" s="40" t="s">
         <v>259</v>
-      </c>
-      <c r="E164" s="40" t="s">
-        <v>260</v>
       </c>
       <c r="F164" s="10"/>
       <c r="G164" s="9"/>
@@ -5991,19 +5586,19 @@
     </row>
     <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B165" s="35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C165" s="35" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D165" s="35" t="s">
+        <v>260</v>
+      </c>
+      <c r="E165" s="37" t="s">
         <v>261</v>
-      </c>
-      <c r="E165" s="37" t="s">
-        <v>262</v>
       </c>
       <c r="F165" s="10"/>
       <c r="G165" s="35"/>
@@ -6012,19 +5607,19 @@
     </row>
     <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B166" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C166" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D166" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="E166" s="31" t="s">
         <v>263</v>
-      </c>
-      <c r="E166" s="31" t="s">
-        <v>264</v>
       </c>
       <c r="F166" s="10"/>
       <c r="G166" s="13"/>
@@ -6033,19 +5628,19 @@
     </row>
     <row r="167" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B167" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C167" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D167" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="E167" s="40" t="s">
         <v>265</v>
-      </c>
-      <c r="E167" s="40" t="s">
-        <v>266</v>
       </c>
       <c r="F167" s="10"/>
       <c r="G167" s="9"/>
@@ -6054,19 +5649,19 @@
     </row>
     <row r="168" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B168" s="35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C168" s="35" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D168" s="35" t="s">
+        <v>266</v>
+      </c>
+      <c r="E168" s="37" t="s">
         <v>267</v>
-      </c>
-      <c r="E168" s="37" t="s">
-        <v>268</v>
       </c>
       <c r="F168" s="10"/>
       <c r="G168" s="35"/>
@@ -6075,19 +5670,19 @@
     </row>
     <row r="169" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B169" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C169" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D169" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="E169" s="31" t="s">
         <v>269</v>
-      </c>
-      <c r="E169" s="31" t="s">
-        <v>270</v>
       </c>
       <c r="F169" s="10"/>
       <c r="G169" s="13"/>
@@ -6096,19 +5691,19 @@
     </row>
     <row r="170" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B170" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C170" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D170" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="E170" s="40" t="s">
         <v>271</v>
-      </c>
-      <c r="E170" s="40" t="s">
-        <v>272</v>
       </c>
       <c r="F170" s="10"/>
       <c r="G170" s="9"/>
@@ -6117,19 +5712,19 @@
     </row>
     <row r="171" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B171" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C171" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D171" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="E171" s="31" t="s">
         <v>273</v>
-      </c>
-      <c r="E171" s="31" t="s">
-        <v>274</v>
       </c>
       <c r="F171" s="10"/>
       <c r="G171" s="13"/>
@@ -6138,19 +5733,19 @@
     </row>
     <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B172" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C172" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D172" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="E172" s="40" t="s">
         <v>275</v>
-      </c>
-      <c r="E172" s="40" t="s">
-        <v>276</v>
       </c>
       <c r="F172" s="10"/>
       <c r="G172" s="9"/>
@@ -6159,19 +5754,19 @@
     </row>
     <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B173" s="35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C173" s="35" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D173" s="35" t="s">
+        <v>276</v>
+      </c>
+      <c r="E173" s="37" t="s">
         <v>277</v>
-      </c>
-      <c r="E173" s="37" t="s">
-        <v>278</v>
       </c>
       <c r="F173" s="10"/>
       <c r="G173" s="35"/>
@@ -6180,19 +5775,19 @@
     </row>
     <row r="174" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B174" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C174" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D174" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="E174" s="31" t="s">
         <v>279</v>
-      </c>
-      <c r="E174" s="31" t="s">
-        <v>280</v>
       </c>
       <c r="F174" s="10"/>
       <c r="G174" s="13"/>
@@ -6201,19 +5796,19 @@
     </row>
     <row r="175" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B175" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C175" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D175" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="E175" s="40" t="s">
         <v>281</v>
-      </c>
-      <c r="E175" s="40" t="s">
-        <v>282</v>
       </c>
       <c r="F175" s="10"/>
       <c r="G175" s="9"/>
@@ -6222,19 +5817,19 @@
     </row>
     <row r="176" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B176" s="35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C176" s="35" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D176" s="35" t="s">
+        <v>282</v>
+      </c>
+      <c r="E176" s="37" t="s">
         <v>283</v>
-      </c>
-      <c r="E176" s="37" t="s">
-        <v>284</v>
       </c>
       <c r="F176" s="10"/>
       <c r="G176" s="35"/>
@@ -6243,19 +5838,19 @@
     </row>
     <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B177" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C177" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D177" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="E177" s="31" t="s">
         <v>285</v>
-      </c>
-      <c r="E177" s="31" t="s">
-        <v>286</v>
       </c>
       <c r="F177" s="10"/>
       <c r="G177" s="13"/>
@@ -6264,19 +5859,19 @@
     </row>
     <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B178" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C178" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D178" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="E178" s="40" t="s">
         <v>287</v>
-      </c>
-      <c r="E178" s="40" t="s">
-        <v>288</v>
       </c>
       <c r="F178" s="10"/>
       <c r="G178" s="9"/>
@@ -6285,19 +5880,19 @@
     </row>
     <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B179" s="35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C179" s="35" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D179" s="35" t="s">
+        <v>288</v>
+      </c>
+      <c r="E179" s="37" t="s">
         <v>289</v>
-      </c>
-      <c r="E179" s="37" t="s">
-        <v>290</v>
       </c>
       <c r="F179" s="10"/>
       <c r="G179" s="35"/>
@@ -6306,19 +5901,19 @@
     </row>
     <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B180" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C180" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D180" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="E180" s="31" t="s">
         <v>291</v>
-      </c>
-      <c r="E180" s="31" t="s">
-        <v>292</v>
       </c>
       <c r="F180" s="10"/>
       <c r="G180" s="13"/>
@@ -6327,19 +5922,19 @@
     </row>
     <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B181" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C181" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D181" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="E181" s="40" t="s">
         <v>293</v>
-      </c>
-      <c r="E181" s="40" t="s">
-        <v>294</v>
       </c>
       <c r="F181" s="10"/>
       <c r="G181" s="9"/>
@@ -6348,19 +5943,19 @@
     </row>
     <row r="182" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B182" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C182" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D182" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="E182" s="31" t="s">
         <v>295</v>
-      </c>
-      <c r="E182" s="31" t="s">
-        <v>296</v>
       </c>
       <c r="F182" s="10"/>
       <c r="G182" s="13"/>
@@ -6369,19 +5964,19 @@
     </row>
     <row r="183" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B183" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C183" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D183" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="E183" s="40" t="s">
         <v>297</v>
-      </c>
-      <c r="E183" s="40" t="s">
-        <v>298</v>
       </c>
       <c r="F183" s="10"/>
       <c r="G183" s="9"/>
@@ -6390,19 +5985,19 @@
     </row>
     <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B184" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C184" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D184" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="E184" s="31" t="s">
         <v>299</v>
-      </c>
-      <c r="E184" s="31" t="s">
-        <v>300</v>
       </c>
       <c r="F184" s="10"/>
       <c r="G184" s="13"/>
@@ -6413,19 +6008,19 @@
     </row>
     <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B185" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C185" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D185" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="E185" s="40" t="s">
         <v>301</v>
-      </c>
-      <c r="E185" s="40" t="s">
-        <v>302</v>
       </c>
       <c r="F185" s="10"/>
       <c r="G185" s="9"/>
@@ -6434,19 +6029,19 @@
     </row>
     <row r="186" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B186" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C186" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D186" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="E186" s="31" t="s">
         <v>303</v>
-      </c>
-      <c r="E186" s="31" t="s">
-        <v>304</v>
       </c>
       <c r="F186" s="10"/>
       <c r="G186" s="13"/>
@@ -6455,19 +6050,19 @@
     </row>
     <row r="187" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B187" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C187" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D187" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="E187" s="40" t="s">
         <v>305</v>
-      </c>
-      <c r="E187" s="40" t="s">
-        <v>306</v>
       </c>
       <c r="F187" s="10"/>
       <c r="G187" s="9"/>
@@ -6476,19 +6071,19 @@
     </row>
     <row r="188" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B188" s="35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C188" s="35" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D188" s="35" t="s">
+        <v>306</v>
+      </c>
+      <c r="E188" s="37" t="s">
         <v>307</v>
-      </c>
-      <c r="E188" s="37" t="s">
-        <v>308</v>
       </c>
       <c r="F188" s="10"/>
       <c r="G188" s="35"/>
@@ -6497,19 +6092,19 @@
     </row>
     <row r="189" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B189" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C189" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D189" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="E189" s="38" t="s">
         <v>309</v>
-      </c>
-      <c r="E189" s="38" t="s">
-        <v>310</v>
       </c>
       <c r="F189" s="10"/>
       <c r="G189" s="14"/>
@@ -6518,19 +6113,19 @@
     </row>
     <row r="190" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B190" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C190" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D190" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="E190" s="31" t="s">
         <v>311</v>
-      </c>
-      <c r="E190" s="31" t="s">
-        <v>312</v>
       </c>
       <c r="F190" s="10"/>
       <c r="G190" s="13"/>
@@ -6539,19 +6134,19 @@
     </row>
     <row r="191" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B191" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C191" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="D191" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="D191" s="9" t="s">
+      <c r="E191" s="40" t="s">
         <v>314</v>
-      </c>
-      <c r="E191" s="40" t="s">
-        <v>315</v>
       </c>
       <c r="F191" s="10"/>
       <c r="G191" s="9"/>
@@ -6562,19 +6157,19 @@
     </row>
     <row r="192" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B192" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C192" s="13" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D192" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="E192" s="31" t="s">
         <v>316</v>
-      </c>
-      <c r="E192" s="31" t="s">
-        <v>317</v>
       </c>
       <c r="F192" s="10"/>
       <c r="G192" s="13"/>
@@ -6583,19 +6178,19 @@
     </row>
     <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B193" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C193" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D193" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="E193" s="40" t="s">
         <v>318</v>
-      </c>
-      <c r="E193" s="40" t="s">
-        <v>319</v>
       </c>
       <c r="F193" s="10"/>
       <c r="G193" s="9"/>
@@ -6604,19 +6199,19 @@
     </row>
     <row r="194" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B194" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C194" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D194" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="E194" s="31" t="s">
         <v>320</v>
-      </c>
-      <c r="E194" s="31" t="s">
-        <v>321</v>
       </c>
       <c r="F194" s="10"/>
       <c r="G194" s="13"/>
@@ -6625,19 +6220,19 @@
     </row>
     <row r="195" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B195" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C195" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D195" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="E195" s="40" t="s">
         <v>322</v>
-      </c>
-      <c r="E195" s="40" t="s">
-        <v>323</v>
       </c>
       <c r="F195" s="10"/>
       <c r="G195" s="9"/>
@@ -6648,19 +6243,19 @@
     </row>
     <row r="196" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B196" s="35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C196" s="35" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D196" s="35" t="s">
+        <v>323</v>
+      </c>
+      <c r="E196" s="37" t="s">
         <v>324</v>
-      </c>
-      <c r="E196" s="37" t="s">
-        <v>325</v>
       </c>
       <c r="F196" s="10"/>
       <c r="G196" s="35"/>
@@ -6669,19 +6264,19 @@
     </row>
     <row r="197" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B197" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C197" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D197" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="E197" s="38" t="s">
         <v>326</v>
-      </c>
-      <c r="E197" s="38" t="s">
-        <v>327</v>
       </c>
       <c r="F197" s="10"/>
       <c r="G197" s="14"/>
@@ -6690,19 +6285,19 @@
     </row>
     <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B198" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C198" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D198" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="E198" s="31" t="s">
         <v>328</v>
-      </c>
-      <c r="E198" s="31" t="s">
-        <v>329</v>
       </c>
       <c r="F198" s="10"/>
       <c r="G198" s="13"/>
@@ -6711,19 +6306,19 @@
     </row>
     <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B199" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C199" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D199" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="E199" s="40" t="s">
         <v>330</v>
-      </c>
-      <c r="E199" s="40" t="s">
-        <v>331</v>
       </c>
       <c r="F199" s="10"/>
       <c r="G199" s="9"/>
@@ -6732,19 +6327,19 @@
     </row>
     <row r="200" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B200" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C200" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D200" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E200" s="40" t="s">
         <v>332</v>
-      </c>
-      <c r="E200" s="40" t="s">
-        <v>333</v>
       </c>
       <c r="F200" s="10"/>
       <c r="G200" s="9"/>
@@ -7207,7 +6802,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF93CDDD"/>
@@ -7215,7 +6810,7 @@
   <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7253,970 +6848,424 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
-        <v>334</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>336</v>
-      </c>
+      <c r="A2" s="53"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
       <c r="F2" s="54"/>
       <c r="G2" s="9"/>
-      <c r="H2" s="10" t="e">
-        <f>Général!#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="56" t="s">
-        <v>337</v>
-      </c>
-      <c r="E3" s="56" t="s">
-        <v>18</v>
-      </c>
+      <c r="A3" s="43"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
       <c r="F3" s="57"/>
       <c r="G3" s="55"/>
-      <c r="H3" s="58">
-        <f>Général!H2</f>
-        <v>0</v>
-      </c>
+      <c r="H3" s="58"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="59" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>338</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>16</v>
-      </c>
+      <c r="A4" s="36"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="29"/>
       <c r="F4" s="10"/>
       <c r="G4" s="59"/>
-      <c r="H4" s="54" t="e">
-        <f>Général!#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="H4" s="54"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="59" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>339</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>340</v>
-      </c>
+      <c r="A5" s="36"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="29"/>
       <c r="F5" s="10"/>
       <c r="G5" s="9"/>
-      <c r="H5" s="10" t="e">
-        <f>Général!#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>20</v>
-      </c>
+      <c r="A6" s="36"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
       <c r="F6" s="10"/>
       <c r="G6" s="28"/>
-      <c r="H6" s="34" t="e">
-        <f>Général!#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="H6" s="34"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
-        <v>342</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="D7" s="56" t="s">
-        <v>343</v>
-      </c>
-      <c r="E7" s="56" t="s">
-        <v>344</v>
-      </c>
+      <c r="A7" s="43"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
       <c r="F7" s="57"/>
       <c r="G7" s="56"/>
-      <c r="H7" s="58" t="e">
-        <f>Général!#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="H7" s="58"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
-        <v>342</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>346</v>
-      </c>
+      <c r="A8" s="36"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
       <c r="F8" s="10"/>
       <c r="G8" s="9"/>
-      <c r="H8" s="54" t="e">
-        <f>Général!#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="H8" s="54"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="61" t="s">
-        <v>342</v>
-      </c>
-      <c r="B9" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="60" t="s">
-        <v>347</v>
-      </c>
-      <c r="E9" s="60" t="s">
-        <v>348</v>
-      </c>
+      <c r="A9" s="61"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
       <c r="F9" s="42"/>
       <c r="G9" s="60"/>
-      <c r="H9" s="42" t="e">
-        <f>Général!#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="H9" s="42"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="62" t="s">
-        <v>349</v>
-      </c>
-      <c r="B10" s="63" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="63" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="63" t="s">
-        <v>350</v>
-      </c>
-      <c r="E10" s="63" t="s">
-        <v>46</v>
-      </c>
+      <c r="A10" s="62"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
       <c r="F10" s="64"/>
       <c r="G10" s="63"/>
-      <c r="H10" s="65" t="e">
-        <f>Général!#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="H10" s="65"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="66" t="s">
-        <v>93</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>351</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>352</v>
-      </c>
-      <c r="E11" s="29" t="s">
-        <v>353</v>
-      </c>
+      <c r="A11" s="66"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="29"/>
       <c r="F11" s="34"/>
       <c r="G11" s="28"/>
-      <c r="H11" s="34">
-        <f>Général!H51</f>
-        <v>0</v>
-      </c>
+      <c r="H11" s="34"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="E12" s="40" t="s">
-        <v>355</v>
-      </c>
+      <c r="A12" s="36"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="40"/>
       <c r="F12" s="10"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="34">
-        <f>Général!H52</f>
-        <v>0</v>
-      </c>
+      <c r="H12" s="34"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>356</v>
-      </c>
-      <c r="E13" s="40" t="s">
-        <v>357</v>
-      </c>
+      <c r="A13" s="36"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="40"/>
       <c r="F13" s="10"/>
       <c r="G13" s="9"/>
-      <c r="H13" s="34">
-        <f>Général!H53</f>
-        <v>0</v>
-      </c>
+      <c r="H13" s="34"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>358</v>
-      </c>
-      <c r="E14" s="40" t="s">
-        <v>359</v>
-      </c>
+      <c r="A14" s="36"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="40"/>
       <c r="F14" s="10"/>
       <c r="G14" s="9"/>
-      <c r="H14" s="34">
-        <f>Général!H54</f>
-        <v>0</v>
-      </c>
+      <c r="H14" s="34"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="E15" s="40" t="s">
-        <v>361</v>
-      </c>
+      <c r="A15" s="36"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="40"/>
       <c r="F15" s="10"/>
       <c r="G15" s="9"/>
-      <c r="H15" s="34">
-        <f>Général!H55</f>
-        <v>0</v>
-      </c>
+      <c r="H15" s="34"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>339</v>
-      </c>
-      <c r="E16" s="40" t="s">
-        <v>340</v>
-      </c>
+      <c r="A16" s="36"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="40"/>
       <c r="F16" s="10"/>
       <c r="G16" s="9"/>
-      <c r="H16" s="34">
-        <f>Général!H56</f>
-        <v>0</v>
-      </c>
+      <c r="H16" s="34"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="B17" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="E17" s="40" t="s">
-        <v>20</v>
-      </c>
+      <c r="A17" s="36"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="40"/>
       <c r="F17" s="42"/>
       <c r="G17" s="60"/>
-      <c r="H17" s="67">
-        <f>Général!H57</f>
-        <v>0</v>
-      </c>
+      <c r="H17" s="67"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="43" t="s">
-        <v>362</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="D18" s="56" t="s">
-        <v>363</v>
-      </c>
-      <c r="E18" s="56" t="s">
-        <v>364</v>
-      </c>
+      <c r="A18" s="43"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
       <c r="F18" s="34"/>
       <c r="G18" s="28"/>
-      <c r="H18" s="58">
-        <f>Général!H85</f>
-        <v>0</v>
-      </c>
+      <c r="H18" s="58"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="36" t="s">
-        <v>362</v>
-      </c>
-      <c r="B19" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="D19" s="60" t="s">
-        <v>365</v>
-      </c>
-      <c r="E19" s="68" t="s">
-        <v>366</v>
-      </c>
+      <c r="A19" s="36"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="68"/>
       <c r="F19" s="42"/>
       <c r="G19" s="60"/>
-      <c r="H19" s="42">
-        <f>Général!H86</f>
-        <v>0</v>
-      </c>
+      <c r="H19" s="42"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="43" t="s">
-        <v>367</v>
-      </c>
-      <c r="B20" s="63" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="63" t="s">
-        <v>115</v>
-      </c>
-      <c r="D20" s="69" t="s">
-        <v>368</v>
-      </c>
-      <c r="E20" s="70" t="s">
-        <v>369</v>
-      </c>
+      <c r="A20" s="43"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="70"/>
       <c r="F20" s="67"/>
       <c r="G20" s="69"/>
-      <c r="H20" s="67">
-        <f>Général!H102</f>
-        <v>0</v>
-      </c>
+      <c r="H20" s="67"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="43" t="s">
-        <v>167</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="D21" s="56" t="s">
-        <v>197</v>
-      </c>
-      <c r="E21" s="56" t="s">
-        <v>198</v>
-      </c>
+      <c r="A21" s="43"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
       <c r="F21" s="57"/>
       <c r="G21" s="56"/>
-      <c r="H21" s="58">
-        <f>Général!H135</f>
-        <v>0</v>
-      </c>
+      <c r="H21" s="58"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="D22" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="E22" s="29" t="s">
-        <v>200</v>
-      </c>
+      <c r="A22" s="36"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="29"/>
       <c r="F22" s="34"/>
       <c r="G22" s="9"/>
-      <c r="H22" s="10">
-        <f>Général!H136</f>
-        <v>0</v>
-      </c>
+      <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="B23" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="D23" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="E23" s="29" t="s">
-        <v>202</v>
-      </c>
+      <c r="A23" s="36"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="29"/>
       <c r="F23" s="34"/>
       <c r="G23" s="9"/>
-      <c r="H23" s="67">
-        <f>Général!H137</f>
-        <v>0</v>
-      </c>
+      <c r="H23" s="67"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="B24" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>169</v>
-      </c>
-      <c r="D24" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="E24" s="29" t="s">
-        <v>204</v>
-      </c>
+      <c r="A24" s="36"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="29"/>
       <c r="F24" s="34"/>
       <c r="G24" s="9"/>
-      <c r="H24" s="10">
-        <f>Général!H138</f>
-        <v>0</v>
-      </c>
+      <c r="H24" s="10"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="B25" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="D25" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="E25" s="29" t="s">
-        <v>207</v>
-      </c>
+      <c r="A25" s="36"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="29"/>
       <c r="F25" s="34"/>
       <c r="G25" s="9"/>
-      <c r="H25" s="34">
-        <f>Général!H139</f>
-        <v>0</v>
-      </c>
+      <c r="H25" s="34"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="E26" s="40" t="s">
-        <v>211</v>
-      </c>
+      <c r="A26" s="36"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="40"/>
       <c r="F26" s="10"/>
       <c r="G26" s="9"/>
-      <c r="H26" s="10">
-        <f>Général!H141</f>
-        <v>0</v>
-      </c>
+      <c r="H26" s="10"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="E27" s="40" t="s">
-        <v>228</v>
-      </c>
+      <c r="A27" s="36"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="40"/>
       <c r="F27" s="10"/>
       <c r="G27" s="9"/>
-      <c r="H27" s="10">
-        <f>Général!H149</f>
-        <v>0</v>
-      </c>
+      <c r="H27" s="10"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="E28" s="40" t="s">
-        <v>242</v>
-      </c>
+      <c r="A28" s="36"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="40"/>
       <c r="F28" s="10"/>
       <c r="G28" s="9"/>
-      <c r="H28" s="10">
-        <f>Général!H156</f>
-        <v>0</v>
-      </c>
+      <c r="H28" s="10"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="E29" s="40" t="s">
-        <v>260</v>
-      </c>
+      <c r="A29" s="36"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="40"/>
       <c r="F29" s="10"/>
       <c r="G29" s="9"/>
-      <c r="H29" s="10">
-        <f>Général!H164</f>
-        <v>0</v>
-      </c>
+      <c r="H29" s="10"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="E30" s="40" t="s">
-        <v>266</v>
-      </c>
+      <c r="A30" s="36"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="40"/>
       <c r="F30" s="10"/>
       <c r="G30" s="9"/>
-      <c r="H30" s="10">
-        <f>Général!H167</f>
-        <v>0</v>
-      </c>
+      <c r="H30" s="10"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="E31" s="40" t="s">
-        <v>272</v>
-      </c>
+      <c r="A31" s="36"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="40"/>
       <c r="F31" s="10"/>
       <c r="G31" s="9"/>
-      <c r="H31" s="10">
-        <f>Général!H170</f>
-        <v>0</v>
-      </c>
+      <c r="H31" s="10"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="E32" s="40" t="s">
-        <v>276</v>
-      </c>
+      <c r="A32" s="36"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="40"/>
       <c r="F32" s="10"/>
       <c r="G32" s="9"/>
-      <c r="H32" s="10">
-        <f>Général!H172</f>
-        <v>0</v>
-      </c>
+      <c r="H32" s="10"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="E33" s="40" t="s">
-        <v>282</v>
-      </c>
+      <c r="A33" s="36"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="40"/>
       <c r="F33" s="10"/>
       <c r="G33" s="9"/>
-      <c r="H33" s="10">
-        <f>Général!H175</f>
-        <v>0</v>
-      </c>
+      <c r="H33" s="10"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="E34" s="40" t="s">
-        <v>288</v>
-      </c>
+      <c r="A34" s="36"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="40"/>
       <c r="F34" s="10"/>
       <c r="G34" s="9"/>
-      <c r="H34" s="10">
-        <f>Général!H178</f>
-        <v>0</v>
-      </c>
+      <c r="H34" s="10"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="E35" s="40" t="s">
-        <v>294</v>
-      </c>
+      <c r="A35" s="36"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="40"/>
       <c r="F35" s="10"/>
       <c r="G35" s="9"/>
-      <c r="H35" s="10">
-        <f>Général!H181</f>
-        <v>0</v>
-      </c>
+      <c r="H35" s="10"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="E36" s="40" t="s">
-        <v>298</v>
-      </c>
+      <c r="A36" s="36"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="40"/>
       <c r="F36" s="10"/>
       <c r="G36" s="9"/>
-      <c r="H36" s="10">
-        <f>Général!H183</f>
-        <v>0</v>
-      </c>
+      <c r="H36" s="10"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="E37" s="40" t="s">
-        <v>302</v>
-      </c>
+      <c r="A37" s="36"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="40"/>
       <c r="F37" s="10"/>
       <c r="G37" s="9"/>
-      <c r="H37" s="10">
-        <f>Général!H185</f>
-        <v>0</v>
-      </c>
+      <c r="H37" s="10"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="E38" s="40" t="s">
-        <v>306</v>
-      </c>
+      <c r="A38" s="36"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="40"/>
       <c r="F38" s="10"/>
       <c r="G38" s="9"/>
-      <c r="H38" s="10">
-        <f>Général!H187</f>
-        <v>0</v>
-      </c>
+      <c r="H38" s="10"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="E39" s="40" t="s">
-        <v>315</v>
-      </c>
+      <c r="A39" s="36"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="40"/>
       <c r="F39" s="10"/>
       <c r="G39" s="9"/>
-      <c r="H39" s="10">
-        <f>Général!H191</f>
-        <v>100</v>
-      </c>
+      <c r="H39" s="10"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="E40" s="40" t="s">
-        <v>319</v>
-      </c>
+      <c r="A40" s="36"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="40"/>
       <c r="F40" s="10"/>
       <c r="G40" s="9"/>
-      <c r="H40" s="10">
-        <f>Général!H193</f>
-        <v>0</v>
-      </c>
+      <c r="H40" s="10"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="E41" s="40" t="s">
-        <v>323</v>
-      </c>
+      <c r="A41" s="36"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="40"/>
       <c r="F41" s="10"/>
       <c r="G41" s="9"/>
-      <c r="H41" s="10">
-        <f>Général!H195</f>
-        <v>100</v>
-      </c>
+      <c r="H41" s="10"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>330</v>
-      </c>
-      <c r="E42" s="40" t="s">
-        <v>331</v>
-      </c>
+      <c r="A42" s="36"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="40"/>
       <c r="F42" s="10"/>
       <c r="G42" s="9"/>
-      <c r="H42" s="10">
-        <f>Général!H199</f>
-        <v>0</v>
-      </c>
+      <c r="H42" s="10"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>332</v>
-      </c>
-      <c r="E43" s="40" t="s">
-        <v>333</v>
-      </c>
+      <c r="A43" s="36"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="40"/>
       <c r="F43" s="10"/>
       <c r="G43" s="9"/>
-      <c r="H43" s="10">
-        <f>Général!H200</f>
-        <v>0</v>
-      </c>
+      <c r="H43" s="10"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="H10">
@@ -8251,7 +7300,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFAC090"/>
@@ -8259,7 +7308,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="A2" sqref="A2:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8297,312 +7346,143 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
-        <v>93</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>370</v>
-      </c>
-      <c r="E2" s="38" t="s">
-        <v>371</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>372</v>
-      </c>
+      <c r="A2" s="66"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="14"/>
       <c r="G2" s="14"/>
-      <c r="H2" s="10">
-        <f>Général!H82</f>
-        <v>0</v>
-      </c>
+      <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="B3" s="71" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="71" t="s">
-        <v>115</v>
-      </c>
-      <c r="D3" s="71" t="s">
-        <v>373</v>
-      </c>
-      <c r="E3" s="71" t="s">
-        <v>374</v>
-      </c>
+      <c r="A3" s="36"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
       <c r="F3" s="42"/>
       <c r="G3" s="71"/>
-      <c r="H3" s="42">
-        <f>Général!H83</f>
-        <v>0</v>
-      </c>
+      <c r="H3" s="42"/>
       <c r="I3" s="42"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
-        <v>362</v>
-      </c>
-      <c r="B4" s="71" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="71" t="s">
-        <v>351</v>
-      </c>
-      <c r="D4" s="71" t="s">
-        <v>375</v>
-      </c>
-      <c r="E4" s="72" t="s">
-        <v>376</v>
-      </c>
-      <c r="F4" s="71" t="s">
-        <v>377</v>
-      </c>
+      <c r="A4" s="43"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="71"/>
       <c r="G4" s="71"/>
-      <c r="H4" s="64" t="e">
-        <f>Général!#REF!</f>
-        <v>#REF!</v>
-      </c>
+      <c r="H4" s="64"/>
       <c r="I4" s="42"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="43" t="s">
-        <v>367</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="E5" s="38" t="s">
-        <v>121</v>
-      </c>
+      <c r="A5" s="43"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="38"/>
       <c r="F5" s="10"/>
       <c r="G5" s="14"/>
-      <c r="H5" s="10">
-        <f>Général!H95</f>
-        <v>0</v>
-      </c>
+      <c r="H5" s="10"/>
       <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
-        <v>367</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="38" t="s">
-        <v>125</v>
-      </c>
+      <c r="A6" s="36"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="38"/>
       <c r="F6" s="10"/>
       <c r="G6" s="14"/>
-      <c r="H6" s="10">
-        <f>Général!H97</f>
-        <v>0</v>
-      </c>
+      <c r="H6" s="10"/>
       <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
-        <v>367</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="E7" s="38" t="s">
-        <v>379</v>
-      </c>
+      <c r="A7" s="36"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="38"/>
       <c r="F7" s="10"/>
       <c r="G7" s="14"/>
-      <c r="H7" s="10">
-        <f>Général!H100</f>
-        <v>0</v>
-      </c>
+      <c r="H7" s="10"/>
       <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="61" t="s">
-        <v>367</v>
-      </c>
-      <c r="B8" s="71" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="71" t="s">
-        <v>115</v>
-      </c>
-      <c r="D8" s="71" t="s">
-        <v>380</v>
-      </c>
-      <c r="E8" s="72" t="s">
-        <v>381</v>
-      </c>
+      <c r="A8" s="61"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="72"/>
       <c r="F8" s="42"/>
       <c r="G8" s="71"/>
-      <c r="H8" s="42">
-        <f>Général!H101</f>
-        <v>0</v>
-      </c>
+      <c r="H8" s="42"/>
       <c r="I8" s="42"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="43" t="s">
-        <v>167</v>
-      </c>
-      <c r="B9" s="73" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="73" t="s">
-        <v>205</v>
-      </c>
-      <c r="D9" s="73" t="s">
-        <v>218</v>
-      </c>
-      <c r="E9" s="74" t="s">
-        <v>219</v>
-      </c>
+      <c r="A9" s="43"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="74"/>
       <c r="F9" s="34"/>
       <c r="G9" s="73"/>
-      <c r="H9" s="34">
-        <f>Général!H145</f>
-        <v>0</v>
-      </c>
+      <c r="H9" s="34"/>
       <c r="I9" s="34"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="E10" s="38" t="s">
-        <v>234</v>
-      </c>
+      <c r="A10" s="36"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="38"/>
       <c r="F10" s="10"/>
       <c r="G10" s="14"/>
-      <c r="H10" s="10">
-        <f>Général!H152</f>
-        <v>0</v>
-      </c>
+      <c r="H10" s="10"/>
       <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>247</v>
-      </c>
-      <c r="E11" s="38" t="s">
-        <v>248</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>249</v>
-      </c>
+      <c r="A11" s="36"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="14"/>
       <c r="G11" s="14"/>
-      <c r="H11" s="10">
-        <f>Général!H159</f>
-        <v>0</v>
-      </c>
+      <c r="H11" s="10"/>
       <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>250</v>
-      </c>
-      <c r="E12" s="38" t="s">
-        <v>251</v>
-      </c>
+      <c r="A12" s="36"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="38"/>
       <c r="F12" s="10"/>
       <c r="G12" s="14"/>
-      <c r="H12" s="10">
-        <f>Général!H160</f>
-        <v>0</v>
-      </c>
+      <c r="H12" s="10"/>
       <c r="I12" s="10"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>309</v>
-      </c>
-      <c r="E13" s="38" t="s">
-        <v>310</v>
-      </c>
+      <c r="A13" s="36"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="38"/>
       <c r="F13" s="10"/>
       <c r="G13" s="14"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>326</v>
-      </c>
-      <c r="E14" s="38" t="s">
-        <v>327</v>
-      </c>
+      <c r="A14" s="36"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="38"/>
       <c r="F14" s="10"/>
       <c r="G14" s="14"/>
       <c r="H14" s="10"/>
@@ -8632,7 +7512,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFFCC"/>
@@ -8640,7 +7520,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8678,421 +7558,211 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
-        <v>334</v>
-      </c>
-      <c r="B2" s="75" t="s">
-        <v>114</v>
-      </c>
-      <c r="C2" s="75" t="s">
-        <v>115</v>
-      </c>
-      <c r="D2" s="75" t="s">
-        <v>382</v>
-      </c>
-      <c r="E2" s="75" t="s">
-        <v>383</v>
-      </c>
+      <c r="A2" s="53"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
       <c r="F2" s="42"/>
       <c r="G2" s="75"/>
       <c r="H2" s="42"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
-        <v>367</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>384</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>117</v>
-      </c>
+      <c r="A3" s="43"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="33"/>
       <c r="F3" s="34"/>
       <c r="G3" s="32"/>
       <c r="H3" s="34"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
-        <v>367</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>385</v>
-      </c>
-      <c r="E4" s="37" t="s">
-        <v>119</v>
-      </c>
+      <c r="A4" s="36"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="37"/>
       <c r="F4" s="10"/>
       <c r="G4" s="35"/>
       <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
-        <v>367</v>
-      </c>
-      <c r="B5" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="D5" s="35" t="s">
-        <v>386</v>
-      </c>
-      <c r="E5" s="37" t="s">
-        <v>387</v>
-      </c>
+      <c r="A5" s="36"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="37"/>
       <c r="F5" s="10"/>
       <c r="G5" s="35"/>
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
-        <v>367</v>
-      </c>
-      <c r="B6" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="C6" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>388</v>
-      </c>
-      <c r="E6" s="37" t="s">
-        <v>389</v>
-      </c>
+      <c r="A6" s="36"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="37"/>
       <c r="F6" s="10"/>
       <c r="G6" s="35"/>
       <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
-        <v>367</v>
-      </c>
-      <c r="B7" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="C7" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="D7" s="35" t="s">
-        <v>390</v>
-      </c>
-      <c r="E7" s="37" t="s">
-        <v>391</v>
-      </c>
+      <c r="A7" s="36"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="37"/>
       <c r="F7" s="10"/>
       <c r="G7" s="35"/>
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="61" t="s">
-        <v>367</v>
-      </c>
-      <c r="B8" s="75" t="s">
-        <v>114</v>
-      </c>
-      <c r="C8" s="75" t="s">
-        <v>115</v>
-      </c>
-      <c r="D8" s="75" t="s">
-        <v>392</v>
-      </c>
-      <c r="E8" s="76" t="s">
-        <v>393</v>
-      </c>
+      <c r="A8" s="61"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="76"/>
       <c r="F8" s="42"/>
       <c r="G8" s="75"/>
       <c r="H8" s="42"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="43" t="s">
-        <v>167</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>205</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>212</v>
-      </c>
-      <c r="E9" s="33" t="s">
-        <v>213</v>
-      </c>
+      <c r="A9" s="43"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="33"/>
       <c r="F9" s="34"/>
       <c r="G9" s="32"/>
       <c r="H9" s="34"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="B10" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="C10" s="35" t="s">
-        <v>205</v>
-      </c>
-      <c r="D10" s="35" t="s">
-        <v>214</v>
-      </c>
-      <c r="E10" s="37" t="s">
-        <v>215</v>
-      </c>
+      <c r="A10" s="36"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="37"/>
       <c r="F10" s="10"/>
       <c r="G10" s="35"/>
       <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="B11" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>205</v>
-      </c>
-      <c r="D11" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="E11" s="37" t="s">
-        <v>217</v>
-      </c>
+      <c r="A11" s="36"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="37"/>
       <c r="F11" s="10"/>
       <c r="G11" s="35"/>
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="B12" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>226</v>
-      </c>
-      <c r="D12" s="35" t="s">
-        <v>229</v>
-      </c>
-      <c r="E12" s="37" t="s">
-        <v>230</v>
-      </c>
+      <c r="A12" s="36"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="37"/>
       <c r="F12" s="10"/>
       <c r="G12" s="35"/>
       <c r="H12" s="10"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="B13" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="C13" s="35" t="s">
-        <v>226</v>
-      </c>
-      <c r="D13" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="E13" s="37" t="s">
-        <v>232</v>
-      </c>
+      <c r="A13" s="36"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="37"/>
       <c r="F13" s="10"/>
       <c r="G13" s="35"/>
       <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="B14" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="C14" s="35" t="s">
-        <v>177</v>
-      </c>
-      <c r="D14" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="E14" s="37" t="s">
-        <v>244</v>
-      </c>
+      <c r="A14" s="36"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="37"/>
       <c r="F14" s="10"/>
       <c r="G14" s="35"/>
       <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="B15" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="C15" s="35" t="s">
-        <v>177</v>
-      </c>
-      <c r="D15" s="35" t="s">
-        <v>245</v>
-      </c>
-      <c r="E15" s="37" t="s">
-        <v>246</v>
-      </c>
+      <c r="A15" s="36"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="37"/>
       <c r="F15" s="10"/>
       <c r="G15" s="35"/>
       <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="B16" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="C16" s="35" t="s">
-        <v>258</v>
-      </c>
-      <c r="D16" s="35" t="s">
-        <v>261</v>
-      </c>
-      <c r="E16" s="37" t="s">
-        <v>262</v>
-      </c>
+      <c r="A16" s="36"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="37"/>
       <c r="F16" s="10"/>
       <c r="G16" s="35"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="B17" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="C17" s="35" t="s">
-        <v>173</v>
-      </c>
-      <c r="D17" s="35" t="s">
-        <v>267</v>
-      </c>
-      <c r="E17" s="37" t="s">
-        <v>268</v>
-      </c>
+      <c r="A17" s="36"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="37"/>
       <c r="F17" s="10"/>
       <c r="G17" s="35"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="B18" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="C18" s="35" t="s">
-        <v>173</v>
-      </c>
-      <c r="D18" s="35" t="s">
-        <v>277</v>
-      </c>
-      <c r="E18" s="37" t="s">
-        <v>278</v>
-      </c>
+      <c r="A18" s="36"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="37"/>
       <c r="F18" s="10"/>
       <c r="G18" s="35"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="B19" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="C19" s="35" t="s">
-        <v>177</v>
-      </c>
-      <c r="D19" s="35" t="s">
-        <v>283</v>
-      </c>
-      <c r="E19" s="37" t="s">
-        <v>284</v>
-      </c>
+      <c r="A19" s="36"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="37"/>
       <c r="F19" s="10"/>
       <c r="G19" s="35"/>
       <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="B20" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="C20" s="35" t="s">
-        <v>205</v>
-      </c>
-      <c r="D20" s="35" t="s">
-        <v>289</v>
-      </c>
-      <c r="E20" s="37" t="s">
-        <v>290</v>
-      </c>
+      <c r="A20" s="36"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="37"/>
       <c r="F20" s="10"/>
       <c r="G20" s="35"/>
       <c r="H20" s="10"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="B21" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="C21" s="35" t="s">
-        <v>173</v>
-      </c>
-      <c r="D21" s="35" t="s">
-        <v>307</v>
-      </c>
-      <c r="E21" s="37" t="s">
-        <v>308</v>
-      </c>
+      <c r="A21" s="36"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="37"/>
       <c r="F21" s="10"/>
       <c r="G21" s="35"/>
       <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="B22" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="C22" s="35" t="s">
-        <v>173</v>
-      </c>
-      <c r="D22" s="35" t="s">
-        <v>324</v>
-      </c>
-      <c r="E22" s="37" t="s">
-        <v>325</v>
-      </c>
+      <c r="A22" s="36"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="37"/>
       <c r="F22" s="10"/>
       <c r="G22" s="35"/>
       <c r="H22" s="10"/>
@@ -9112,7 +7782,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF9FE98B"/>
@@ -9120,7 +7790,7 @@
   <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+      <selection activeCell="A2" sqref="A2:I72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9158,1491 +7828,781 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
-        <v>334</v>
-      </c>
-      <c r="B2" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="78" t="s">
-        <v>115</v>
-      </c>
-      <c r="D2" s="78" t="s">
-        <v>394</v>
-      </c>
-      <c r="E2" s="78" t="s">
-        <v>395</v>
-      </c>
+      <c r="A2" s="77"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
       <c r="F2" s="42"/>
       <c r="G2" s="78"/>
       <c r="H2" s="79"/>
       <c r="I2" s="79"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="39" t="s">
-        <v>396</v>
-      </c>
-      <c r="E3" s="39" t="s">
-        <v>14</v>
-      </c>
+      <c r="A3" s="66"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
       <c r="F3" s="34"/>
       <c r="G3" s="39"/>
       <c r="H3" s="57"/>
       <c r="I3" s="80"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>337</v>
-      </c>
-      <c r="E4" s="39" t="s">
-        <v>18</v>
-      </c>
+      <c r="A4" s="36"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
       <c r="F4" s="10"/>
       <c r="G4" s="39"/>
       <c r="H4" s="10"/>
       <c r="I4" s="81"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="39" t="s">
-        <v>338</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>16</v>
-      </c>
+      <c r="A5" s="36"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="24"/>
       <c r="F5" s="10"/>
       <c r="G5" s="39"/>
       <c r="H5" s="10"/>
       <c r="I5" s="81"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="39" t="s">
-        <v>339</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>340</v>
-      </c>
+      <c r="A6" s="36"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="24"/>
       <c r="F6" s="10"/>
       <c r="G6" s="39"/>
       <c r="H6" s="10"/>
       <c r="I6" s="81"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="78" t="s">
-        <v>341</v>
-      </c>
-      <c r="E7" s="82" t="s">
-        <v>20</v>
-      </c>
+      <c r="A7" s="36"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="82"/>
       <c r="F7" s="42"/>
       <c r="G7" s="78"/>
       <c r="H7" s="64"/>
       <c r="I7" s="83"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="43" t="s">
-        <v>342</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="39" t="s">
-        <v>397</v>
-      </c>
-      <c r="E8" s="39" t="s">
-        <v>398</v>
-      </c>
+      <c r="A8" s="43"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
       <c r="F8" s="34"/>
       <c r="G8" s="39"/>
       <c r="H8" s="57"/>
       <c r="I8" s="80"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
-        <v>342</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>347</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>348</v>
-      </c>
+      <c r="A9" s="36"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
       <c r="F9" s="10"/>
       <c r="G9" s="13"/>
       <c r="H9" s="10"/>
       <c r="I9" s="81"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="61" t="s">
-        <v>342</v>
-      </c>
-      <c r="B10" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="78" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="78" t="s">
-        <v>399</v>
-      </c>
-      <c r="E10" s="82" t="s">
-        <v>400</v>
-      </c>
+      <c r="A10" s="61"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="82"/>
       <c r="F10" s="84"/>
       <c r="G10" s="78"/>
       <c r="H10" s="64"/>
       <c r="I10" s="83"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="66" t="s">
-        <v>401</v>
-      </c>
-      <c r="B11" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>402</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>403</v>
-      </c>
+      <c r="A11" s="66"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="24"/>
       <c r="F11" s="34"/>
       <c r="G11" s="39"/>
       <c r="H11" s="57"/>
       <c r="I11" s="80"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="36" t="s">
-        <v>401</v>
-      </c>
-      <c r="B12" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="39" t="s">
-        <v>404</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>405</v>
-      </c>
+      <c r="A12" s="36"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="24"/>
       <c r="F12" s="34"/>
       <c r="G12" s="39"/>
       <c r="H12" s="10"/>
       <c r="I12" s="81"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
-        <v>401</v>
-      </c>
-      <c r="B13" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="39" t="s">
-        <v>406</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>407</v>
-      </c>
+      <c r="A13" s="36"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="24"/>
       <c r="F13" s="34"/>
       <c r="G13" s="39"/>
       <c r="H13" s="10"/>
       <c r="I13" s="81"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="61" t="s">
-        <v>401</v>
-      </c>
-      <c r="B14" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="41" t="s">
-        <v>408</v>
-      </c>
-      <c r="E14" s="41" t="s">
-        <v>409</v>
-      </c>
+      <c r="A14" s="61"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
       <c r="F14" s="42"/>
       <c r="G14" s="41"/>
       <c r="H14" s="64"/>
       <c r="I14" s="83"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="66" t="s">
-        <v>410</v>
-      </c>
-      <c r="B15" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="24" t="s">
-        <v>54</v>
-      </c>
+      <c r="A15" s="66"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="24"/>
       <c r="F15" s="34"/>
       <c r="G15" s="39"/>
       <c r="H15" s="57"/>
       <c r="I15" s="57"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="36" t="s">
-        <v>410</v>
-      </c>
-      <c r="B16" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="39" t="s">
-        <v>339</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>340</v>
-      </c>
+      <c r="A16" s="36"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="24"/>
       <c r="F16" s="34"/>
       <c r="G16" s="39"/>
       <c r="H16" s="10"/>
       <c r="I16" s="81"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="s">
-        <v>410</v>
-      </c>
-      <c r="B17" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="39" t="s">
-        <v>338</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>16</v>
-      </c>
+      <c r="A17" s="36"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="24"/>
       <c r="F17" s="34"/>
       <c r="G17" s="39"/>
       <c r="H17" s="10"/>
       <c r="I17" s="81"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="61" t="s">
-        <v>410</v>
-      </c>
-      <c r="B18" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="41" t="s">
-        <v>411</v>
-      </c>
-      <c r="E18" s="41" t="s">
-        <v>412</v>
-      </c>
+      <c r="A18" s="61"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
       <c r="F18" s="42"/>
       <c r="G18" s="41"/>
       <c r="H18" s="64"/>
       <c r="I18" s="83"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="66" t="s">
-        <v>349</v>
-      </c>
-      <c r="B19" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="39" t="s">
-        <v>413</v>
-      </c>
-      <c r="E19" s="39" t="s">
-        <v>414</v>
-      </c>
+      <c r="A19" s="66"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
       <c r="F19" s="34"/>
       <c r="G19" s="39"/>
       <c r="H19" s="57"/>
       <c r="I19" s="80"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="36" t="s">
-        <v>349</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>415</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>416</v>
-      </c>
+      <c r="A20" s="36"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
       <c r="F20" s="10"/>
       <c r="G20" s="13"/>
       <c r="H20" s="10"/>
       <c r="I20" s="81"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="36" t="s">
-        <v>349</v>
-      </c>
-      <c r="B21" s="85" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="85" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="85" t="s">
-        <v>417</v>
-      </c>
-      <c r="E21" s="85" t="s">
-        <v>418</v>
-      </c>
+      <c r="A21" s="36"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="85"/>
       <c r="F21" s="54"/>
       <c r="G21" s="85"/>
       <c r="H21" s="10"/>
       <c r="I21" s="81"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="61" t="s">
-        <v>349</v>
-      </c>
-      <c r="B22" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="41" t="s">
-        <v>419</v>
-      </c>
-      <c r="E22" s="41" t="s">
-        <v>420</v>
-      </c>
+      <c r="A22" s="61"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
       <c r="F22" s="42"/>
       <c r="G22" s="41"/>
       <c r="H22" s="64"/>
       <c r="I22" s="83"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="66" t="s">
-        <v>421</v>
-      </c>
-      <c r="B23" s="86" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="86" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="86" t="s">
-        <v>350</v>
-      </c>
-      <c r="E23" s="86" t="s">
-        <v>418</v>
-      </c>
+      <c r="A23" s="66"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
       <c r="F23" s="57"/>
       <c r="G23" s="86"/>
       <c r="H23" s="57"/>
       <c r="I23" s="80"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="36" t="s">
-        <v>421</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>328</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>422</v>
-      </c>
+      <c r="A24" s="36"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
       <c r="F24" s="10"/>
       <c r="G24" s="13"/>
       <c r="H24" s="10"/>
       <c r="I24" s="81"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="36" t="s">
-        <v>421</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>423</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>424</v>
-      </c>
+      <c r="A25" s="36"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
       <c r="F25" s="10"/>
       <c r="G25" s="13"/>
       <c r="H25" s="10"/>
       <c r="I25" s="81"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="61" t="s">
-        <v>421</v>
-      </c>
-      <c r="B26" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="78" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="78" t="s">
-        <v>425</v>
-      </c>
-      <c r="E26" s="41" t="s">
-        <v>426</v>
-      </c>
+      <c r="A26" s="61"/>
+      <c r="B26" s="78"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="41"/>
       <c r="F26" s="64"/>
       <c r="G26" s="78"/>
       <c r="H26" s="64"/>
       <c r="I26" s="83"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="66" t="s">
-        <v>93</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>427</v>
-      </c>
-      <c r="E27" s="31" t="s">
-        <v>428</v>
-      </c>
+      <c r="A27" s="66"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="31"/>
       <c r="F27" s="10"/>
       <c r="G27" s="13"/>
       <c r="H27" s="57"/>
       <c r="I27" s="80"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>360</v>
-      </c>
-      <c r="E28" s="31" t="s">
-        <v>361</v>
-      </c>
+      <c r="A28" s="36"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="31"/>
       <c r="F28" s="10"/>
       <c r="G28" s="13"/>
       <c r="H28" s="10"/>
       <c r="I28" s="81"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>339</v>
-      </c>
-      <c r="E29" s="31" t="s">
-        <v>340</v>
-      </c>
+      <c r="A29" s="36"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="31"/>
       <c r="F29" s="10"/>
       <c r="G29" s="13"/>
       <c r="H29" s="10"/>
       <c r="I29" s="81"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>341</v>
-      </c>
-      <c r="E30" s="31" t="s">
-        <v>20</v>
-      </c>
+      <c r="A30" s="36"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="31"/>
       <c r="F30" s="10"/>
       <c r="G30" s="13"/>
       <c r="H30" s="10"/>
       <c r="I30" s="81"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>429</v>
-      </c>
-      <c r="E31" s="31" t="s">
-        <v>430</v>
-      </c>
+      <c r="A31" s="36"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="31"/>
       <c r="F31" s="10"/>
       <c r="G31" s="13"/>
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>431</v>
-      </c>
-      <c r="E32" s="31" t="s">
-        <v>432</v>
-      </c>
+      <c r="A32" s="36"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="31"/>
       <c r="F32" s="10"/>
       <c r="G32" s="13"/>
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="61" t="s">
-        <v>93</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>433</v>
-      </c>
-      <c r="E33" s="31" t="s">
-        <v>434</v>
-      </c>
+      <c r="A33" s="61"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="31"/>
       <c r="F33" s="10"/>
       <c r="G33" s="13"/>
       <c r="H33" s="67"/>
       <c r="I33" s="67"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="66" t="s">
-        <v>435</v>
-      </c>
-      <c r="B34" s="86" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="86" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="86" t="s">
-        <v>436</v>
-      </c>
-      <c r="E34" s="87" t="s">
-        <v>437</v>
-      </c>
+      <c r="A34" s="66"/>
+      <c r="B34" s="86"/>
+      <c r="C34" s="86"/>
+      <c r="D34" s="86"/>
+      <c r="E34" s="87"/>
       <c r="F34" s="57"/>
       <c r="G34" s="86"/>
       <c r="H34" s="54"/>
       <c r="I34" s="88"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="36" t="s">
-        <v>435</v>
-      </c>
-      <c r="B35" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="39" t="s">
-        <v>148</v>
-      </c>
-      <c r="E35" s="24" t="s">
-        <v>438</v>
-      </c>
+      <c r="A35" s="36"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="24"/>
       <c r="F35" s="34"/>
       <c r="G35" s="39"/>
       <c r="H35" s="67"/>
       <c r="I35" s="89"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="36" t="s">
-        <v>435</v>
-      </c>
-      <c r="B36" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="78" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="41" t="s">
-        <v>439</v>
-      </c>
-      <c r="E36" s="41" t="s">
-        <v>440</v>
-      </c>
+      <c r="A36" s="36"/>
+      <c r="B36" s="78"/>
+      <c r="C36" s="78"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
       <c r="F36" s="64"/>
       <c r="G36" s="78"/>
       <c r="H36" s="64"/>
       <c r="I36" s="83"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="43" t="s">
-        <v>362</v>
-      </c>
-      <c r="B37" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="D37" s="39" t="s">
-        <v>441</v>
-      </c>
-      <c r="E37" s="24" t="s">
-        <v>442</v>
-      </c>
+      <c r="A37" s="43"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="24"/>
       <c r="F37" s="34"/>
       <c r="G37" s="39"/>
       <c r="H37" s="67"/>
       <c r="I37" s="89"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="36" t="s">
-        <v>362</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>443</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>444</v>
-      </c>
+      <c r="A38" s="36"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
       <c r="F38" s="10"/>
       <c r="G38" s="13"/>
       <c r="H38" s="67"/>
       <c r="I38" s="89"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="36" t="s">
-        <v>362</v>
-      </c>
-      <c r="B39" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="C39" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="D39" s="41" t="s">
-        <v>445</v>
-      </c>
-      <c r="E39" s="41" t="s">
-        <v>446</v>
-      </c>
+      <c r="A39" s="36"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="41"/>
       <c r="F39" s="42"/>
       <c r="G39" s="41"/>
       <c r="H39" s="64"/>
       <c r="I39" s="83"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="43" t="s">
-        <v>367</v>
-      </c>
-      <c r="B40" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="D40" s="39" t="s">
-        <v>447</v>
-      </c>
-      <c r="E40" s="24" t="s">
-        <v>448</v>
-      </c>
+      <c r="A40" s="43"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="24"/>
       <c r="F40" s="34"/>
       <c r="G40" s="39"/>
       <c r="H40" s="57"/>
       <c r="I40" s="80"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="36" t="s">
-        <v>367</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>449</v>
-      </c>
-      <c r="E41" s="31" t="s">
-        <v>450</v>
-      </c>
+      <c r="A41" s="36"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="31"/>
       <c r="F41" s="10"/>
       <c r="G41" s="13"/>
       <c r="H41" s="34"/>
       <c r="I41" s="90"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="36" t="s">
-        <v>367</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>451</v>
-      </c>
-      <c r="E42" s="31" t="s">
-        <v>452</v>
-      </c>
+      <c r="A42" s="36"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="31"/>
       <c r="F42" s="10"/>
       <c r="G42" s="13"/>
       <c r="H42" s="34"/>
       <c r="I42" s="90"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="36" t="s">
-        <v>367</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>453</v>
-      </c>
-      <c r="E43" s="31" t="s">
-        <v>454</v>
-      </c>
+      <c r="A43" s="36"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="31"/>
       <c r="F43" s="10"/>
       <c r="G43" s="13"/>
       <c r="H43" s="34"/>
       <c r="I43" s="90"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="36" t="s">
-        <v>367</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>455</v>
-      </c>
-      <c r="E44" s="31" t="s">
-        <v>456</v>
-      </c>
+      <c r="A44" s="36"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="31"/>
       <c r="F44" s="10"/>
       <c r="G44" s="13"/>
       <c r="H44" s="34"/>
       <c r="I44" s="90"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="36" t="s">
-        <v>367</v>
-      </c>
-      <c r="B45" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="D45" s="41" t="s">
-        <v>457</v>
-      </c>
-      <c r="E45" s="41" t="s">
-        <v>458</v>
-      </c>
+      <c r="A45" s="36"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="41"/>
       <c r="F45" s="42"/>
       <c r="G45" s="41"/>
       <c r="H45" s="64"/>
       <c r="I45" s="83"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="43" t="s">
-        <v>167</v>
-      </c>
-      <c r="B46" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="C46" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="D46" s="39" t="s">
-        <v>183</v>
-      </c>
-      <c r="E46" s="24" t="s">
-        <v>184</v>
-      </c>
+      <c r="A46" s="43"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="24"/>
       <c r="F46" s="34"/>
       <c r="G46" s="39"/>
       <c r="H46" s="57"/>
       <c r="I46" s="80"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="B47" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="C47" s="39" t="s">
-        <v>169</v>
-      </c>
-      <c r="D47" s="39" t="s">
-        <v>187</v>
-      </c>
-      <c r="E47" s="24" t="s">
-        <v>188</v>
-      </c>
+      <c r="A47" s="36"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="24"/>
       <c r="F47" s="34"/>
       <c r="G47" s="39"/>
       <c r="H47" s="34"/>
       <c r="I47" s="90"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="B48" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="C48" s="39" t="s">
-        <v>173</v>
-      </c>
-      <c r="D48" s="39" t="s">
-        <v>191</v>
-      </c>
-      <c r="E48" s="24" t="s">
-        <v>192</v>
-      </c>
+      <c r="A48" s="36"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="24"/>
       <c r="F48" s="34"/>
       <c r="G48" s="39"/>
       <c r="H48" s="34"/>
       <c r="I48" s="34"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="B49" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="C49" s="39" t="s">
-        <v>177</v>
-      </c>
-      <c r="D49" s="39" t="s">
-        <v>195</v>
-      </c>
-      <c r="E49" s="24" t="s">
-        <v>196</v>
-      </c>
+      <c r="A49" s="36"/>
+      <c r="B49" s="39"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="24"/>
       <c r="F49" s="34"/>
       <c r="G49" s="39"/>
       <c r="H49" s="34"/>
       <c r="I49" s="90"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="B50" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="C50" s="39" t="s">
-        <v>205</v>
-      </c>
-      <c r="D50" s="39" t="s">
-        <v>208</v>
-      </c>
-      <c r="E50" s="24" t="s">
-        <v>209</v>
-      </c>
+      <c r="A50" s="36"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="24"/>
       <c r="F50" s="34"/>
       <c r="G50" s="39"/>
       <c r="H50" s="34"/>
       <c r="I50" s="90"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="B51" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="D51" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="E51" s="31" t="s">
-        <v>221</v>
-      </c>
+      <c r="A51" s="36"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="31"/>
       <c r="F51" s="10"/>
       <c r="G51" s="13"/>
       <c r="H51" s="34"/>
       <c r="I51" s="90"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="B52" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C52" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="D52" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="E52" s="31" t="s">
-        <v>223</v>
-      </c>
+      <c r="A52" s="36"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="31"/>
       <c r="F52" s="10"/>
       <c r="G52" s="13"/>
       <c r="H52" s="34"/>
       <c r="I52" s="90"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="B53" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="D53" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="E53" s="31" t="s">
-        <v>225</v>
-      </c>
+      <c r="A53" s="36"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="31"/>
       <c r="F53" s="10"/>
       <c r="G53" s="13"/>
       <c r="H53" s="34"/>
       <c r="I53" s="90"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="B54" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="D54" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="E54" s="31" t="s">
-        <v>236</v>
-      </c>
+      <c r="A54" s="36"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="31"/>
       <c r="F54" s="10"/>
       <c r="G54" s="13"/>
       <c r="H54" s="34"/>
       <c r="I54" s="90"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="B55" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="D55" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="E55" s="31" t="s">
-        <v>238</v>
-      </c>
+      <c r="A55" s="36"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="31"/>
       <c r="F55" s="10"/>
       <c r="G55" s="13"/>
       <c r="H55" s="34"/>
       <c r="I55" s="90"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="B56" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C56" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="D56" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="E56" s="31" t="s">
-        <v>240</v>
-      </c>
+      <c r="A56" s="36"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="31"/>
       <c r="F56" s="10"/>
       <c r="G56" s="13"/>
       <c r="H56" s="34"/>
       <c r="I56" s="90"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="B57" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C57" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="D57" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="E57" s="31" t="s">
-        <v>253</v>
-      </c>
+      <c r="A57" s="36"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="31"/>
       <c r="F57" s="10"/>
       <c r="G57" s="13"/>
       <c r="H57" s="34"/>
       <c r="I57" s="90"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="B58" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C58" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="D58" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="E58" s="31" t="s">
-        <v>255</v>
-      </c>
+      <c r="A58" s="36"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="31"/>
       <c r="F58" s="10"/>
       <c r="G58" s="13"/>
       <c r="H58" s="34"/>
       <c r="I58" s="90"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="B59" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C59" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="D59" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="E59" s="31" t="s">
-        <v>257</v>
-      </c>
+      <c r="A59" s="36"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="31"/>
       <c r="F59" s="10"/>
       <c r="G59" s="13"/>
       <c r="H59" s="54"/>
       <c r="I59" s="54"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="B60" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="D60" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="E60" s="31" t="s">
-        <v>264</v>
-      </c>
+      <c r="A60" s="36"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="31"/>
       <c r="F60" s="10"/>
       <c r="G60" s="13"/>
       <c r="H60" s="10"/>
       <c r="I60" s="10"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="B61" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C61" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="D61" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="E61" s="31" t="s">
-        <v>270</v>
-      </c>
+      <c r="A61" s="36"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="31"/>
       <c r="F61" s="10"/>
       <c r="G61" s="13"/>
       <c r="H61" s="10"/>
       <c r="I61" s="10"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="B62" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C62" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="D62" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="E62" s="31" t="s">
-        <v>274</v>
-      </c>
+      <c r="A62" s="36"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="31"/>
       <c r="F62" s="10"/>
       <c r="G62" s="13"/>
       <c r="H62" s="34"/>
       <c r="I62" s="34"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="B63" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C63" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="D63" s="13" t="s">
-        <v>279</v>
-      </c>
-      <c r="E63" s="31" t="s">
-        <v>280</v>
-      </c>
+      <c r="A63" s="36"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="31"/>
       <c r="F63" s="10"/>
       <c r="G63" s="13"/>
       <c r="H63" s="67"/>
       <c r="I63" s="67"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="B64" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C64" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="D64" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="E64" s="31" t="s">
-        <v>286</v>
-      </c>
+      <c r="A64" s="36"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="31"/>
       <c r="F64" s="10"/>
       <c r="G64" s="13"/>
       <c r="H64" s="10"/>
       <c r="I64" s="10"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="B65" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C65" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="D65" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="E65" s="31" t="s">
-        <v>292</v>
-      </c>
+      <c r="A65" s="36"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="31"/>
       <c r="F65" s="10"/>
       <c r="G65" s="13"/>
       <c r="H65" s="10"/>
       <c r="I65" s="10"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="B66" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C66" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="D66" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="E66" s="31" t="s">
-        <v>296</v>
-      </c>
+      <c r="A66" s="36"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="31"/>
       <c r="F66" s="10"/>
       <c r="G66" s="13"/>
       <c r="H66" s="10"/>
       <c r="I66" s="10"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="B67" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C67" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="D67" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="E67" s="31" t="s">
-        <v>300</v>
-      </c>
+      <c r="A67" s="36"/>
+      <c r="B67" s="13"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="31"/>
       <c r="F67" s="10"/>
       <c r="G67" s="13"/>
       <c r="H67" s="10"/>
       <c r="I67" s="10"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="B68" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C68" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="D68" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="E68" s="31" t="s">
-        <v>304</v>
-      </c>
+      <c r="A68" s="36"/>
+      <c r="B68" s="13"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="31"/>
       <c r="F68" s="10"/>
       <c r="G68" s="13"/>
       <c r="H68" s="10"/>
       <c r="I68" s="10"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="B69" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C69" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="D69" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="E69" s="31" t="s">
-        <v>312</v>
-      </c>
+      <c r="A69" s="36"/>
+      <c r="B69" s="13"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="31"/>
       <c r="F69" s="10"/>
       <c r="G69" s="13"/>
       <c r="H69" s="34"/>
       <c r="I69" s="34"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="B70" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C70" s="13" t="s">
-        <v>313</v>
-      </c>
-      <c r="D70" s="13" t="s">
-        <v>316</v>
-      </c>
-      <c r="E70" s="31" t="s">
-        <v>317</v>
-      </c>
+      <c r="A70" s="36"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="31"/>
       <c r="F70" s="10"/>
       <c r="G70" s="13"/>
       <c r="H70" s="10"/>
       <c r="I70" s="10"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="B71" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C71" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="D71" s="13" t="s">
-        <v>320</v>
-      </c>
-      <c r="E71" s="31" t="s">
-        <v>321</v>
-      </c>
+      <c r="A71" s="36"/>
+      <c r="B71" s="13"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="31"/>
       <c r="F71" s="10"/>
       <c r="G71" s="13"/>
       <c r="H71" s="34"/>
       <c r="I71" s="34"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="B72" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C72" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="D72" s="13" t="s">
-        <v>328</v>
-      </c>
-      <c r="E72" s="31" t="s">
-        <v>329</v>
-      </c>
+      <c r="A72" s="36"/>
+      <c r="B72" s="13"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="31"/>
       <c r="F72" s="10"/>
       <c r="G72" s="13"/>
       <c r="H72" s="34"/>
@@ -10654,7 +8614,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFCCFF"/>
@@ -10662,7 +8622,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="I9" sqref="A2:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10700,174 +8660,88 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
-        <v>401</v>
-      </c>
-      <c r="B2" s="49" t="s">
-        <v>180</v>
-      </c>
-      <c r="C2" s="49" t="s">
-        <v>169</v>
-      </c>
-      <c r="D2" s="49" t="s">
-        <v>459</v>
-      </c>
-      <c r="E2" s="50" t="s">
-        <v>460</v>
-      </c>
+      <c r="A2" s="66"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="50"/>
       <c r="F2" s="10"/>
       <c r="G2" s="49"/>
-      <c r="H2" s="10">
-        <v>100</v>
-      </c>
+      <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
-        <v>401</v>
-      </c>
-      <c r="B3" s="49" t="s">
-        <v>180</v>
-      </c>
-      <c r="C3" s="49" t="s">
-        <v>173</v>
-      </c>
-      <c r="D3" s="49" t="s">
-        <v>461</v>
-      </c>
-      <c r="E3" s="50" t="s">
-        <v>462</v>
-      </c>
+      <c r="A3" s="36"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="50"/>
       <c r="F3" s="10"/>
       <c r="G3" s="49"/>
-      <c r="H3" s="10">
-        <v>100</v>
-      </c>
+      <c r="H3" s="10"/>
       <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="61" t="s">
-        <v>401</v>
-      </c>
-      <c r="B4" s="91" t="s">
-        <v>180</v>
-      </c>
-      <c r="C4" s="91" t="s">
-        <v>177</v>
-      </c>
-      <c r="D4" s="91" t="s">
-        <v>463</v>
-      </c>
-      <c r="E4" s="92" t="s">
-        <v>464</v>
-      </c>
+      <c r="A4" s="61"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="92"/>
       <c r="F4" s="42"/>
       <c r="G4" s="91"/>
-      <c r="H4" s="42">
-        <v>100</v>
-      </c>
+      <c r="H4" s="42"/>
       <c r="I4" s="42"/>
     </row>
     <row r="5" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="66" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" s="93" t="s">
-        <v>180</v>
-      </c>
-      <c r="C5" s="93" t="s">
-        <v>465</v>
-      </c>
-      <c r="D5" s="93" t="s">
-        <v>466</v>
-      </c>
-      <c r="E5" s="93" t="s">
-        <v>467</v>
-      </c>
+      <c r="A5" s="66"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
       <c r="F5" s="94"/>
       <c r="G5" s="93"/>
       <c r="H5" s="94"/>
       <c r="I5" s="94"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
-        <v>167</v>
-      </c>
-      <c r="B6" s="51" t="s">
-        <v>180</v>
-      </c>
-      <c r="C6" s="51" t="s">
-        <v>115</v>
-      </c>
-      <c r="D6" s="51" t="s">
-        <v>181</v>
-      </c>
-      <c r="E6" s="52" t="s">
-        <v>182</v>
-      </c>
+      <c r="A6" s="43"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="52"/>
       <c r="F6" s="34"/>
       <c r="G6" s="51"/>
       <c r="H6" s="34"/>
       <c r="I6" s="34"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="B7" s="49" t="s">
-        <v>180</v>
-      </c>
-      <c r="C7" s="51" t="s">
-        <v>169</v>
-      </c>
-      <c r="D7" s="49" t="s">
-        <v>185</v>
-      </c>
-      <c r="E7" s="49" t="s">
-        <v>186</v>
-      </c>
+      <c r="A7" s="36"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
       <c r="F7" s="34"/>
       <c r="G7" s="51"/>
       <c r="H7" s="34"/>
       <c r="I7" s="34"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="B8" s="51" t="s">
-        <v>180</v>
-      </c>
-      <c r="C8" s="51" t="s">
-        <v>173</v>
-      </c>
-      <c r="D8" s="51" t="s">
-        <v>189</v>
-      </c>
-      <c r="E8" s="52" t="s">
-        <v>190</v>
-      </c>
+      <c r="A8" s="36"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="52"/>
       <c r="F8" s="34"/>
       <c r="G8" s="51"/>
       <c r="H8" s="34"/>
       <c r="I8" s="34"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="B9" s="51" t="s">
-        <v>180</v>
-      </c>
-      <c r="C9" s="51" t="s">
-        <v>177</v>
-      </c>
-      <c r="D9" s="51" t="s">
-        <v>193</v>
-      </c>
-      <c r="E9" s="52" t="s">
-        <v>194</v>
-      </c>
+      <c r="A9" s="36"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="52"/>
       <c r="F9" s="34"/>
       <c r="G9" s="51"/>
       <c r="H9" s="34"/>
@@ -10924,7 +8798,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFCCC1DA"/>
@@ -10932,7 +8806,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10972,79 +8846,37 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
-        <v>167</v>
-      </c>
-      <c r="B2" s="45" t="s">
-        <v>168</v>
-      </c>
-      <c r="C2" s="45" t="s">
-        <v>169</v>
-      </c>
-      <c r="D2" s="45" t="s">
-        <v>170</v>
-      </c>
-      <c r="E2" s="48" t="s">
-        <v>171</v>
-      </c>
+      <c r="A2" s="66"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="48"/>
       <c r="F2" s="34"/>
       <c r="G2" s="45"/>
-      <c r="H2" s="34">
-        <v>80</v>
-      </c>
-      <c r="I2" s="34" t="s">
-        <v>172</v>
-      </c>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="B3" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="C3" s="45" t="s">
-        <v>173</v>
-      </c>
-      <c r="D3" s="45" t="s">
-        <v>174</v>
-      </c>
-      <c r="E3" s="48" t="s">
-        <v>175</v>
-      </c>
+      <c r="A3" s="36"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="48"/>
       <c r="F3" s="34"/>
       <c r="G3" s="45"/>
-      <c r="H3" s="34">
-        <v>80</v>
-      </c>
-      <c r="I3" s="34" t="s">
-        <v>172</v>
-      </c>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="B4" s="45" t="s">
-        <v>176</v>
-      </c>
-      <c r="C4" s="45" t="s">
-        <v>177</v>
-      </c>
-      <c r="D4" s="45" t="s">
-        <v>178</v>
-      </c>
-      <c r="E4" s="48" t="s">
-        <v>179</v>
-      </c>
+      <c r="A4" s="36"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="48"/>
       <c r="F4" s="34"/>
       <c r="G4" s="45"/>
-      <c r="H4" s="34">
-        <v>80</v>
-      </c>
-      <c r="I4" s="34" t="s">
-        <v>172</v>
-      </c>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="H2:H4">

--- a/GameDesign/Planning_Dust'n'Groove.xlsx
+++ b/GameDesign/Planning_Dust'n'Groove.xlsx
@@ -20,11 +20,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1">Général!$A$1:$I$200</definedName>
   </definedNames>
   <calcPr calcId="145621" iterateDelta="1E-4"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="387">
   <si>
     <t>Feature</t>
   </si>
@@ -1179,6 +1180,12 @@
   </si>
   <si>
     <t>Tronc du poteau décoratif</t>
+  </si>
+  <si>
+    <t>code_DecorativeTiles</t>
+  </si>
+  <si>
+    <t>Tiles décoratives</t>
   </si>
 </sst>
 </file>
@@ -2239,8 +2246,8 @@
   <dimension ref="A1:AMJ200"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I99" sqref="I99"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F119" sqref="F119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4656,10 +4663,18 @@
     </row>
     <row r="119" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="101"/>
-      <c r="B119" s="13"/>
-      <c r="C119" s="13"/>
-      <c r="D119" s="13"/>
-      <c r="E119" s="13"/>
+      <c r="B119" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C119" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="D119" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="E119" s="13" t="s">
+        <v>386</v>
+      </c>
       <c r="F119" s="10"/>
       <c r="G119" s="13"/>
       <c r="H119" s="10"/>

--- a/GameDesign/Planning_Dust'n'Groove.xlsx
+++ b/GameDesign/Planning_Dust'n'Groove.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="389">
   <si>
     <t>Feature</t>
   </si>
@@ -1186,6 +1186,12 @@
   </si>
   <si>
     <t>Tiles décoratives</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>Ajout Trello</t>
   </si>
 </sst>
 </file>
@@ -1708,7 +1714,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1856,6 +1862,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2246,8 +2256,8 @@
   <dimension ref="A1:AMJ200"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F119" sqref="F119"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J88" sqref="J88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2261,7 +2271,8 @@
     <col min="7" max="7" width="15.28515625"/>
     <col min="8" max="8" width="15"/>
     <col min="9" max="9" width="58.5703125"/>
-    <col min="10" max="1025" width="11.42578125"/>
+    <col min="10" max="10" width="13.7109375" customWidth="1"/>
+    <col min="11" max="1025" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1024" ht="18.75" x14ac:dyDescent="0.25">
@@ -2283,6 +2294,9 @@
       <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="J1" s="110" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="2" spans="1:1024" s="6" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -2306,6 +2320,9 @@
       <c r="I2" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="J2" s="6" t="s">
+        <v>387</v>
+      </c>
       <c r="AMJ2" s="7"/>
     </row>
     <row r="3" spans="1:1024" s="11" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2328,6 +2345,9 @@
       <c r="G3" s="9"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
+      <c r="J3" s="11" t="s">
+        <v>387</v>
+      </c>
       <c r="AMJ3" s="12"/>
     </row>
     <row r="4" spans="1:1024" s="11" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2350,6 +2370,9 @@
       <c r="G4" s="13"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
+      <c r="J4" s="11" t="s">
+        <v>387</v>
+      </c>
       <c r="AMJ4" s="12"/>
     </row>
     <row r="5" spans="1:1024" s="11" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2372,6 +2395,9 @@
       <c r="G5" s="13"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
+      <c r="J5" s="109" t="s">
+        <v>387</v>
+      </c>
       <c r="AMJ5" s="12"/>
     </row>
     <row r="6" spans="1:1024" s="11" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2394,6 +2420,9 @@
       <c r="G6" s="13"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
+      <c r="J6" s="109" t="s">
+        <v>387</v>
+      </c>
       <c r="AMJ6" s="12"/>
     </row>
     <row r="7" spans="1:1024" s="11" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2416,6 +2445,9 @@
       <c r="G7" s="13"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
+      <c r="J7" s="109" t="s">
+        <v>387</v>
+      </c>
       <c r="AMJ7" s="12"/>
     </row>
     <row r="8" spans="1:1024" s="11" customFormat="1" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2438,6 +2470,9 @@
       <c r="G8" s="14"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
+      <c r="J8" s="109" t="s">
+        <v>387</v>
+      </c>
       <c r="AMJ8" s="12"/>
     </row>
     <row r="9" spans="1:1024" s="6" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2462,6 +2497,9 @@
       <c r="I9" s="20" t="s">
         <v>23</v>
       </c>
+      <c r="J9" s="6" t="s">
+        <v>387</v>
+      </c>
       <c r="AMJ9" s="7"/>
     </row>
     <row r="10" spans="1:1024" s="11" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2486,6 +2524,9 @@
       <c r="I10" s="21" t="s">
         <v>23</v>
       </c>
+      <c r="J10" s="109" t="s">
+        <v>387</v>
+      </c>
       <c r="AMJ10" s="12"/>
     </row>
     <row r="11" spans="1:1024" s="11" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2510,6 +2551,9 @@
       <c r="I11" s="22" t="s">
         <v>26</v>
       </c>
+      <c r="J11" s="109" t="s">
+        <v>387</v>
+      </c>
       <c r="AMJ11" s="12"/>
     </row>
     <row r="12" spans="1:1024" s="11" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2534,6 +2578,9 @@
       <c r="I12" s="10" t="s">
         <v>29</v>
       </c>
+      <c r="J12" s="109" t="s">
+        <v>387</v>
+      </c>
       <c r="AMJ12" s="12"/>
     </row>
     <row r="13" spans="1:1024" s="11" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2558,6 +2605,9 @@
       <c r="I13" s="10" t="s">
         <v>32</v>
       </c>
+      <c r="J13" s="109" t="s">
+        <v>387</v>
+      </c>
       <c r="AMJ13" s="12"/>
     </row>
     <row r="14" spans="1:1024" s="11" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2580,6 +2630,9 @@
       <c r="G14" s="13"/>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
+      <c r="J14" s="109" t="s">
+        <v>387</v>
+      </c>
       <c r="AMJ14" s="12"/>
     </row>
     <row r="15" spans="1:1024" s="11" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2604,6 +2657,9 @@
       <c r="I15" s="10" t="s">
         <v>37</v>
       </c>
+      <c r="J15" s="109" t="s">
+        <v>387</v>
+      </c>
       <c r="AMJ15" s="12"/>
     </row>
     <row r="16" spans="1:1024" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -2628,6 +2684,9 @@
       <c r="I16" s="10" t="s">
         <v>40</v>
       </c>
+      <c r="J16" s="109" t="s">
+        <v>387</v>
+      </c>
       <c r="AMJ16" s="12"/>
     </row>
     <row r="17" spans="1:1024" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -2650,6 +2709,9 @@
       <c r="G17" s="13"/>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
+      <c r="J17" s="109" t="s">
+        <v>387</v>
+      </c>
       <c r="AMJ17" s="12"/>
     </row>
     <row r="18" spans="1:1024" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -2674,6 +2736,9 @@
       <c r="I18" s="10" t="s">
         <v>40</v>
       </c>
+      <c r="J18" s="109" t="s">
+        <v>387</v>
+      </c>
       <c r="AMJ18" s="12"/>
     </row>
     <row r="19" spans="1:1024" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -2696,6 +2761,9 @@
       <c r="G19" s="13"/>
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
+      <c r="J19" s="109" t="s">
+        <v>387</v>
+      </c>
       <c r="AMJ19" s="12"/>
     </row>
     <row r="20" spans="1:1024" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -2718,6 +2786,9 @@
       <c r="I20" s="10" t="s">
         <v>49</v>
       </c>
+      <c r="J20" s="109" t="s">
+        <v>387</v>
+      </c>
       <c r="AMJ20" s="12"/>
     </row>
     <row r="21" spans="1:1024" s="11" customFormat="1" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2740,6 +2811,9 @@
       <c r="G21" s="14"/>
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
+      <c r="J21" s="109" t="s">
+        <v>387</v>
+      </c>
       <c r="AMJ21" s="12"/>
     </row>
     <row r="22" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2762,6 +2836,9 @@
       <c r="G22" s="4"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
+      <c r="J22" s="6" t="s">
+        <v>387</v>
+      </c>
       <c r="AMJ22" s="7"/>
     </row>
     <row r="23" spans="1:1024" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -2786,6 +2863,9 @@
       <c r="I23" s="21" t="s">
         <v>23</v>
       </c>
+      <c r="J23" s="109" t="s">
+        <v>387</v>
+      </c>
       <c r="AMJ23" s="12"/>
     </row>
     <row r="24" spans="1:1024" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -2810,6 +2890,9 @@
       <c r="I24" s="21" t="s">
         <v>23</v>
       </c>
+      <c r="J24" s="109" t="s">
+        <v>387</v>
+      </c>
       <c r="AMJ24" s="12"/>
     </row>
     <row r="25" spans="1:1024" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -2832,6 +2915,9 @@
       <c r="G25" s="13"/>
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
+      <c r="J25" s="109" t="s">
+        <v>387</v>
+      </c>
       <c r="AMJ25" s="12"/>
     </row>
     <row r="26" spans="1:1024" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -2854,6 +2940,9 @@
       <c r="G26" s="13"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
+      <c r="J26" s="109" t="s">
+        <v>387</v>
+      </c>
       <c r="AMJ26" s="12"/>
     </row>
     <row r="27" spans="1:1024" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -2876,6 +2965,9 @@
       <c r="G27" s="13"/>
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
+      <c r="J27" s="109" t="s">
+        <v>387</v>
+      </c>
       <c r="AMJ27" s="12"/>
     </row>
     <row r="28" spans="1:1024" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2898,6 +2990,9 @@
       <c r="G28" s="13"/>
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
+      <c r="J28" s="109" t="s">
+        <v>387</v>
+      </c>
       <c r="AMJ28" s="12"/>
     </row>
     <row r="29" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2922,6 +3017,9 @@
       <c r="I29" s="20" t="s">
         <v>23</v>
       </c>
+      <c r="J29" s="6" t="s">
+        <v>387</v>
+      </c>
       <c r="AMJ29" s="7"/>
     </row>
     <row r="30" spans="1:1024" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -2946,6 +3044,9 @@
       <c r="I30" s="21" t="s">
         <v>23</v>
       </c>
+      <c r="J30" s="109" t="s">
+        <v>387</v>
+      </c>
       <c r="AMJ30" s="12"/>
     </row>
     <row r="31" spans="1:1024" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -2968,6 +3069,9 @@
       <c r="G31" s="13"/>
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
+      <c r="J31" s="109" t="s">
+        <v>387</v>
+      </c>
       <c r="AMJ31" s="12"/>
     </row>
     <row r="32" spans="1:1024" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -2990,6 +3094,9 @@
       <c r="G32" s="13"/>
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
+      <c r="J32" s="109" t="s">
+        <v>387</v>
+      </c>
       <c r="AMJ32" s="12"/>
     </row>
     <row r="33" spans="1:1024" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3012,6 +3119,9 @@
       <c r="G33" s="104"/>
       <c r="H33" s="17"/>
       <c r="I33" s="17"/>
+      <c r="J33" s="18" t="s">
+        <v>387</v>
+      </c>
       <c r="AMJ33" s="19"/>
     </row>
     <row r="34" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3036,6 +3146,9 @@
       <c r="I34" s="27" t="s">
         <v>63</v>
       </c>
+      <c r="J34" s="6" t="s">
+        <v>387</v>
+      </c>
       <c r="AMJ34" s="7"/>
     </row>
     <row r="35" spans="1:1024" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -3060,6 +3173,9 @@
       <c r="I35" s="21" t="s">
         <v>23</v>
       </c>
+      <c r="J35" s="109" t="s">
+        <v>387</v>
+      </c>
       <c r="AMJ35" s="12"/>
     </row>
     <row r="36" spans="1:1024" s="11" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -3084,6 +3200,9 @@
       <c r="I36" s="21" t="s">
         <v>23</v>
       </c>
+      <c r="J36" s="109" t="s">
+        <v>387</v>
+      </c>
       <c r="AMJ36" s="12"/>
     </row>
     <row r="37" spans="1:1024" s="11" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -3108,6 +3227,9 @@
       <c r="I37" s="21" t="s">
         <v>23</v>
       </c>
+      <c r="J37" s="109" t="s">
+        <v>387</v>
+      </c>
       <c r="AMJ37" s="12"/>
     </row>
     <row r="38" spans="1:1024" s="11" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -3132,6 +3254,9 @@
       <c r="I38" s="21" t="s">
         <v>23</v>
       </c>
+      <c r="J38" s="109" t="s">
+        <v>387</v>
+      </c>
       <c r="AMJ38" s="12"/>
     </row>
     <row r="39" spans="1:1024" s="11" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -3154,6 +3279,9 @@
       <c r="G39" s="13"/>
       <c r="H39" s="10"/>
       <c r="I39" s="10"/>
+      <c r="J39" s="109" t="s">
+        <v>387</v>
+      </c>
       <c r="AMJ39" s="12"/>
     </row>
     <row r="40" spans="1:1024" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -3178,6 +3306,9 @@
       <c r="I40" s="22" t="s">
         <v>68</v>
       </c>
+      <c r="J40" s="109" t="s">
+        <v>387</v>
+      </c>
       <c r="AMJ40" s="12"/>
     </row>
     <row r="41" spans="1:1024" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -3202,6 +3333,9 @@
       <c r="I41" s="22" t="s">
         <v>71</v>
       </c>
+      <c r="J41" s="109" t="s">
+        <v>387</v>
+      </c>
       <c r="AMJ41" s="12"/>
     </row>
     <row r="42" spans="1:1024" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3224,6 +3358,9 @@
       <c r="G42" s="13"/>
       <c r="H42" s="10"/>
       <c r="I42" s="25"/>
+      <c r="J42" s="109" t="s">
+        <v>387</v>
+      </c>
       <c r="AMJ42" s="12"/>
     </row>
     <row r="43" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3246,6 +3383,9 @@
       <c r="G43" s="4"/>
       <c r="H43" s="5"/>
       <c r="I43" s="27"/>
+      <c r="J43" s="6" t="s">
+        <v>387</v>
+      </c>
       <c r="AMJ43" s="7"/>
     </row>
     <row r="44" spans="1:1024" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -3266,6 +3406,9 @@
       <c r="G44" s="9"/>
       <c r="H44" s="10"/>
       <c r="I44" s="22"/>
+      <c r="J44" s="109" t="s">
+        <v>387</v>
+      </c>
       <c r="AMJ44" s="12"/>
     </row>
     <row r="45" spans="1:1024" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -3286,6 +3429,9 @@
       <c r="G45" s="9"/>
       <c r="H45" s="10"/>
       <c r="I45" s="22"/>
+      <c r="J45" s="109" t="s">
+        <v>387</v>
+      </c>
       <c r="AMJ45" s="12"/>
     </row>
     <row r="46" spans="1:1024" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -3306,6 +3452,9 @@
       <c r="G46" s="13"/>
       <c r="H46" s="10"/>
       <c r="I46" s="10"/>
+      <c r="J46" s="109" t="s">
+        <v>387</v>
+      </c>
       <c r="AMJ46" s="12"/>
     </row>
     <row r="47" spans="1:1024" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3326,6 +3475,9 @@
       <c r="G47" s="13"/>
       <c r="H47" s="10"/>
       <c r="I47" s="22"/>
+      <c r="J47" s="109" t="s">
+        <v>387</v>
+      </c>
       <c r="AMJ47" s="12"/>
     </row>
     <row r="48" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3350,6 +3502,9 @@
       <c r="I48" s="27" t="s">
         <v>88</v>
       </c>
+      <c r="J48" s="6" t="s">
+        <v>387</v>
+      </c>
       <c r="AMJ48" s="7"/>
     </row>
     <row r="49" spans="1:1024" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -3372,6 +3527,9 @@
       <c r="I49" s="22" t="s">
         <v>88</v>
       </c>
+      <c r="J49" s="109" t="s">
+        <v>387</v>
+      </c>
       <c r="AMJ49" s="12"/>
     </row>
     <row r="50" spans="1:1024" s="11" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -3394,6 +3552,9 @@
       <c r="I50" s="22" t="s">
         <v>88</v>
       </c>
+      <c r="J50" s="109" t="s">
+        <v>387</v>
+      </c>
       <c r="AMJ50" s="12"/>
     </row>
     <row r="51" spans="1:1024" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -3414,6 +3575,9 @@
       <c r="G51" s="9"/>
       <c r="H51" s="10"/>
       <c r="I51" s="22"/>
+      <c r="J51" s="109" t="s">
+        <v>387</v>
+      </c>
       <c r="AMJ51" s="12"/>
     </row>
     <row r="52" spans="1:1024" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -3434,6 +3598,9 @@
       <c r="G52" s="9"/>
       <c r="H52" s="10"/>
       <c r="I52" s="22"/>
+      <c r="J52" s="109" t="s">
+        <v>387</v>
+      </c>
       <c r="AMJ52" s="12"/>
     </row>
     <row r="53" spans="1:1024" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -3456,6 +3623,9 @@
       <c r="I53" s="21" t="s">
         <v>23</v>
       </c>
+      <c r="J53" s="109" t="s">
+        <v>387</v>
+      </c>
       <c r="AMJ53" s="12"/>
     </row>
     <row r="54" spans="1:1024" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -3538,6 +3708,9 @@
       <c r="I57" s="21" t="s">
         <v>23</v>
       </c>
+      <c r="J57" s="11" t="s">
+        <v>387</v>
+      </c>
       <c r="AMJ57" s="12"/>
     </row>
     <row r="58" spans="1:1024" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -3680,8 +3853,11 @@
       <c r="G64" s="106"/>
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
-    </row>
-    <row r="65" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J64" s="6" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="101"/>
       <c r="B65" s="103" t="s">
         <v>113</v>
@@ -3699,8 +3875,11 @@
       <c r="G65" s="35"/>
       <c r="H65" s="10"/>
       <c r="I65" s="10"/>
-    </row>
-    <row r="66" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J65" s="11" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="101"/>
       <c r="B66" s="14" t="s">
         <v>21</v>
@@ -3719,7 +3898,7 @@
       <c r="H66" s="10"/>
       <c r="I66" s="10"/>
     </row>
-    <row r="67" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="101"/>
       <c r="B67" s="103" t="s">
         <v>113</v>
@@ -3737,8 +3916,11 @@
       <c r="G67" s="35"/>
       <c r="H67" s="10"/>
       <c r="I67" s="10"/>
-    </row>
-    <row r="68" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J67" s="11" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="101"/>
       <c r="B68" s="14" t="s">
         <v>21</v>
@@ -3757,7 +3939,7 @@
       <c r="H68" s="10"/>
       <c r="I68" s="10"/>
     </row>
-    <row r="69" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="101"/>
       <c r="B69" s="103" t="s">
         <v>113</v>
@@ -3775,8 +3957,11 @@
       <c r="G69" s="35"/>
       <c r="H69" s="10"/>
       <c r="I69" s="10"/>
-    </row>
-    <row r="70" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J69" s="109" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="101"/>
       <c r="B70" s="35" t="s">
         <v>113</v>
@@ -3794,8 +3979,11 @@
       <c r="G70" s="35"/>
       <c r="H70" s="10"/>
       <c r="I70" s="10"/>
-    </row>
-    <row r="71" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J70" s="109" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="101"/>
       <c r="B71" s="14" t="s">
         <v>21</v>
@@ -3814,7 +4002,7 @@
       <c r="H71" s="10"/>
       <c r="I71" s="10"/>
     </row>
-    <row r="72" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="101"/>
       <c r="B72" s="35" t="s">
         <v>113</v>
@@ -3832,8 +4020,11 @@
       <c r="G72" s="35"/>
       <c r="H72" s="10"/>
       <c r="I72" s="10"/>
-    </row>
-    <row r="73" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J72" s="109" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="101"/>
       <c r="B73" s="35" t="s">
         <v>113</v>
@@ -3851,8 +4042,11 @@
       <c r="G73" s="35"/>
       <c r="H73" s="10"/>
       <c r="I73" s="10"/>
-    </row>
-    <row r="74" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J73" s="109" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="101"/>
       <c r="B74" s="14" t="s">
         <v>21</v>
@@ -3871,7 +4065,7 @@
       <c r="H74" s="10"/>
       <c r="I74" s="10"/>
     </row>
-    <row r="75" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="101"/>
       <c r="B75" s="13" t="s">
         <v>12</v>
@@ -3890,7 +4084,7 @@
       <c r="H75" s="10"/>
       <c r="I75" s="10"/>
     </row>
-    <row r="76" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="101"/>
       <c r="B76" s="13" t="s">
         <v>12</v>
@@ -3909,7 +4103,7 @@
       <c r="H76" s="10"/>
       <c r="I76" s="10"/>
     </row>
-    <row r="77" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="101"/>
       <c r="B77" s="13" t="s">
         <v>12</v>
@@ -3928,7 +4122,7 @@
       <c r="H77" s="10"/>
       <c r="I77" s="10"/>
     </row>
-    <row r="78" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="101"/>
       <c r="B78" s="13" t="s">
         <v>12</v>
@@ -3947,7 +4141,7 @@
       <c r="H78" s="10"/>
       <c r="I78" s="10"/>
     </row>
-    <row r="79" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="101"/>
       <c r="B79" s="13" t="s">
         <v>12</v>
@@ -3966,7 +4160,7 @@
       <c r="H79" s="10"/>
       <c r="I79" s="10"/>
     </row>
-    <row r="80" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="101"/>
       <c r="B80" s="13" t="s">
         <v>12</v>
@@ -3985,7 +4179,7 @@
       <c r="H80" s="10"/>
       <c r="I80" s="10"/>
     </row>
-    <row r="81" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="101"/>
       <c r="B81" s="13" t="s">
         <v>12</v>
@@ -4004,7 +4198,7 @@
       <c r="H81" s="10"/>
       <c r="I81" s="10"/>
     </row>
-    <row r="82" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="101"/>
       <c r="B82" s="13" t="s">
         <v>12</v>
@@ -4023,7 +4217,7 @@
       <c r="H82" s="10"/>
       <c r="I82" s="10"/>
     </row>
-    <row r="83" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="101"/>
       <c r="B83" s="35" t="s">
         <v>113</v>
@@ -4043,8 +4237,11 @@
       <c r="I83" s="10" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J83" s="11" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="101"/>
       <c r="B84" s="35" t="s">
         <v>113</v>
@@ -4064,8 +4261,11 @@
       <c r="I84" s="10" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J84" s="11" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="101"/>
       <c r="B85" s="13"/>
       <c r="C85" s="13"/>
@@ -4076,7 +4276,7 @@
       <c r="H85" s="10"/>
       <c r="I85" s="10"/>
     </row>
-    <row r="86" spans="1:9" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="102"/>
       <c r="B86" s="104"/>
       <c r="C86" s="104"/>
@@ -4087,7 +4287,7 @@
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="23" t="s">
         <v>153</v>
       </c>
@@ -4107,8 +4307,11 @@
       <c r="G87" s="4"/>
       <c r="H87" s="5"/>
       <c r="I87" s="5"/>
-    </row>
-    <row r="88" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J87" s="6" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="101"/>
       <c r="B88" s="13" t="s">
         <v>12</v>
@@ -4126,8 +4329,11 @@
       <c r="G88" s="13"/>
       <c r="H88" s="10"/>
       <c r="I88" s="10"/>
-    </row>
-    <row r="89" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J88" s="11" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="101"/>
       <c r="B89" s="13" t="s">
         <v>12</v>
@@ -4145,8 +4351,11 @@
       <c r="G89" s="13"/>
       <c r="H89" s="10"/>
       <c r="I89" s="10"/>
-    </row>
-    <row r="90" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J89" s="11" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="101"/>
       <c r="B90" s="13" t="s">
         <v>12</v>
@@ -4164,8 +4373,11 @@
       <c r="G90" s="13"/>
       <c r="H90" s="10"/>
       <c r="I90" s="10"/>
-    </row>
-    <row r="91" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J90" s="11" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="101"/>
       <c r="B91" s="14" t="s">
         <v>21</v>
@@ -4185,8 +4397,11 @@
       <c r="I91" s="21" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J91" s="11" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="101"/>
       <c r="B92" s="14" t="s">
         <v>21</v>
@@ -4204,8 +4419,11 @@
       <c r="G92" s="14"/>
       <c r="H92" s="10"/>
       <c r="I92" s="21"/>
-    </row>
-    <row r="93" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J92" s="11" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="101"/>
       <c r="B93" s="13"/>
       <c r="C93" s="13"/>
@@ -4216,7 +4434,7 @@
       <c r="H93" s="10"/>
       <c r="I93" s="21"/>
     </row>
-    <row r="94" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="101"/>
       <c r="B94" s="13"/>
       <c r="C94" s="13"/>
@@ -4227,7 +4445,7 @@
       <c r="H94" s="10"/>
       <c r="I94" s="10"/>
     </row>
-    <row r="95" spans="1:9" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="102"/>
       <c r="B95" s="104"/>
       <c r="C95" s="104"/>
@@ -4238,7 +4456,7 @@
       <c r="H95" s="17"/>
       <c r="I95" s="17"/>
     </row>
-    <row r="96" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="23" t="s">
         <v>160</v>
       </c>
@@ -4261,7 +4479,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="97" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="101"/>
       <c r="B97" s="9" t="s">
         <v>7</v>
@@ -4282,7 +4500,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="98" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="101"/>
       <c r="B98" s="9" t="s">
         <v>7</v>
@@ -4301,7 +4519,7 @@
       <c r="H98" s="10"/>
       <c r="I98" s="10"/>
     </row>
-    <row r="99" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="101"/>
       <c r="B99" s="35" t="s">
         <v>113</v>
@@ -4319,8 +4537,11 @@
       <c r="G99" s="35"/>
       <c r="H99" s="10"/>
       <c r="I99" s="10"/>
-    </row>
-    <row r="100" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J99" s="11" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="101"/>
       <c r="B100" s="9" t="s">
         <v>7</v>
@@ -4341,7 +4562,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="101" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="101"/>
       <c r="B101" s="9" t="s">
         <v>7</v>
@@ -4362,7 +4583,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="102" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="101"/>
       <c r="B102" s="9" t="s">
         <v>7</v>
@@ -4383,7 +4604,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="103" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="101"/>
       <c r="B103" s="9" t="s">
         <v>7</v>
@@ -4404,7 +4625,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="104" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="101"/>
       <c r="B104" s="9" t="s">
         <v>7</v>
@@ -4423,7 +4644,7 @@
       <c r="H104" s="10"/>
       <c r="I104" s="10"/>
     </row>
-    <row r="105" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="101"/>
       <c r="B105" s="9" t="s">
         <v>7</v>
@@ -4444,7 +4665,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="106" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="101"/>
       <c r="B106" s="9" t="s">
         <v>7</v>
@@ -4463,7 +4684,7 @@
       <c r="H106" s="10"/>
       <c r="I106" s="10"/>
     </row>
-    <row r="107" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="101"/>
       <c r="B107" s="9" t="s">
         <v>7</v>
@@ -4482,7 +4703,7 @@
       <c r="H107" s="10"/>
       <c r="I107" s="10"/>
     </row>
-    <row r="108" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="101"/>
       <c r="B108" s="9"/>
       <c r="C108" s="9"/>
@@ -4493,7 +4714,7 @@
       <c r="H108" s="10"/>
       <c r="I108" s="10"/>
     </row>
-    <row r="109" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="101"/>
       <c r="B109" s="13"/>
       <c r="C109" s="13"/>
@@ -4504,7 +4725,7 @@
       <c r="H109" s="10"/>
       <c r="I109" s="10"/>
     </row>
-    <row r="110" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="101"/>
       <c r="B110" s="13"/>
       <c r="C110" s="13"/>
@@ -4515,7 +4736,7 @@
       <c r="H110" s="10"/>
       <c r="I110" s="10"/>
     </row>
-    <row r="111" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="101"/>
       <c r="B111" s="13"/>
       <c r="C111" s="13"/>
@@ -4526,7 +4747,7 @@
       <c r="H111" s="10"/>
       <c r="I111" s="10"/>
     </row>
-    <row r="112" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="101"/>
       <c r="B112" s="13" t="s">
         <v>12</v>

--- a/GameDesign/Planning_Dust'n'Groove.xlsx
+++ b/GameDesign/Planning_Dust'n'Groove.xlsx
@@ -20,12 +20,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1">Général!$A$1:$I$200</definedName>
   </definedNames>
   <calcPr calcId="145621" iterateDelta="1E-4"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="389">
   <si>
     <t>Feature</t>
   </si>
@@ -2256,8 +2255,8 @@
   <dimension ref="A1:AMJ200"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J88" sqref="J88"/>
+      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J96" sqref="J96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3646,6 +3645,9 @@
       <c r="G54" s="13"/>
       <c r="H54" s="10"/>
       <c r="I54" s="22"/>
+      <c r="J54" s="109" t="s">
+        <v>387</v>
+      </c>
       <c r="AMJ54" s="12"/>
     </row>
     <row r="55" spans="1:1024" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -3666,6 +3668,9 @@
       <c r="G55" s="13"/>
       <c r="H55" s="10"/>
       <c r="I55" s="22"/>
+      <c r="J55" s="109" t="s">
+        <v>387</v>
+      </c>
       <c r="AMJ55" s="12"/>
     </row>
     <row r="56" spans="1:1024" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -3686,6 +3691,9 @@
       <c r="G56" s="13"/>
       <c r="H56" s="10"/>
       <c r="I56" s="22"/>
+      <c r="J56" s="109" t="s">
+        <v>387</v>
+      </c>
       <c r="AMJ56" s="12"/>
     </row>
     <row r="57" spans="1:1024" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -3731,6 +3739,9 @@
       <c r="G58" s="13"/>
       <c r="H58" s="10"/>
       <c r="I58" s="10"/>
+      <c r="J58" s="109" t="s">
+        <v>387</v>
+      </c>
       <c r="AMJ58" s="12"/>
     </row>
     <row r="59" spans="1:1024" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -3751,6 +3762,9 @@
       <c r="G59" s="14"/>
       <c r="H59" s="10"/>
       <c r="I59" s="10"/>
+      <c r="J59" s="109" t="s">
+        <v>387</v>
+      </c>
       <c r="AMJ59" s="12"/>
     </row>
     <row r="60" spans="1:1024" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -3771,6 +3785,9 @@
       <c r="G60" s="14"/>
       <c r="H60" s="10"/>
       <c r="I60" s="10"/>
+      <c r="J60" s="109" t="s">
+        <v>387</v>
+      </c>
       <c r="AMJ60" s="12"/>
     </row>
     <row r="61" spans="1:1024" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -3791,6 +3808,9 @@
       <c r="G61" s="14"/>
       <c r="H61" s="10"/>
       <c r="I61" s="10"/>
+      <c r="J61" s="109" t="s">
+        <v>387</v>
+      </c>
       <c r="AMJ61" s="12"/>
     </row>
     <row r="62" spans="1:1024" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -3811,6 +3831,9 @@
       <c r="G62" s="14"/>
       <c r="H62" s="10"/>
       <c r="I62" s="10"/>
+      <c r="J62" s="109" t="s">
+        <v>387</v>
+      </c>
       <c r="AMJ62" s="12"/>
     </row>
     <row r="63" spans="1:1024" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3831,6 +3854,9 @@
       <c r="G63" s="16"/>
       <c r="H63" s="17"/>
       <c r="I63" s="17"/>
+      <c r="J63" s="18" t="s">
+        <v>387</v>
+      </c>
       <c r="AMJ63" s="19"/>
     </row>
     <row r="64" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -3897,6 +3923,9 @@
       <c r="G66" s="14"/>
       <c r="H66" s="10"/>
       <c r="I66" s="10"/>
+      <c r="J66" s="11" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="67" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="101"/>
@@ -3938,6 +3967,9 @@
       <c r="G68" s="14"/>
       <c r="H68" s="10"/>
       <c r="I68" s="10"/>
+      <c r="J68" s="109" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="69" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="101"/>
@@ -4001,6 +4033,9 @@
       <c r="G71" s="14"/>
       <c r="H71" s="10"/>
       <c r="I71" s="10"/>
+      <c r="J71" s="109" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="72" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="101"/>
@@ -4064,6 +4099,9 @@
       <c r="G74" s="14"/>
       <c r="H74" s="10"/>
       <c r="I74" s="10"/>
+      <c r="J74" s="109" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="75" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="101"/>
@@ -4083,6 +4121,9 @@
       <c r="G75" s="13"/>
       <c r="H75" s="10"/>
       <c r="I75" s="10"/>
+      <c r="J75" s="109" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="76" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="101"/>
@@ -4102,6 +4143,9 @@
       <c r="G76" s="13"/>
       <c r="H76" s="10"/>
       <c r="I76" s="10"/>
+      <c r="J76" s="109" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="77" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="101"/>
@@ -4121,6 +4165,9 @@
       <c r="G77" s="13"/>
       <c r="H77" s="10"/>
       <c r="I77" s="10"/>
+      <c r="J77" s="109" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="78" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="101"/>
@@ -4140,6 +4187,9 @@
       <c r="G78" s="13"/>
       <c r="H78" s="10"/>
       <c r="I78" s="10"/>
+      <c r="J78" s="109" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="79" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="101"/>
@@ -4159,6 +4209,9 @@
       <c r="G79" s="13"/>
       <c r="H79" s="10"/>
       <c r="I79" s="10"/>
+      <c r="J79" s="109" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="80" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="101"/>
@@ -4178,6 +4231,9 @@
       <c r="G80" s="13"/>
       <c r="H80" s="10"/>
       <c r="I80" s="10"/>
+      <c r="J80" s="109" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="81" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="101"/>
@@ -4197,6 +4253,9 @@
       <c r="G81" s="13"/>
       <c r="H81" s="10"/>
       <c r="I81" s="10"/>
+      <c r="J81" s="109" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="82" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="101"/>
@@ -4216,6 +4275,9 @@
       <c r="G82" s="13"/>
       <c r="H82" s="10"/>
       <c r="I82" s="10"/>
+      <c r="J82" s="109" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="83" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="101"/>
@@ -4241,7 +4303,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="84" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="101"/>
       <c r="B84" s="35" t="s">
         <v>113</v>
@@ -4265,7 +4327,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="85" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="101"/>
       <c r="B85" s="13"/>
       <c r="C85" s="13"/>
@@ -4276,7 +4338,7 @@
       <c r="H85" s="10"/>
       <c r="I85" s="10"/>
     </row>
-    <row r="86" spans="1:10" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" s="18" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="102"/>
       <c r="B86" s="104"/>
       <c r="C86" s="104"/>
@@ -4401,7 +4463,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="92" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="101"/>
       <c r="B92" s="14" t="s">
         <v>21</v>
@@ -4423,7 +4485,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="93" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="101"/>
       <c r="B93" s="13"/>
       <c r="C93" s="13"/>
@@ -4434,7 +4496,7 @@
       <c r="H93" s="10"/>
       <c r="I93" s="21"/>
     </row>
-    <row r="94" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="101"/>
       <c r="B94" s="13"/>
       <c r="C94" s="13"/>
@@ -4445,7 +4507,7 @@
       <c r="H94" s="10"/>
       <c r="I94" s="10"/>
     </row>
-    <row r="95" spans="1:10" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" s="18" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="102"/>
       <c r="B95" s="104"/>
       <c r="C95" s="104"/>
@@ -4703,7 +4765,7 @@
       <c r="H107" s="10"/>
       <c r="I107" s="10"/>
     </row>
-    <row r="108" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="101"/>
       <c r="B108" s="9"/>
       <c r="C108" s="9"/>
@@ -4714,7 +4776,7 @@
       <c r="H108" s="10"/>
       <c r="I108" s="10"/>
     </row>
-    <row r="109" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="101"/>
       <c r="B109" s="13"/>
       <c r="C109" s="13"/>
@@ -4725,7 +4787,7 @@
       <c r="H109" s="10"/>
       <c r="I109" s="10"/>
     </row>
-    <row r="110" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="101"/>
       <c r="B110" s="13"/>
       <c r="C110" s="13"/>
@@ -4736,7 +4798,7 @@
       <c r="H110" s="10"/>
       <c r="I110" s="10"/>
     </row>
-    <row r="111" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="101"/>
       <c r="B111" s="13"/>
       <c r="C111" s="13"/>
@@ -4901,7 +4963,7 @@
       <c r="H119" s="10"/>
       <c r="I119" s="10"/>
     </row>
-    <row r="120" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="101"/>
       <c r="B120" s="13"/>
       <c r="C120" s="13"/>
@@ -4912,7 +4974,7 @@
       <c r="H120" s="10"/>
       <c r="I120" s="10"/>
     </row>
-    <row r="121" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="101"/>
       <c r="B121" s="13"/>
       <c r="C121" s="13"/>
@@ -4923,7 +4985,7 @@
       <c r="H121" s="10"/>
       <c r="I121" s="10"/>
     </row>
-    <row r="122" spans="1:9" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" s="18" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="102"/>
       <c r="B122" s="104"/>
       <c r="C122" s="104"/>

--- a/GameDesign/Planning_Dust'n'Groove.xlsx
+++ b/GameDesign/Planning_Dust'n'Groove.xlsx
@@ -17,14 +17,14 @@
     <sheet name="Design" sheetId="9" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1">Général!$A$1:$I$200</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1">Général!$A$1:$I$199</definedName>
   </definedNames>
   <calcPr calcId="145621" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="388">
   <si>
     <t>Feature</t>
   </si>
@@ -399,9 +399,6 @@
   </si>
   <si>
     <t>Son quand tire</t>
-  </si>
-  <si>
-    <t>anim_Character_sneak</t>
   </si>
   <si>
     <t>Marche accroupie</t>
@@ -2252,11 +2249,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMJ200"/>
+  <dimension ref="A1:AMJ199"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J96" sqref="J96"/>
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2294,7 +2291,7 @@
         <v>5</v>
       </c>
       <c r="J1" s="110" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="2" spans="1:1024" s="6" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2320,7 +2317,7 @@
         <v>11</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AMJ2" s="7"/>
     </row>
@@ -2335,17 +2332,17 @@
         <v>8</v>
       </c>
       <c r="D3" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>380</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>381</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="9"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
       <c r="J3" s="11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AMJ3" s="12"/>
     </row>
@@ -2370,7 +2367,7 @@
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
       <c r="J4" s="11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AMJ4" s="12"/>
     </row>
@@ -2395,7 +2392,7 @@
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
       <c r="J5" s="109" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AMJ5" s="12"/>
     </row>
@@ -2420,7 +2417,7 @@
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
       <c r="J6" s="109" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AMJ6" s="12"/>
     </row>
@@ -2445,7 +2442,7 @@
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="109" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AMJ7" s="12"/>
     </row>
@@ -2460,17 +2457,17 @@
         <v>8</v>
       </c>
       <c r="D8" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="E8" s="14" t="s">
         <v>375</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>376</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="14"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="109" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AMJ8" s="12"/>
     </row>
@@ -2497,7 +2494,7 @@
         <v>23</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AMJ9" s="7"/>
     </row>
@@ -2512,10 +2509,10 @@
         <v>8</v>
       </c>
       <c r="D10" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>380</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>381</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="9"/>
@@ -2524,7 +2521,7 @@
         <v>23</v>
       </c>
       <c r="J10" s="109" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AMJ10" s="12"/>
     </row>
@@ -2551,7 +2548,7 @@
         <v>26</v>
       </c>
       <c r="J11" s="109" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AMJ11" s="12"/>
     </row>
@@ -2578,7 +2575,7 @@
         <v>29</v>
       </c>
       <c r="J12" s="109" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AMJ12" s="12"/>
     </row>
@@ -2605,7 +2602,7 @@
         <v>32</v>
       </c>
       <c r="J13" s="109" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AMJ13" s="12"/>
     </row>
@@ -2630,7 +2627,7 @@
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
       <c r="J14" s="109" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AMJ14" s="12"/>
     </row>
@@ -2657,7 +2654,7 @@
         <v>37</v>
       </c>
       <c r="J15" s="109" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AMJ15" s="12"/>
     </row>
@@ -2684,7 +2681,7 @@
         <v>40</v>
       </c>
       <c r="J16" s="109" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AMJ16" s="12"/>
     </row>
@@ -2709,7 +2706,7 @@
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
       <c r="J17" s="109" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AMJ17" s="12"/>
     </row>
@@ -2736,7 +2733,7 @@
         <v>40</v>
       </c>
       <c r="J18" s="109" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AMJ18" s="12"/>
     </row>
@@ -2761,7 +2758,7 @@
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
       <c r="J19" s="109" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AMJ19" s="12"/>
     </row>
@@ -2786,7 +2783,7 @@
         <v>49</v>
       </c>
       <c r="J20" s="109" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AMJ20" s="12"/>
     </row>
@@ -2801,17 +2798,17 @@
         <v>8</v>
       </c>
       <c r="D21" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="E21" s="14" t="s">
         <v>375</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>376</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="14"/>
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
       <c r="J21" s="109" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AMJ21" s="12"/>
     </row>
@@ -2836,7 +2833,7 @@
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
       <c r="J22" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AMJ22" s="7"/>
     </row>
@@ -2863,7 +2860,7 @@
         <v>23</v>
       </c>
       <c r="J23" s="109" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AMJ23" s="12"/>
     </row>
@@ -2890,7 +2887,7 @@
         <v>23</v>
       </c>
       <c r="J24" s="109" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AMJ24" s="12"/>
     </row>
@@ -2915,7 +2912,7 @@
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
       <c r="J25" s="109" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AMJ25" s="12"/>
     </row>
@@ -2940,7 +2937,7 @@
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
       <c r="J26" s="109" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AMJ26" s="12"/>
     </row>
@@ -2965,7 +2962,7 @@
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
       <c r="J27" s="109" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AMJ27" s="12"/>
     </row>
@@ -2990,7 +2987,7 @@
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
       <c r="J28" s="109" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AMJ28" s="12"/>
     </row>
@@ -3017,7 +3014,7 @@
         <v>23</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AMJ29" s="7"/>
     </row>
@@ -3044,7 +3041,7 @@
         <v>23</v>
       </c>
       <c r="J30" s="109" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AMJ30" s="12"/>
     </row>
@@ -3069,7 +3066,7 @@
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
       <c r="J31" s="109" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AMJ31" s="12"/>
     </row>
@@ -3094,7 +3091,7 @@
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
       <c r="J32" s="109" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AMJ32" s="12"/>
     </row>
@@ -3119,7 +3116,7 @@
       <c r="H33" s="17"/>
       <c r="I33" s="17"/>
       <c r="J33" s="18" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AMJ33" s="19"/>
     </row>
@@ -3146,7 +3143,7 @@
         <v>63</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AMJ34" s="7"/>
     </row>
@@ -3173,7 +3170,7 @@
         <v>23</v>
       </c>
       <c r="J35" s="109" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AMJ35" s="12"/>
     </row>
@@ -3200,7 +3197,7 @@
         <v>23</v>
       </c>
       <c r="J36" s="109" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AMJ36" s="12"/>
     </row>
@@ -3227,7 +3224,7 @@
         <v>23</v>
       </c>
       <c r="J37" s="109" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AMJ37" s="12"/>
     </row>
@@ -3254,7 +3251,7 @@
         <v>23</v>
       </c>
       <c r="J38" s="109" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AMJ38" s="12"/>
     </row>
@@ -3279,7 +3276,7 @@
       <c r="H39" s="10"/>
       <c r="I39" s="10"/>
       <c r="J39" s="109" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AMJ39" s="12"/>
     </row>
@@ -3306,7 +3303,7 @@
         <v>68</v>
       </c>
       <c r="J40" s="109" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AMJ40" s="12"/>
     </row>
@@ -3333,7 +3330,7 @@
         <v>71</v>
       </c>
       <c r="J41" s="109" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AMJ41" s="12"/>
     </row>
@@ -3358,7 +3355,7 @@
       <c r="H42" s="10"/>
       <c r="I42" s="25"/>
       <c r="J42" s="109" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AMJ42" s="12"/>
     </row>
@@ -3383,7 +3380,7 @@
       <c r="H43" s="5"/>
       <c r="I43" s="27"/>
       <c r="J43" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AMJ43" s="7"/>
     </row>
@@ -3406,7 +3403,7 @@
       <c r="H44" s="10"/>
       <c r="I44" s="22"/>
       <c r="J44" s="109" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AMJ44" s="12"/>
     </row>
@@ -3429,7 +3426,7 @@
       <c r="H45" s="10"/>
       <c r="I45" s="22"/>
       <c r="J45" s="109" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AMJ45" s="12"/>
     </row>
@@ -3452,7 +3449,7 @@
       <c r="H46" s="10"/>
       <c r="I46" s="10"/>
       <c r="J46" s="109" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AMJ46" s="12"/>
     </row>
@@ -3475,7 +3472,7 @@
       <c r="H47" s="10"/>
       <c r="I47" s="22"/>
       <c r="J47" s="109" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AMJ47" s="12"/>
     </row>
@@ -3502,7 +3499,7 @@
         <v>88</v>
       </c>
       <c r="J48" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AMJ48" s="7"/>
     </row>
@@ -3527,7 +3524,7 @@
         <v>88</v>
       </c>
       <c r="J49" s="109" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AMJ49" s="12"/>
     </row>
@@ -3552,7 +3549,7 @@
         <v>88</v>
       </c>
       <c r="J50" s="109" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AMJ50" s="12"/>
     </row>
@@ -3575,7 +3572,7 @@
       <c r="H51" s="10"/>
       <c r="I51" s="22"/>
       <c r="J51" s="109" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AMJ51" s="12"/>
     </row>
@@ -3598,7 +3595,7 @@
       <c r="H52" s="10"/>
       <c r="I52" s="22"/>
       <c r="J52" s="109" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AMJ52" s="12"/>
     </row>
@@ -3623,7 +3620,7 @@
         <v>23</v>
       </c>
       <c r="J53" s="109" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AMJ53" s="12"/>
     </row>
@@ -3646,7 +3643,7 @@
       <c r="H54" s="10"/>
       <c r="I54" s="22"/>
       <c r="J54" s="109" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AMJ54" s="12"/>
     </row>
@@ -3659,7 +3656,7 @@
         <v>85</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E55" s="13" t="s">
         <v>99</v>
@@ -3669,7 +3666,7 @@
       <c r="H55" s="10"/>
       <c r="I55" s="22"/>
       <c r="J55" s="109" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AMJ55" s="12"/>
     </row>
@@ -3682,17 +3679,17 @@
         <v>85</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F56" s="10"/>
       <c r="G56" s="13"/>
       <c r="H56" s="10"/>
       <c r="I56" s="22"/>
       <c r="J56" s="109" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AMJ56" s="12"/>
     </row>
@@ -3717,7 +3714,7 @@
         <v>23</v>
       </c>
       <c r="J57" s="11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AMJ57" s="12"/>
     </row>
@@ -3740,7 +3737,7 @@
       <c r="H58" s="10"/>
       <c r="I58" s="10"/>
       <c r="J58" s="109" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AMJ58" s="12"/>
     </row>
@@ -3763,7 +3760,7 @@
       <c r="H59" s="10"/>
       <c r="I59" s="10"/>
       <c r="J59" s="109" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AMJ59" s="12"/>
     </row>
@@ -3786,7 +3783,7 @@
       <c r="H60" s="10"/>
       <c r="I60" s="10"/>
       <c r="J60" s="109" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AMJ60" s="12"/>
     </row>
@@ -3809,7 +3806,7 @@
       <c r="H61" s="10"/>
       <c r="I61" s="10"/>
       <c r="J61" s="109" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AMJ61" s="12"/>
     </row>
@@ -3832,7 +3829,7 @@
       <c r="H62" s="10"/>
       <c r="I62" s="10"/>
       <c r="J62" s="109" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AMJ62" s="12"/>
     </row>
@@ -3855,7 +3852,7 @@
       <c r="H63" s="17"/>
       <c r="I63" s="17"/>
       <c r="J63" s="18" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AMJ63" s="19"/>
     </row>
@@ -3880,7 +3877,7 @@
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
       <c r="J64" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="65" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -3902,7 +3899,7 @@
       <c r="H65" s="10"/>
       <c r="I65" s="10"/>
       <c r="J65" s="11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="66" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -3924,7 +3921,7 @@
       <c r="H66" s="10"/>
       <c r="I66" s="10"/>
       <c r="J66" s="11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="67" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -3946,7 +3943,7 @@
       <c r="H67" s="10"/>
       <c r="I67" s="10"/>
       <c r="J67" s="11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="68" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -3968,73 +3965,73 @@
       <c r="H68" s="10"/>
       <c r="I68" s="10"/>
       <c r="J68" s="109" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="69" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="101"/>
-      <c r="B69" s="103" t="s">
+      <c r="B69" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="C69" s="103" t="s">
+      <c r="C69" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="D69" s="103" t="s">
-        <v>125</v>
+      <c r="D69" s="35" t="s">
+        <v>126</v>
       </c>
       <c r="E69" s="103" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F69" s="10"/>
       <c r="G69" s="35"/>
       <c r="H69" s="10"/>
       <c r="I69" s="10"/>
       <c r="J69" s="109" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="70" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="101"/>
-      <c r="B70" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="C70" s="35" t="s">
+      <c r="B70" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C70" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="D70" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="E70" s="103" t="s">
+      <c r="D70" s="14" t="s">
         <v>128</v>
       </c>
+      <c r="E70" s="14" t="s">
+        <v>129</v>
+      </c>
       <c r="F70" s="10"/>
-      <c r="G70" s="35"/>
+      <c r="G70" s="14"/>
       <c r="H70" s="10"/>
       <c r="I70" s="10"/>
       <c r="J70" s="109" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="71" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="101"/>
-      <c r="B71" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C71" s="14" t="s">
+      <c r="B71" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="C71" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="D71" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="E71" s="14" t="s">
+      <c r="D71" s="35" t="s">
         <v>130</v>
       </c>
+      <c r="E71" s="103" t="s">
+        <v>131</v>
+      </c>
       <c r="F71" s="10"/>
-      <c r="G71" s="14"/>
+      <c r="G71" s="35"/>
       <c r="H71" s="10"/>
       <c r="I71" s="10"/>
       <c r="J71" s="109" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="72" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -4046,61 +4043,61 @@
         <v>114</v>
       </c>
       <c r="D72" s="35" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E72" s="103" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F72" s="10"/>
       <c r="G72" s="35"/>
       <c r="H72" s="10"/>
       <c r="I72" s="10"/>
       <c r="J72" s="109" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="73" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="101"/>
-      <c r="B73" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="C73" s="35" t="s">
+      <c r="B73" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C73" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="D73" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="E73" s="103" t="s">
+      <c r="D73" s="14" t="s">
         <v>134</v>
       </c>
+      <c r="E73" s="14" t="s">
+        <v>135</v>
+      </c>
       <c r="F73" s="10"/>
-      <c r="G73" s="35"/>
+      <c r="G73" s="14"/>
       <c r="H73" s="10"/>
       <c r="I73" s="10"/>
       <c r="J73" s="109" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="74" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="101"/>
-      <c r="B74" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C74" s="14" t="s">
+      <c r="B74" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="D74" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="E74" s="14" t="s">
+      <c r="D74" s="13" t="s">
         <v>136</v>
       </c>
+      <c r="E74" s="13" t="s">
+        <v>116</v>
+      </c>
       <c r="F74" s="10"/>
-      <c r="G74" s="14"/>
+      <c r="G74" s="13"/>
       <c r="H74" s="10"/>
       <c r="I74" s="10"/>
       <c r="J74" s="109" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="75" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -4115,14 +4112,14 @@
         <v>137</v>
       </c>
       <c r="E75" s="13" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F75" s="10"/>
       <c r="G75" s="13"/>
       <c r="H75" s="10"/>
       <c r="I75" s="10"/>
       <c r="J75" s="109" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="76" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -4137,14 +4134,14 @@
         <v>138</v>
       </c>
       <c r="E76" s="13" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F76" s="10"/>
       <c r="G76" s="13"/>
       <c r="H76" s="10"/>
       <c r="I76" s="10"/>
       <c r="J76" s="109" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="77" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -4159,14 +4156,14 @@
         <v>139</v>
       </c>
       <c r="E77" s="13" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F77" s="10"/>
       <c r="G77" s="13"/>
       <c r="H77" s="10"/>
       <c r="I77" s="10"/>
       <c r="J77" s="109" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="78" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -4181,14 +4178,14 @@
         <v>140</v>
       </c>
       <c r="E78" s="13" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="F78" s="10"/>
       <c r="G78" s="13"/>
       <c r="H78" s="10"/>
       <c r="I78" s="10"/>
       <c r="J78" s="109" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="79" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -4200,17 +4197,17 @@
         <v>114</v>
       </c>
       <c r="D79" s="13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E79" s="13" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F79" s="10"/>
       <c r="G79" s="13"/>
       <c r="H79" s="10"/>
       <c r="I79" s="10"/>
       <c r="J79" s="109" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="80" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -4222,17 +4219,17 @@
         <v>114</v>
       </c>
       <c r="D80" s="13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E80" s="13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F80" s="10"/>
       <c r="G80" s="13"/>
       <c r="H80" s="10"/>
       <c r="I80" s="10"/>
       <c r="J80" s="109" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="81" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -4244,42 +4241,44 @@
         <v>114</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E81" s="13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F81" s="10"/>
       <c r="G81" s="13"/>
       <c r="H81" s="10"/>
       <c r="I81" s="10"/>
       <c r="J81" s="109" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="82" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="101"/>
-      <c r="B82" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C82" s="13" t="s">
+      <c r="B82" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="C82" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="D82" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="E82" s="13" t="s">
+      <c r="D82" s="35" t="s">
         <v>148</v>
       </c>
+      <c r="E82" s="103" t="s">
+        <v>149</v>
+      </c>
       <c r="F82" s="10"/>
-      <c r="G82" s="13"/>
+      <c r="G82" s="35"/>
       <c r="H82" s="10"/>
-      <c r="I82" s="10"/>
-      <c r="J82" s="109" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I82" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="J82" s="11" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="101"/>
       <c r="B83" s="35" t="s">
         <v>113</v>
@@ -4288,89 +4287,87 @@
         <v>114</v>
       </c>
       <c r="D83" s="35" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E83" s="103" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F83" s="10"/>
       <c r="G83" s="35"/>
       <c r="H83" s="10"/>
       <c r="I83" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J83" s="11" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="101"/>
-      <c r="B84" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="C84" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="D84" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="E84" s="103" t="s">
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="13"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="13"/>
+      <c r="H84" s="10"/>
+      <c r="I84" s="10"/>
+    </row>
+    <row r="85" spans="1:10" s="18" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="102"/>
+      <c r="B85" s="104"/>
+      <c r="C85" s="104"/>
+      <c r="D85" s="104"/>
+      <c r="E85" s="104"/>
+      <c r="F85" s="17"/>
+      <c r="G85" s="104"/>
+      <c r="H85" s="17"/>
+      <c r="I85" s="17"/>
+    </row>
+    <row r="86" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="F84" s="10"/>
-      <c r="G84" s="35"/>
-      <c r="H84" s="10"/>
-      <c r="I84" s="10" t="s">
-        <v>382</v>
-      </c>
-      <c r="J84" s="11" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="101"/>
-      <c r="B85" s="13"/>
-      <c r="C85" s="13"/>
-      <c r="D85" s="13"/>
-      <c r="E85" s="13"/>
-      <c r="F85" s="10"/>
-      <c r="G85" s="13"/>
-      <c r="H85" s="10"/>
-      <c r="I85" s="10"/>
-    </row>
-    <row r="86" spans="1:10" s="18" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="102"/>
-      <c r="B86" s="104"/>
-      <c r="C86" s="104"/>
-      <c r="D86" s="104"/>
-      <c r="E86" s="104"/>
-      <c r="F86" s="17"/>
-      <c r="G86" s="104"/>
-      <c r="H86" s="17"/>
-      <c r="I86" s="17"/>
-    </row>
-    <row r="87" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="23" t="s">
+      <c r="B86" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B87" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C87" s="4" t="s">
+      <c r="D86" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D87" s="4" t="s">
+      <c r="E86" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="E87" s="4" t="s">
+      <c r="F86" s="5"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="5"/>
+      <c r="I86" s="5"/>
+      <c r="J86" s="6" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="101"/>
+      <c r="B87" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C87" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="D87" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="F87" s="5"/>
-      <c r="G87" s="4"/>
-      <c r="H87" s="5"/>
-      <c r="I87" s="5"/>
-      <c r="J87" s="6" t="s">
-        <v>387</v>
+      <c r="E87" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="F87" s="10"/>
+      <c r="G87" s="13"/>
+      <c r="H87" s="10"/>
+      <c r="I87" s="10"/>
+      <c r="J87" s="11" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="88" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -4379,20 +4376,20 @@
         <v>12</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D88" s="13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E88" s="13" t="s">
-        <v>158</v>
+        <v>373</v>
       </c>
       <c r="F88" s="10"/>
       <c r="G88" s="13"/>
       <c r="H88" s="10"/>
       <c r="I88" s="10"/>
       <c r="J88" s="11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="89" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -4401,89 +4398,78 @@
         <v>12</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D89" s="13" t="s">
-        <v>159</v>
+        <v>371</v>
       </c>
       <c r="E89" s="13" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F89" s="10"/>
       <c r="G89" s="13"/>
       <c r="H89" s="10"/>
       <c r="I89" s="10"/>
       <c r="J89" s="11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="90" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="101"/>
-      <c r="B90" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C90" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="D90" s="13" t="s">
-        <v>372</v>
-      </c>
-      <c r="E90" s="13" t="s">
-        <v>373</v>
+      <c r="B90" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C90" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="D90" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E90" s="14" t="s">
+        <v>370</v>
       </c>
       <c r="F90" s="10"/>
-      <c r="G90" s="13"/>
+      <c r="G90" s="14"/>
       <c r="H90" s="10"/>
-      <c r="I90" s="10"/>
+      <c r="I90" s="21" t="s">
+        <v>23</v>
+      </c>
       <c r="J90" s="11" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="101"/>
       <c r="B91" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D91" s="14" t="s">
-        <v>47</v>
+        <v>376</v>
       </c>
       <c r="E91" s="14" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="F91" s="10"/>
       <c r="G91" s="14"/>
       <c r="H91" s="10"/>
-      <c r="I91" s="21" t="s">
-        <v>23</v>
-      </c>
+      <c r="I91" s="21"/>
       <c r="J91" s="11" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="101"/>
-      <c r="B92" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C92" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="D92" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="E92" s="14" t="s">
-        <v>378</v>
-      </c>
+      <c r="B92" s="13"/>
+      <c r="C92" s="13"/>
+      <c r="D92" s="13"/>
+      <c r="E92" s="13"/>
       <c r="F92" s="10"/>
-      <c r="G92" s="14"/>
+      <c r="G92" s="13"/>
       <c r="H92" s="10"/>
       <c r="I92" s="21"/>
-      <c r="J92" s="11" t="s">
-        <v>387</v>
-      </c>
     </row>
     <row r="93" spans="1:10" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="101"/>
@@ -4494,51 +4480,61 @@
       <c r="F93" s="10"/>
       <c r="G93" s="13"/>
       <c r="H93" s="10"/>
-      <c r="I93" s="21"/>
-    </row>
-    <row r="94" spans="1:10" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="101"/>
-      <c r="B94" s="13"/>
-      <c r="C94" s="13"/>
-      <c r="D94" s="13"/>
-      <c r="E94" s="13"/>
-      <c r="F94" s="10"/>
-      <c r="G94" s="13"/>
-      <c r="H94" s="10"/>
-      <c r="I94" s="10"/>
-    </row>
-    <row r="95" spans="1:10" s="18" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="102"/>
-      <c r="B95" s="104"/>
-      <c r="C95" s="104"/>
-      <c r="D95" s="104"/>
-      <c r="E95" s="104"/>
-      <c r="F95" s="17"/>
-      <c r="G95" s="104"/>
-      <c r="H95" s="17"/>
-      <c r="I95" s="17"/>
-    </row>
-    <row r="96" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="23" t="s">
+      <c r="I93" s="10"/>
+    </row>
+    <row r="94" spans="1:10" s="18" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="102"/>
+      <c r="B94" s="104"/>
+      <c r="C94" s="104"/>
+      <c r="D94" s="104"/>
+      <c r="E94" s="104"/>
+      <c r="F94" s="17"/>
+      <c r="G94" s="104"/>
+      <c r="H94" s="17"/>
+      <c r="I94" s="17"/>
+    </row>
+    <row r="95" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B96" s="4" t="s">
+      <c r="D95" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F95" s="5"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="5"/>
+      <c r="I95" s="5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="101"/>
+      <c r="B96" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C96" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D96" s="4" t="s">
+      <c r="C96" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="D96" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="E96" s="4" t="s">
+      <c r="E96" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="F96" s="5"/>
-      <c r="G96" s="4"/>
-      <c r="H96" s="5"/>
-      <c r="I96" s="5" t="s">
-        <v>341</v>
+      <c r="F96" s="10"/>
+      <c r="G96" s="9"/>
+      <c r="H96" s="10"/>
+      <c r="I96" s="10" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="97" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -4547,10 +4543,10 @@
         <v>7</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>334</v>
+        <v>353</v>
       </c>
       <c r="E97" s="9" t="s">
         <v>163</v>
@@ -4558,49 +4554,49 @@
       <c r="F97" s="10"/>
       <c r="G97" s="9"/>
       <c r="H97" s="10"/>
-      <c r="I97" s="10" t="s">
-        <v>384</v>
-      </c>
+      <c r="I97" s="10"/>
     </row>
     <row r="98" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="101"/>
-      <c r="B98" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C98" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="D98" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="E98" s="9" t="s">
+      <c r="B98" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="C98" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="D98" s="35" t="s">
+        <v>334</v>
+      </c>
+      <c r="E98" s="103" t="s">
         <v>164</v>
       </c>
       <c r="F98" s="10"/>
-      <c r="G98" s="9"/>
+      <c r="G98" s="35"/>
       <c r="H98" s="10"/>
       <c r="I98" s="10"/>
+      <c r="J98" s="11" t="s">
+        <v>386</v>
+      </c>
     </row>
     <row r="99" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="101"/>
-      <c r="B99" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="C99" s="35" t="s">
-        <v>161</v>
-      </c>
-      <c r="D99" s="35" t="s">
+      <c r="B99" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="D99" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="E99" s="9" t="s">
         <v>335</v>
       </c>
-      <c r="E99" s="103" t="s">
-        <v>165</v>
-      </c>
       <c r="F99" s="10"/>
-      <c r="G99" s="35"/>
+      <c r="G99" s="9"/>
       <c r="H99" s="10"/>
-      <c r="I99" s="10"/>
-      <c r="J99" s="11" t="s">
-        <v>387</v>
+      <c r="I99" s="10" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="100" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -4609,7 +4605,7 @@
         <v>7</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D100" s="9" t="s">
         <v>344</v>
@@ -4621,7 +4617,7 @@
       <c r="G100" s="9"/>
       <c r="H100" s="10"/>
       <c r="I100" s="10" t="s">
-        <v>338</v>
+        <v>382</v>
       </c>
     </row>
     <row r="101" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -4630,19 +4626,19 @@
         <v>7</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D101" s="9" t="s">
         <v>345</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F101" s="10"/>
       <c r="G101" s="9"/>
       <c r="H101" s="10"/>
       <c r="I101" s="10" t="s">
-        <v>383</v>
+        <v>339</v>
       </c>
     </row>
     <row r="102" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -4651,19 +4647,19 @@
         <v>7</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D102" s="9" t="s">
         <v>346</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F102" s="10"/>
       <c r="G102" s="9"/>
       <c r="H102" s="10"/>
       <c r="I102" s="10" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="103" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -4672,20 +4668,18 @@
         <v>7</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="F103" s="10"/>
       <c r="G103" s="9"/>
       <c r="H103" s="10"/>
-      <c r="I103" s="10" t="s">
-        <v>343</v>
-      </c>
+      <c r="I103" s="10"/>
     </row>
     <row r="104" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="101"/>
@@ -4693,18 +4687,20 @@
         <v>7</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="F104" s="10"/>
       <c r="G104" s="9"/>
       <c r="H104" s="10"/>
-      <c r="I104" s="10"/>
+      <c r="I104" s="10" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="105" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="101"/>
@@ -4712,20 +4708,18 @@
         <v>7</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="F105" s="10"/>
       <c r="G105" s="9"/>
       <c r="H105" s="10"/>
-      <c r="I105" s="10" t="s">
-        <v>356</v>
-      </c>
+      <c r="I105" s="10"/>
     </row>
     <row r="106" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="101"/>
@@ -4733,10 +4727,10 @@
         <v>7</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="E106" s="9" t="s">
         <v>363</v>
@@ -4746,20 +4740,12 @@
       <c r="H106" s="10"/>
       <c r="I106" s="10"/>
     </row>
-    <row r="107" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="101"/>
-      <c r="B107" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C107" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="D107" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="E107" s="9" t="s">
-        <v>364</v>
-      </c>
+      <c r="B107" s="9"/>
+      <c r="C107" s="9"/>
+      <c r="D107" s="9"/>
+      <c r="E107" s="9"/>
       <c r="F107" s="10"/>
       <c r="G107" s="9"/>
       <c r="H107" s="10"/>
@@ -4767,12 +4753,12 @@
     </row>
     <row r="108" spans="1:10" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="101"/>
-      <c r="B108" s="9"/>
-      <c r="C108" s="9"/>
-      <c r="D108" s="9"/>
-      <c r="E108" s="9"/>
+      <c r="B108" s="13"/>
+      <c r="C108" s="13"/>
+      <c r="D108" s="13"/>
+      <c r="E108" s="13"/>
       <c r="F108" s="10"/>
-      <c r="G108" s="9"/>
+      <c r="G108" s="13"/>
       <c r="H108" s="10"/>
       <c r="I108" s="10"/>
     </row>
@@ -4798,12 +4784,20 @@
       <c r="H110" s="10"/>
       <c r="I110" s="10"/>
     </row>
-    <row r="111" spans="1:10" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="101"/>
-      <c r="B111" s="13"/>
-      <c r="C111" s="13"/>
-      <c r="D111" s="13"/>
-      <c r="E111" s="13"/>
+      <c r="B111" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C111" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D111" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="E111" s="13" t="s">
+        <v>349</v>
+      </c>
       <c r="F111" s="10"/>
       <c r="G111" s="13"/>
       <c r="H111" s="10"/>
@@ -4815,10 +4809,10 @@
         <v>12</v>
       </c>
       <c r="C112" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D112" s="13" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="E112" s="13" t="s">
         <v>350</v>
@@ -4834,13 +4828,13 @@
         <v>12</v>
       </c>
       <c r="C113" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D113" s="13" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E113" s="13" t="s">
-        <v>351</v>
+        <v>163</v>
       </c>
       <c r="F113" s="10"/>
       <c r="G113" s="13"/>
@@ -4853,13 +4847,13 @@
         <v>12</v>
       </c>
       <c r="C114" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D114" s="13" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="E114" s="13" t="s">
-        <v>164</v>
+        <v>357</v>
       </c>
       <c r="F114" s="10"/>
       <c r="G114" s="13"/>
@@ -4872,18 +4866,20 @@
         <v>12</v>
       </c>
       <c r="C115" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D115" s="13" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E115" s="13" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="F115" s="10"/>
       <c r="G115" s="13"/>
       <c r="H115" s="10"/>
-      <c r="I115" s="10"/>
+      <c r="I115" s="10" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="116" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="101"/>
@@ -4891,10 +4887,10 @@
         <v>12</v>
       </c>
       <c r="C116" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D116" s="13" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="E116" s="13" t="s">
         <v>366</v>
@@ -4902,9 +4898,7 @@
       <c r="F116" s="10"/>
       <c r="G116" s="13"/>
       <c r="H116" s="10"/>
-      <c r="I116" s="10" t="s">
-        <v>360</v>
-      </c>
+      <c r="I116" s="10"/>
     </row>
     <row r="117" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="101"/>
@@ -4912,13 +4906,13 @@
         <v>12</v>
       </c>
       <c r="C117" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D117" s="13" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="E117" s="13" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F117" s="10"/>
       <c r="G117" s="13"/>
@@ -4931,33 +4925,25 @@
         <v>12</v>
       </c>
       <c r="C118" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D118" s="13" t="s">
-        <v>361</v>
+        <v>384</v>
       </c>
       <c r="E118" s="13" t="s">
-        <v>364</v>
+        <v>385</v>
       </c>
       <c r="F118" s="10"/>
       <c r="G118" s="13"/>
       <c r="H118" s="10"/>
       <c r="I118" s="10"/>
     </row>
-    <row r="119" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="101"/>
-      <c r="B119" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C119" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="D119" s="13" t="s">
-        <v>385</v>
-      </c>
-      <c r="E119" s="13" t="s">
-        <v>386</v>
-      </c>
+      <c r="B119" s="13"/>
+      <c r="C119" s="13"/>
+      <c r="D119" s="13"/>
+      <c r="E119" s="13"/>
       <c r="F119" s="10"/>
       <c r="G119" s="13"/>
       <c r="H119" s="10"/>
@@ -4974,54 +4960,68 @@
       <c r="H120" s="10"/>
       <c r="I120" s="10"/>
     </row>
-    <row r="121" spans="1:9" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="101"/>
-      <c r="B121" s="13"/>
-      <c r="C121" s="13"/>
-      <c r="D121" s="13"/>
-      <c r="E121" s="13"/>
-      <c r="F121" s="10"/>
-      <c r="G121" s="13"/>
-      <c r="H121" s="10"/>
-      <c r="I121" s="10"/>
-    </row>
-    <row r="122" spans="1:9" s="18" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="102"/>
-      <c r="B122" s="104"/>
-      <c r="C122" s="104"/>
-      <c r="D122" s="104"/>
-      <c r="E122" s="104"/>
-      <c r="F122" s="17"/>
-      <c r="G122" s="104"/>
-      <c r="H122" s="17"/>
-      <c r="I122" s="17"/>
-    </row>
-    <row r="123" spans="1:9" s="100" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="96"/>
-      <c r="B123" s="97"/>
-      <c r="C123" s="107"/>
-      <c r="D123" s="98"/>
-      <c r="E123" s="99"/>
-      <c r="F123" s="108"/>
-      <c r="G123" s="107"/>
-      <c r="H123" s="108"/>
-      <c r="I123" s="108"/>
+    <row r="121" spans="1:9" s="18" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="102"/>
+      <c r="B121" s="104"/>
+      <c r="C121" s="104"/>
+      <c r="D121" s="104"/>
+      <c r="E121" s="104"/>
+      <c r="F121" s="17"/>
+      <c r="G121" s="104"/>
+      <c r="H121" s="17"/>
+      <c r="I121" s="17"/>
+    </row>
+    <row r="122" spans="1:9" s="100" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="96"/>
+      <c r="B122" s="97"/>
+      <c r="C122" s="107"/>
+      <c r="D122" s="98"/>
+      <c r="E122" s="99"/>
+      <c r="F122" s="108"/>
+      <c r="G122" s="107"/>
+      <c r="H122" s="108"/>
+      <c r="I122" s="108"/>
+    </row>
+    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="B123" s="44" t="s">
+        <v>166</v>
+      </c>
+      <c r="C123" s="45" t="s">
+        <v>167</v>
+      </c>
+      <c r="D123" s="44" t="s">
+        <v>168</v>
+      </c>
+      <c r="E123" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="F123" s="34"/>
+      <c r="G123" s="45"/>
+      <c r="H123" s="34">
+        <v>80</v>
+      </c>
+      <c r="I123" s="34" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="43" t="s">
+      <c r="A124" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="B124" s="47" t="s">
         <v>166</v>
       </c>
-      <c r="B124" s="44" t="s">
-        <v>167</v>
-      </c>
       <c r="C124" s="45" t="s">
-        <v>168</v>
-      </c>
-      <c r="D124" s="44" t="s">
-        <v>169</v>
-      </c>
-      <c r="E124" s="46" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="D124" s="45" t="s">
+        <v>172</v>
+      </c>
+      <c r="E124" s="48" t="s">
+        <v>173</v>
       </c>
       <c r="F124" s="34"/>
       <c r="G124" s="45"/>
@@ -5029,24 +5029,24 @@
         <v>80</v>
       </c>
       <c r="I124" s="34" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="B125" s="47" t="s">
-        <v>167</v>
+        <v>165</v>
+      </c>
+      <c r="B125" s="45" t="s">
+        <v>174</v>
       </c>
       <c r="C125" s="45" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D125" s="45" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E125" s="48" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F125" s="34"/>
       <c r="G125" s="45"/>
@@ -5054,205 +5054,201 @@
         <v>80</v>
       </c>
       <c r="I125" s="34" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="B126" s="45" t="s">
-        <v>175</v>
-      </c>
-      <c r="C126" s="45" t="s">
-        <v>176</v>
-      </c>
-      <c r="D126" s="45" t="s">
-        <v>177</v>
-      </c>
-      <c r="E126" s="48" t="s">
+        <v>165</v>
+      </c>
+      <c r="B126" s="49" t="s">
         <v>178</v>
       </c>
-      <c r="F126" s="34"/>
-      <c r="G126" s="45"/>
-      <c r="H126" s="34">
-        <v>80</v>
-      </c>
-      <c r="I126" s="34" t="s">
-        <v>171</v>
-      </c>
+      <c r="C126" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="D126" s="49" t="s">
+        <v>179</v>
+      </c>
+      <c r="E126" s="50" t="s">
+        <v>180</v>
+      </c>
+      <c r="F126" s="10"/>
+      <c r="G126" s="49"/>
+      <c r="H126" s="10"/>
+      <c r="I126" s="10"/>
     </row>
     <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="B127" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="C127" s="49" t="s">
+        <v>165</v>
+      </c>
+      <c r="B127" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C127" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="D127" s="49" t="s">
-        <v>180</v>
-      </c>
-      <c r="E127" s="50" t="s">
+      <c r="D127" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="F127" s="10"/>
-      <c r="G127" s="49"/>
-      <c r="H127" s="10"/>
-      <c r="I127" s="10"/>
+      <c r="E127" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="F127" s="34"/>
+      <c r="G127" s="39"/>
+      <c r="H127" s="34"/>
+      <c r="I127" s="34"/>
     </row>
     <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="B128" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C128" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="D128" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="E128" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="B128" s="49" t="s">
+        <v>178</v>
+      </c>
+      <c r="C128" s="51" t="s">
+        <v>167</v>
+      </c>
+      <c r="D128" s="49" t="s">
         <v>183</v>
       </c>
+      <c r="E128" s="49" t="s">
+        <v>184</v>
+      </c>
       <c r="F128" s="34"/>
-      <c r="G128" s="39"/>
+      <c r="G128" s="51"/>
       <c r="H128" s="34"/>
       <c r="I128" s="34"/>
     </row>
     <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="B129" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="C129" s="51" t="s">
-        <v>168</v>
-      </c>
-      <c r="D129" s="49" t="s">
-        <v>184</v>
-      </c>
-      <c r="E129" s="49" t="s">
+        <v>165</v>
+      </c>
+      <c r="B129" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C129" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="D129" s="39" t="s">
         <v>185</v>
       </c>
+      <c r="E129" s="24" t="s">
+        <v>186</v>
+      </c>
       <c r="F129" s="34"/>
-      <c r="G129" s="51"/>
+      <c r="G129" s="39"/>
       <c r="H129" s="34"/>
       <c r="I129" s="34"/>
     </row>
     <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="B130" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="C130" s="39" t="s">
-        <v>168</v>
-      </c>
-      <c r="D130" s="39" t="s">
-        <v>186</v>
-      </c>
-      <c r="E130" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="B130" s="51" t="s">
+        <v>178</v>
+      </c>
+      <c r="C130" s="51" t="s">
+        <v>171</v>
+      </c>
+      <c r="D130" s="51" t="s">
         <v>187</v>
       </c>
+      <c r="E130" s="52" t="s">
+        <v>188</v>
+      </c>
       <c r="F130" s="34"/>
-      <c r="G130" s="39"/>
+      <c r="G130" s="51"/>
       <c r="H130" s="34"/>
       <c r="I130" s="34"/>
     </row>
     <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="B131" s="51" t="s">
-        <v>179</v>
-      </c>
-      <c r="C131" s="51" t="s">
-        <v>172</v>
-      </c>
-      <c r="D131" s="51" t="s">
-        <v>188</v>
-      </c>
-      <c r="E131" s="52" t="s">
+        <v>165</v>
+      </c>
+      <c r="B131" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C131" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="D131" s="39" t="s">
         <v>189</v>
       </c>
+      <c r="E131" s="24" t="s">
+        <v>190</v>
+      </c>
       <c r="F131" s="34"/>
-      <c r="G131" s="51"/>
+      <c r="G131" s="39"/>
       <c r="H131" s="34"/>
       <c r="I131" s="34"/>
     </row>
     <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="B132" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="C132" s="39" t="s">
-        <v>172</v>
-      </c>
-      <c r="D132" s="39" t="s">
-        <v>190</v>
-      </c>
-      <c r="E132" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="B132" s="51" t="s">
+        <v>178</v>
+      </c>
+      <c r="C132" s="51" t="s">
+        <v>175</v>
+      </c>
+      <c r="D132" s="51" t="s">
         <v>191</v>
       </c>
+      <c r="E132" s="52" t="s">
+        <v>192</v>
+      </c>
       <c r="F132" s="34"/>
-      <c r="G132" s="39"/>
+      <c r="G132" s="51"/>
       <c r="H132" s="34"/>
       <c r="I132" s="34"/>
     </row>
     <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="B133" s="51" t="s">
-        <v>179</v>
-      </c>
-      <c r="C133" s="51" t="s">
-        <v>176</v>
-      </c>
-      <c r="D133" s="51" t="s">
-        <v>192</v>
-      </c>
-      <c r="E133" s="52" t="s">
+        <v>165</v>
+      </c>
+      <c r="B133" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C133" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="D133" s="39" t="s">
         <v>193</v>
       </c>
+      <c r="E133" s="24" t="s">
+        <v>194</v>
+      </c>
       <c r="F133" s="34"/>
-      <c r="G133" s="51"/>
+      <c r="G133" s="39"/>
       <c r="H133" s="34"/>
       <c r="I133" s="34"/>
     </row>
     <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="B134" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="C134" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="D134" s="39" t="s">
-        <v>194</v>
-      </c>
-      <c r="E134" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="B134" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C134" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="D134" s="28" t="s">
         <v>195</v>
       </c>
+      <c r="E134" s="29" t="s">
+        <v>196</v>
+      </c>
       <c r="F134" s="34"/>
-      <c r="G134" s="39"/>
+      <c r="G134" s="28"/>
       <c r="H134" s="34"/>
       <c r="I134" s="34"/>
     </row>
     <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="36" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B135" s="28" t="s">
         <v>7</v>
@@ -5261,10 +5257,10 @@
         <v>114</v>
       </c>
       <c r="D135" s="28" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E135" s="29" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F135" s="34"/>
       <c r="G135" s="28"/>
@@ -5273,7 +5269,7 @@
     </row>
     <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="36" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B136" s="28" t="s">
         <v>7</v>
@@ -5282,10 +5278,10 @@
         <v>114</v>
       </c>
       <c r="D136" s="28" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E136" s="29" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F136" s="34"/>
       <c r="G136" s="28"/>
@@ -5294,19 +5290,19 @@
     </row>
     <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="36" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B137" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C137" s="28" t="s">
-        <v>114</v>
+        <v>167</v>
       </c>
       <c r="D137" s="28" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E137" s="29" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F137" s="34"/>
       <c r="G137" s="28"/>
@@ -5315,19 +5311,19 @@
     </row>
     <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="36" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B138" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C138" s="28" t="s">
-        <v>168</v>
+        <v>203</v>
       </c>
       <c r="D138" s="28" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E138" s="29" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F138" s="34"/>
       <c r="G138" s="28"/>
@@ -5336,82 +5332,82 @@
     </row>
     <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="B139" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="C139" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="D139" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="E139" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="B139" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C139" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="D139" s="39" t="s">
         <v>206</v>
       </c>
+      <c r="E139" s="24" t="s">
+        <v>207</v>
+      </c>
       <c r="F139" s="34"/>
-      <c r="G139" s="28"/>
+      <c r="G139" s="39"/>
       <c r="H139" s="34"/>
       <c r="I139" s="34"/>
     </row>
     <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="B140" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="C140" s="39" t="s">
-        <v>204</v>
-      </c>
-      <c r="D140" s="39" t="s">
-        <v>207</v>
-      </c>
-      <c r="E140" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="B140" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C140" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="D140" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="F140" s="34"/>
-      <c r="G140" s="39"/>
-      <c r="H140" s="34"/>
-      <c r="I140" s="34"/>
+      <c r="E140" s="40" t="s">
+        <v>209</v>
+      </c>
+      <c r="F140" s="10"/>
+      <c r="G140" s="9"/>
+      <c r="H140" s="10"/>
+      <c r="I140" s="10"/>
     </row>
     <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="B141" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C141" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="D141" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="E141" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="B141" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="C141" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="D141" s="35" t="s">
         <v>210</v>
       </c>
+      <c r="E141" s="37" t="s">
+        <v>211</v>
+      </c>
       <c r="F141" s="10"/>
-      <c r="G141" s="9"/>
+      <c r="G141" s="35"/>
       <c r="H141" s="10"/>
       <c r="I141" s="10"/>
     </row>
     <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="36" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B142" s="35" t="s">
         <v>113</v>
       </c>
       <c r="C142" s="35" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D142" s="35" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E142" s="37" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F142" s="10"/>
       <c r="G142" s="35"/>
@@ -5420,19 +5416,19 @@
     </row>
     <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="36" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B143" s="35" t="s">
         <v>113</v>
       </c>
       <c r="C143" s="35" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D143" s="35" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E143" s="37" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F143" s="10"/>
       <c r="G143" s="35"/>
@@ -5441,61 +5437,61 @@
     </row>
     <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="B144" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="C144" s="35" t="s">
-        <v>204</v>
-      </c>
-      <c r="D144" s="35" t="s">
-        <v>215</v>
-      </c>
-      <c r="E144" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="B144" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C144" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="D144" s="14" t="s">
         <v>216</v>
       </c>
+      <c r="E144" s="38" t="s">
+        <v>217</v>
+      </c>
       <c r="F144" s="10"/>
-      <c r="G144" s="35"/>
+      <c r="G144" s="14"/>
       <c r="H144" s="10"/>
       <c r="I144" s="10"/>
     </row>
     <row r="145" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="B145" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C145" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="D145" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="E145" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="B145" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C145" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="D145" s="13" t="s">
         <v>218</v>
       </c>
+      <c r="E145" s="31" t="s">
+        <v>219</v>
+      </c>
       <c r="F145" s="10"/>
-      <c r="G145" s="14"/>
+      <c r="G145" s="13"/>
       <c r="H145" s="10"/>
       <c r="I145" s="10"/>
     </row>
     <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="36" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B146" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C146" s="13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D146" s="13" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E146" s="31" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F146" s="10"/>
       <c r="G146" s="13"/>
@@ -5504,19 +5500,19 @@
     </row>
     <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="36" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B147" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C147" s="13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D147" s="13" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E147" s="31" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F147" s="10"/>
       <c r="G147" s="13"/>
@@ -5525,61 +5521,61 @@
     </row>
     <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="B148" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C148" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="D148" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="E148" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="B148" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C148" s="9" t="s">
         <v>224</v>
       </c>
+      <c r="D148" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="E148" s="40" t="s">
+        <v>226</v>
+      </c>
       <c r="F148" s="10"/>
-      <c r="G148" s="13"/>
+      <c r="G148" s="9"/>
       <c r="H148" s="10"/>
       <c r="I148" s="10"/>
     </row>
     <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="B149" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C149" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="D149" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="E149" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="B149" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="C149" s="35" t="s">
+        <v>224</v>
+      </c>
+      <c r="D149" s="35" t="s">
         <v>227</v>
       </c>
+      <c r="E149" s="37" t="s">
+        <v>228</v>
+      </c>
       <c r="F149" s="10"/>
-      <c r="G149" s="9"/>
+      <c r="G149" s="35"/>
       <c r="H149" s="10"/>
       <c r="I149" s="10"/>
     </row>
     <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="36" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B150" s="35" t="s">
         <v>113</v>
       </c>
       <c r="C150" s="35" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D150" s="35" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E150" s="37" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F150" s="10"/>
       <c r="G150" s="35"/>
@@ -5588,61 +5584,61 @@
     </row>
     <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="B151" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="C151" s="35" t="s">
-        <v>225</v>
-      </c>
-      <c r="D151" s="35" t="s">
-        <v>230</v>
-      </c>
-      <c r="E151" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="B151" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C151" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="D151" s="14" t="s">
         <v>231</v>
       </c>
+      <c r="E151" s="38" t="s">
+        <v>232</v>
+      </c>
       <c r="F151" s="10"/>
-      <c r="G151" s="35"/>
+      <c r="G151" s="14"/>
       <c r="H151" s="10"/>
       <c r="I151" s="10"/>
     </row>
     <row r="152" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="B152" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C152" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="D152" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="E152" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="B152" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C152" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="D152" s="13" t="s">
         <v>233</v>
       </c>
+      <c r="E152" s="31" t="s">
+        <v>234</v>
+      </c>
       <c r="F152" s="10"/>
-      <c r="G152" s="14"/>
+      <c r="G152" s="13"/>
       <c r="H152" s="10"/>
       <c r="I152" s="10"/>
     </row>
     <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="36" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B153" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C153" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D153" s="13" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E153" s="31" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F153" s="10"/>
       <c r="G153" s="13"/>
@@ -5651,19 +5647,19 @@
     </row>
     <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="36" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B154" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C154" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D154" s="13" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E154" s="31" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F154" s="10"/>
       <c r="G154" s="13"/>
@@ -5672,61 +5668,61 @@
     </row>
     <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="B155" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C155" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="D155" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="E155" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="B155" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C155" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="D155" s="9" t="s">
         <v>239</v>
       </c>
+      <c r="E155" s="40" t="s">
+        <v>240</v>
+      </c>
       <c r="F155" s="10"/>
-      <c r="G155" s="13"/>
+      <c r="G155" s="9"/>
       <c r="H155" s="10"/>
       <c r="I155" s="10"/>
     </row>
     <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="B156" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C156" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D156" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="E156" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="B156" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="C156" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="D156" s="35" t="s">
         <v>241</v>
       </c>
+      <c r="E156" s="37" t="s">
+        <v>242</v>
+      </c>
       <c r="F156" s="10"/>
-      <c r="G156" s="9"/>
+      <c r="G156" s="35"/>
       <c r="H156" s="10"/>
       <c r="I156" s="10"/>
     </row>
     <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="36" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B157" s="35" t="s">
         <v>113</v>
       </c>
       <c r="C157" s="35" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D157" s="35" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E157" s="37" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F157" s="10"/>
       <c r="G157" s="35"/>
@@ -5735,84 +5731,84 @@
     </row>
     <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="B158" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="C158" s="35" t="s">
-        <v>176</v>
-      </c>
-      <c r="D158" s="35" t="s">
-        <v>244</v>
-      </c>
-      <c r="E158" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="B158" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C158" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="D158" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="F158" s="10"/>
-      <c r="G158" s="35"/>
+      <c r="E158" s="38" t="s">
+        <v>246</v>
+      </c>
+      <c r="F158" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="G158" s="14"/>
       <c r="H158" s="10"/>
       <c r="I158" s="10"/>
     </row>
     <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="36" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B159" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C159" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D159" s="14" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E159" s="38" t="s">
-        <v>247</v>
-      </c>
-      <c r="F159" s="14" t="s">
-        <v>248</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="F159" s="10"/>
       <c r="G159" s="14"/>
       <c r="H159" s="10"/>
       <c r="I159" s="10"/>
     </row>
     <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="B160" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C160" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="D160" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="E160" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="B160" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C160" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="D160" s="13" t="s">
         <v>250</v>
       </c>
+      <c r="E160" s="31" t="s">
+        <v>251</v>
+      </c>
       <c r="F160" s="10"/>
-      <c r="G160" s="14"/>
+      <c r="G160" s="13"/>
       <c r="H160" s="10"/>
       <c r="I160" s="10"/>
     </row>
     <row r="161" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="36" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B161" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C161" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D161" s="13" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E161" s="31" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F161" s="10"/>
       <c r="G161" s="13"/>
@@ -5821,19 +5817,19 @@
     </row>
     <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="36" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B162" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C162" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D162" s="13" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E162" s="31" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F162" s="10"/>
       <c r="G162" s="13"/>
@@ -5842,810 +5838,789 @@
     </row>
     <row r="163" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="B163" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C163" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="D163" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="E163" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="B163" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C163" s="9" t="s">
         <v>256</v>
       </c>
+      <c r="D163" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="E163" s="40" t="s">
+        <v>258</v>
+      </c>
       <c r="F163" s="10"/>
-      <c r="G163" s="13"/>
+      <c r="G163" s="9"/>
       <c r="H163" s="10"/>
       <c r="I163" s="10"/>
     </row>
     <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="B164" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C164" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="D164" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="E164" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="B164" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="C164" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="D164" s="35" t="s">
         <v>259</v>
       </c>
+      <c r="E164" s="37" t="s">
+        <v>260</v>
+      </c>
       <c r="F164" s="10"/>
-      <c r="G164" s="9"/>
+      <c r="G164" s="35"/>
       <c r="H164" s="10"/>
       <c r="I164" s="10"/>
     </row>
     <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="B165" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="C165" s="35" t="s">
-        <v>257</v>
-      </c>
-      <c r="D165" s="35" t="s">
-        <v>260</v>
-      </c>
-      <c r="E165" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="B165" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C165" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="D165" s="13" t="s">
         <v>261</v>
       </c>
+      <c r="E165" s="31" t="s">
+        <v>262</v>
+      </c>
       <c r="F165" s="10"/>
-      <c r="G165" s="35"/>
+      <c r="G165" s="13"/>
       <c r="H165" s="10"/>
       <c r="I165" s="10"/>
     </row>
     <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="B166" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C166" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="D166" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="E166" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="B166" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C166" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D166" s="9" t="s">
         <v>263</v>
       </c>
+      <c r="E166" s="40" t="s">
+        <v>264</v>
+      </c>
       <c r="F166" s="10"/>
-      <c r="G166" s="13"/>
+      <c r="G166" s="9"/>
       <c r="H166" s="10"/>
       <c r="I166" s="10"/>
     </row>
     <row r="167" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="B167" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C167" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="D167" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="E167" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="B167" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="C167" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="D167" s="35" t="s">
         <v>265</v>
       </c>
+      <c r="E167" s="37" t="s">
+        <v>266</v>
+      </c>
       <c r="F167" s="10"/>
-      <c r="G167" s="9"/>
+      <c r="G167" s="35"/>
       <c r="H167" s="10"/>
       <c r="I167" s="10"/>
     </row>
     <row r="168" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="B168" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="C168" s="35" t="s">
-        <v>172</v>
-      </c>
-      <c r="D168" s="35" t="s">
-        <v>266</v>
-      </c>
-      <c r="E168" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="B168" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C168" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D168" s="13" t="s">
         <v>267</v>
       </c>
+      <c r="E168" s="31" t="s">
+        <v>268</v>
+      </c>
       <c r="F168" s="10"/>
-      <c r="G168" s="35"/>
+      <c r="G168" s="13"/>
       <c r="H168" s="10"/>
       <c r="I168" s="10"/>
     </row>
     <row r="169" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="B169" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C169" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="D169" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="E169" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="B169" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C169" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="D169" s="9" t="s">
         <v>269</v>
       </c>
+      <c r="E169" s="40" t="s">
+        <v>270</v>
+      </c>
       <c r="F169" s="10"/>
-      <c r="G169" s="13"/>
+      <c r="G169" s="9"/>
       <c r="H169" s="10"/>
       <c r="I169" s="10"/>
     </row>
     <row r="170" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="B170" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C170" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="D170" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="E170" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="B170" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C170" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="D170" s="13" t="s">
         <v>271</v>
       </c>
+      <c r="E170" s="31" t="s">
+        <v>272</v>
+      </c>
       <c r="F170" s="10"/>
-      <c r="G170" s="9"/>
+      <c r="G170" s="13"/>
       <c r="H170" s="10"/>
       <c r="I170" s="10"/>
     </row>
     <row r="171" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="B171" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C171" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="D171" s="13" t="s">
-        <v>272</v>
-      </c>
-      <c r="E171" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="B171" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C171" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D171" s="9" t="s">
         <v>273</v>
       </c>
+      <c r="E171" s="40" t="s">
+        <v>274</v>
+      </c>
       <c r="F171" s="10"/>
-      <c r="G171" s="13"/>
+      <c r="G171" s="9"/>
       <c r="H171" s="10"/>
       <c r="I171" s="10"/>
     </row>
     <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="B172" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C172" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="D172" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="E172" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="B172" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="C172" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="D172" s="35" t="s">
         <v>275</v>
       </c>
+      <c r="E172" s="37" t="s">
+        <v>276</v>
+      </c>
       <c r="F172" s="10"/>
-      <c r="G172" s="9"/>
+      <c r="G172" s="35"/>
       <c r="H172" s="10"/>
       <c r="I172" s="10"/>
     </row>
     <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="B173" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="C173" s="35" t="s">
-        <v>172</v>
-      </c>
-      <c r="D173" s="35" t="s">
-        <v>276</v>
-      </c>
-      <c r="E173" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="B173" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C173" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D173" s="13" t="s">
         <v>277</v>
       </c>
+      <c r="E173" s="31" t="s">
+        <v>278</v>
+      </c>
       <c r="F173" s="10"/>
-      <c r="G173" s="35"/>
+      <c r="G173" s="13"/>
       <c r="H173" s="10"/>
       <c r="I173" s="10"/>
     </row>
     <row r="174" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="B174" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C174" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="D174" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="E174" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="B174" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C174" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="D174" s="9" t="s">
         <v>279</v>
       </c>
+      <c r="E174" s="40" t="s">
+        <v>280</v>
+      </c>
       <c r="F174" s="10"/>
-      <c r="G174" s="13"/>
+      <c r="G174" s="9"/>
       <c r="H174" s="10"/>
       <c r="I174" s="10"/>
     </row>
     <row r="175" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="B175" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C175" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="D175" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="E175" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="B175" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="C175" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="D175" s="35" t="s">
         <v>281</v>
       </c>
+      <c r="E175" s="37" t="s">
+        <v>282</v>
+      </c>
       <c r="F175" s="10"/>
-      <c r="G175" s="9"/>
+      <c r="G175" s="35"/>
       <c r="H175" s="10"/>
       <c r="I175" s="10"/>
     </row>
     <row r="176" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="B176" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="C176" s="35" t="s">
-        <v>176</v>
-      </c>
-      <c r="D176" s="35" t="s">
-        <v>282</v>
-      </c>
-      <c r="E176" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="B176" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C176" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="D176" s="13" t="s">
         <v>283</v>
       </c>
+      <c r="E176" s="31" t="s">
+        <v>284</v>
+      </c>
       <c r="F176" s="10"/>
-      <c r="G176" s="35"/>
+      <c r="G176" s="13"/>
       <c r="H176" s="10"/>
       <c r="I176" s="10"/>
     </row>
     <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="B177" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C177" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="D177" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="E177" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="B177" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C177" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="D177" s="9" t="s">
         <v>285</v>
       </c>
+      <c r="E177" s="40" t="s">
+        <v>286</v>
+      </c>
       <c r="F177" s="10"/>
-      <c r="G177" s="13"/>
+      <c r="G177" s="9"/>
       <c r="H177" s="10"/>
       <c r="I177" s="10"/>
     </row>
     <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="B178" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C178" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="D178" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="E178" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="B178" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="C178" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="D178" s="35" t="s">
         <v>287</v>
       </c>
+      <c r="E178" s="37" t="s">
+        <v>288</v>
+      </c>
       <c r="F178" s="10"/>
-      <c r="G178" s="9"/>
+      <c r="G178" s="35"/>
       <c r="H178" s="10"/>
       <c r="I178" s="10"/>
     </row>
     <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="B179" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="C179" s="35" t="s">
-        <v>204</v>
-      </c>
-      <c r="D179" s="35" t="s">
-        <v>288</v>
-      </c>
-      <c r="E179" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="B179" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C179" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="D179" s="13" t="s">
         <v>289</v>
       </c>
+      <c r="E179" s="31" t="s">
+        <v>290</v>
+      </c>
       <c r="F179" s="10"/>
-      <c r="G179" s="35"/>
+      <c r="G179" s="13"/>
       <c r="H179" s="10"/>
       <c r="I179" s="10"/>
     </row>
     <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="B180" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C180" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="D180" s="13" t="s">
-        <v>290</v>
-      </c>
-      <c r="E180" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="B180" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C180" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="D180" s="9" t="s">
         <v>291</v>
       </c>
+      <c r="E180" s="40" t="s">
+        <v>292</v>
+      </c>
       <c r="F180" s="10"/>
-      <c r="G180" s="13"/>
+      <c r="G180" s="9"/>
       <c r="H180" s="10"/>
       <c r="I180" s="10"/>
     </row>
     <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="B181" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C181" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="D181" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="E181" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="B181" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C181" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="D181" s="13" t="s">
         <v>293</v>
       </c>
+      <c r="E181" s="31" t="s">
+        <v>294</v>
+      </c>
       <c r="F181" s="10"/>
-      <c r="G181" s="9"/>
+      <c r="G181" s="13"/>
       <c r="H181" s="10"/>
       <c r="I181" s="10"/>
     </row>
     <row r="182" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="B182" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C182" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="D182" s="13" t="s">
-        <v>294</v>
-      </c>
-      <c r="E182" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="B182" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C182" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="D182" s="9" t="s">
         <v>295</v>
       </c>
+      <c r="E182" s="40" t="s">
+        <v>296</v>
+      </c>
       <c r="F182" s="10"/>
-      <c r="G182" s="13"/>
+      <c r="G182" s="9"/>
       <c r="H182" s="10"/>
       <c r="I182" s="10"/>
     </row>
     <row r="183" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="B183" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C183" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="D183" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="E183" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="B183" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C183" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="D183" s="13" t="s">
         <v>297</v>
       </c>
+      <c r="E183" s="31" t="s">
+        <v>298</v>
+      </c>
       <c r="F183" s="10"/>
-      <c r="G183" s="9"/>
-      <c r="H183" s="10"/>
+      <c r="G183" s="13"/>
+      <c r="H183" s="10">
+        <v>40</v>
+      </c>
       <c r="I183" s="10"/>
     </row>
     <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="B184" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C184" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="D184" s="13" t="s">
-        <v>298</v>
-      </c>
-      <c r="E184" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="B184" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C184" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="D184" s="9" t="s">
         <v>299</v>
       </c>
+      <c r="E184" s="40" t="s">
+        <v>300</v>
+      </c>
       <c r="F184" s="10"/>
-      <c r="G184" s="13"/>
-      <c r="H184" s="10">
-        <v>40</v>
-      </c>
+      <c r="G184" s="9"/>
+      <c r="H184" s="10"/>
       <c r="I184" s="10"/>
     </row>
     <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="B185" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C185" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="D185" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="E185" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="B185" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C185" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="D185" s="13" t="s">
         <v>301</v>
       </c>
+      <c r="E185" s="31" t="s">
+        <v>302</v>
+      </c>
       <c r="F185" s="10"/>
-      <c r="G185" s="9"/>
+      <c r="G185" s="13"/>
       <c r="H185" s="10"/>
       <c r="I185" s="10"/>
     </row>
     <row r="186" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="B186" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C186" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="D186" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="E186" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="B186" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C186" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D186" s="9" t="s">
         <v>303</v>
       </c>
+      <c r="E186" s="40" t="s">
+        <v>304</v>
+      </c>
       <c r="F186" s="10"/>
-      <c r="G186" s="13"/>
+      <c r="G186" s="9"/>
       <c r="H186" s="10"/>
       <c r="I186" s="10"/>
     </row>
     <row r="187" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="B187" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C187" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="D187" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="E187" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="B187" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="C187" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="D187" s="35" t="s">
         <v>305</v>
       </c>
+      <c r="E187" s="37" t="s">
+        <v>306</v>
+      </c>
       <c r="F187" s="10"/>
-      <c r="G187" s="9"/>
+      <c r="G187" s="35"/>
       <c r="H187" s="10"/>
       <c r="I187" s="10"/>
     </row>
     <row r="188" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="B188" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="C188" s="35" t="s">
-        <v>172</v>
-      </c>
-      <c r="D188" s="35" t="s">
-        <v>306</v>
-      </c>
-      <c r="E188" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="B188" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C188" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="D188" s="14" t="s">
         <v>307</v>
       </c>
+      <c r="E188" s="38" t="s">
+        <v>308</v>
+      </c>
       <c r="F188" s="10"/>
-      <c r="G188" s="35"/>
+      <c r="G188" s="14"/>
       <c r="H188" s="10"/>
       <c r="I188" s="10"/>
     </row>
     <row r="189" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="B189" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C189" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="D189" s="14" t="s">
-        <v>308</v>
-      </c>
-      <c r="E189" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="B189" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C189" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D189" s="13" t="s">
         <v>309</v>
       </c>
+      <c r="E189" s="31" t="s">
+        <v>310</v>
+      </c>
       <c r="F189" s="10"/>
-      <c r="G189" s="14"/>
+      <c r="G189" s="13"/>
       <c r="H189" s="10"/>
       <c r="I189" s="10"/>
     </row>
     <row r="190" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="B190" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C190" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="D190" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="E190" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="B190" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C190" s="9" t="s">
         <v>311</v>
       </c>
+      <c r="D190" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="E190" s="40" t="s">
+        <v>313</v>
+      </c>
       <c r="F190" s="10"/>
-      <c r="G190" s="13"/>
-      <c r="H190" s="10"/>
+      <c r="G190" s="9"/>
+      <c r="H190" s="10">
+        <v>100</v>
+      </c>
       <c r="I190" s="10"/>
     </row>
     <row r="191" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="B191" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C191" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="D191" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="E191" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="B191" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C191" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="D191" s="13" t="s">
         <v>314</v>
       </c>
+      <c r="E191" s="31" t="s">
+        <v>315</v>
+      </c>
       <c r="F191" s="10"/>
-      <c r="G191" s="9"/>
-      <c r="H191" s="10">
-        <v>100</v>
-      </c>
+      <c r="G191" s="13"/>
+      <c r="H191" s="10"/>
       <c r="I191" s="10"/>
     </row>
     <row r="192" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="B192" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C192" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="D192" s="13" t="s">
-        <v>315</v>
-      </c>
-      <c r="E192" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="B192" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C192" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D192" s="9" t="s">
         <v>316</v>
       </c>
+      <c r="E192" s="40" t="s">
+        <v>317</v>
+      </c>
       <c r="F192" s="10"/>
-      <c r="G192" s="13"/>
+      <c r="G192" s="9"/>
       <c r="H192" s="10"/>
       <c r="I192" s="10"/>
     </row>
     <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="B193" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C193" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="D193" s="9" t="s">
-        <v>317</v>
-      </c>
-      <c r="E193" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="B193" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C193" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D193" s="13" t="s">
         <v>318</v>
       </c>
+      <c r="E193" s="31" t="s">
+        <v>319</v>
+      </c>
       <c r="F193" s="10"/>
-      <c r="G193" s="9"/>
+      <c r="G193" s="13"/>
       <c r="H193" s="10"/>
       <c r="I193" s="10"/>
     </row>
     <row r="194" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="B194" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C194" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="D194" s="13" t="s">
-        <v>319</v>
-      </c>
-      <c r="E194" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="B194" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C194" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="D194" s="9" t="s">
         <v>320</v>
       </c>
+      <c r="E194" s="40" t="s">
+        <v>321</v>
+      </c>
       <c r="F194" s="10"/>
-      <c r="G194" s="13"/>
-      <c r="H194" s="10"/>
+      <c r="G194" s="9"/>
+      <c r="H194" s="10">
+        <v>100</v>
+      </c>
       <c r="I194" s="10"/>
     </row>
     <row r="195" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="B195" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C195" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="D195" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="E195" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="B195" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="C195" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="D195" s="35" t="s">
         <v>322</v>
       </c>
+      <c r="E195" s="37" t="s">
+        <v>323</v>
+      </c>
       <c r="F195" s="10"/>
-      <c r="G195" s="9"/>
-      <c r="H195" s="10">
-        <v>100</v>
-      </c>
+      <c r="G195" s="35"/>
+      <c r="H195" s="10"/>
       <c r="I195" s="10"/>
     </row>
     <row r="196" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="B196" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="C196" s="35" t="s">
-        <v>172</v>
-      </c>
-      <c r="D196" s="35" t="s">
-        <v>323</v>
-      </c>
-      <c r="E196" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="B196" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C196" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="D196" s="14" t="s">
         <v>324</v>
       </c>
+      <c r="E196" s="38" t="s">
+        <v>325</v>
+      </c>
       <c r="F196" s="10"/>
-      <c r="G196" s="35"/>
+      <c r="G196" s="14"/>
       <c r="H196" s="10"/>
       <c r="I196" s="10"/>
     </row>
     <row r="197" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="B197" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C197" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="D197" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="E197" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="B197" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C197" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D197" s="13" t="s">
         <v>326</v>
       </c>
+      <c r="E197" s="31" t="s">
+        <v>327</v>
+      </c>
       <c r="F197" s="10"/>
-      <c r="G197" s="14"/>
+      <c r="G197" s="13"/>
       <c r="H197" s="10"/>
       <c r="I197" s="10"/>
     </row>
     <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="B198" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C198" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="D198" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="E198" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="B198" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C198" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="D198" s="9" t="s">
         <v>328</v>
       </c>
+      <c r="E198" s="40" t="s">
+        <v>329</v>
+      </c>
       <c r="F198" s="10"/>
-      <c r="G198" s="13"/>
+      <c r="G198" s="9"/>
       <c r="H198" s="10"/>
       <c r="I198" s="10"/>
     </row>
     <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="36" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B199" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C199" s="9" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D199" s="9" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E199" s="40" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F199" s="10"/>
       <c r="G199" s="9"/>
       <c r="H199" s="10"/>
       <c r="I199" s="10"/>
     </row>
-    <row r="200" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="B200" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C200" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="D200" s="9" t="s">
-        <v>331</v>
-      </c>
-      <c r="E200" s="40" t="s">
-        <v>332</v>
-      </c>
-      <c r="F200" s="10"/>
-      <c r="G200" s="9"/>
-      <c r="H200" s="10"/>
-      <c r="I200" s="10"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="H127:H128">
+  <conditionalFormatting sqref="H126:H127">
     <cfRule type="iconSet" priority="2">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -6654,7 +6629,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H109:H123">
+  <conditionalFormatting sqref="H108:H122">
     <cfRule type="iconSet" priority="3">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>

--- a/GameDesign/Planning_Dust'n'Groove.xlsx
+++ b/GameDesign/Planning_Dust'n'Groove.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="388">
   <si>
     <t>Feature</t>
   </si>
@@ -1058,9 +1058,6 @@
     <t>tile_Platform_Pylon</t>
   </si>
   <si>
-    <t>tile_Platform_ElectricPole</t>
-  </si>
-  <si>
     <t>tile_Platform_Pipe</t>
   </si>
   <si>
@@ -1070,9 +1067,6 @@
     <t>code_Platform</t>
   </si>
   <si>
-    <t>tile_Movable_</t>
-  </si>
-  <si>
     <t>Platforme fixe</t>
   </si>
   <si>
@@ -1188,6 +1182,12 @@
   </si>
   <si>
     <t>Ajout Trello</t>
+  </si>
+  <si>
+    <t>tile_Platform_ElectricPoleTop</t>
+  </si>
+  <si>
+    <t>tile_MovableBloc</t>
   </si>
 </sst>
 </file>
@@ -2252,8 +2252,8 @@
   <dimension ref="A1:AMJ199"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D81" sqref="D81"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J114" sqref="J114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2291,7 +2291,7 @@
         <v>5</v>
       </c>
       <c r="J1" s="110" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="2" spans="1:1024" s="6" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2317,7 +2317,7 @@
         <v>11</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AMJ2" s="7"/>
     </row>
@@ -2332,17 +2332,17 @@
         <v>8</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="9"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
       <c r="J3" s="11" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AMJ3" s="12"/>
     </row>
@@ -2367,7 +2367,7 @@
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
       <c r="J4" s="11" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AMJ4" s="12"/>
     </row>
@@ -2392,7 +2392,7 @@
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
       <c r="J5" s="109" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AMJ5" s="12"/>
     </row>
@@ -2417,7 +2417,7 @@
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
       <c r="J6" s="109" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AMJ6" s="12"/>
     </row>
@@ -2442,7 +2442,7 @@
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="109" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AMJ7" s="12"/>
     </row>
@@ -2457,17 +2457,17 @@
         <v>8</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="14"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="109" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AMJ8" s="12"/>
     </row>
@@ -2494,7 +2494,7 @@
         <v>23</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AMJ9" s="7"/>
     </row>
@@ -2509,10 +2509,10 @@
         <v>8</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="9"/>
@@ -2521,7 +2521,7 @@
         <v>23</v>
       </c>
       <c r="J10" s="109" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AMJ10" s="12"/>
     </row>
@@ -2548,7 +2548,7 @@
         <v>26</v>
       </c>
       <c r="J11" s="109" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AMJ11" s="12"/>
     </row>
@@ -2575,7 +2575,7 @@
         <v>29</v>
       </c>
       <c r="J12" s="109" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AMJ12" s="12"/>
     </row>
@@ -2602,7 +2602,7 @@
         <v>32</v>
       </c>
       <c r="J13" s="109" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AMJ13" s="12"/>
     </row>
@@ -2627,7 +2627,7 @@
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
       <c r="J14" s="109" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AMJ14" s="12"/>
     </row>
@@ -2654,7 +2654,7 @@
         <v>37</v>
       </c>
       <c r="J15" s="109" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AMJ15" s="12"/>
     </row>
@@ -2681,7 +2681,7 @@
         <v>40</v>
       </c>
       <c r="J16" s="109" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AMJ16" s="12"/>
     </row>
@@ -2706,7 +2706,7 @@
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
       <c r="J17" s="109" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AMJ17" s="12"/>
     </row>
@@ -2733,7 +2733,7 @@
         <v>40</v>
       </c>
       <c r="J18" s="109" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AMJ18" s="12"/>
     </row>
@@ -2758,7 +2758,7 @@
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
       <c r="J19" s="109" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AMJ19" s="12"/>
     </row>
@@ -2783,7 +2783,7 @@
         <v>49</v>
       </c>
       <c r="J20" s="109" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AMJ20" s="12"/>
     </row>
@@ -2798,17 +2798,17 @@
         <v>8</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="14"/>
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
       <c r="J21" s="109" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AMJ21" s="12"/>
     </row>
@@ -2833,7 +2833,7 @@
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
       <c r="J22" s="6" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AMJ22" s="7"/>
     </row>
@@ -2860,7 +2860,7 @@
         <v>23</v>
       </c>
       <c r="J23" s="109" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AMJ23" s="12"/>
     </row>
@@ -2887,7 +2887,7 @@
         <v>23</v>
       </c>
       <c r="J24" s="109" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AMJ24" s="12"/>
     </row>
@@ -2912,7 +2912,7 @@
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
       <c r="J25" s="109" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AMJ25" s="12"/>
     </row>
@@ -2937,7 +2937,7 @@
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
       <c r="J26" s="109" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AMJ26" s="12"/>
     </row>
@@ -2962,7 +2962,7 @@
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
       <c r="J27" s="109" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AMJ27" s="12"/>
     </row>
@@ -2987,7 +2987,7 @@
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
       <c r="J28" s="109" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AMJ28" s="12"/>
     </row>
@@ -3014,7 +3014,7 @@
         <v>23</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AMJ29" s="7"/>
     </row>
@@ -3041,7 +3041,7 @@
         <v>23</v>
       </c>
       <c r="J30" s="109" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AMJ30" s="12"/>
     </row>
@@ -3066,7 +3066,7 @@
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
       <c r="J31" s="109" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AMJ31" s="12"/>
     </row>
@@ -3091,7 +3091,7 @@
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
       <c r="J32" s="109" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AMJ32" s="12"/>
     </row>
@@ -3116,7 +3116,7 @@
       <c r="H33" s="17"/>
       <c r="I33" s="17"/>
       <c r="J33" s="18" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AMJ33" s="19"/>
     </row>
@@ -3143,7 +3143,7 @@
         <v>63</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AMJ34" s="7"/>
     </row>
@@ -3170,7 +3170,7 @@
         <v>23</v>
       </c>
       <c r="J35" s="109" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AMJ35" s="12"/>
     </row>
@@ -3197,7 +3197,7 @@
         <v>23</v>
       </c>
       <c r="J36" s="109" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AMJ36" s="12"/>
     </row>
@@ -3224,7 +3224,7 @@
         <v>23</v>
       </c>
       <c r="J37" s="109" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AMJ37" s="12"/>
     </row>
@@ -3251,7 +3251,7 @@
         <v>23</v>
       </c>
       <c r="J38" s="109" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AMJ38" s="12"/>
     </row>
@@ -3276,7 +3276,7 @@
       <c r="H39" s="10"/>
       <c r="I39" s="10"/>
       <c r="J39" s="109" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AMJ39" s="12"/>
     </row>
@@ -3303,7 +3303,7 @@
         <v>68</v>
       </c>
       <c r="J40" s="109" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AMJ40" s="12"/>
     </row>
@@ -3330,7 +3330,7 @@
         <v>71</v>
       </c>
       <c r="J41" s="109" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AMJ41" s="12"/>
     </row>
@@ -3355,7 +3355,7 @@
       <c r="H42" s="10"/>
       <c r="I42" s="25"/>
       <c r="J42" s="109" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AMJ42" s="12"/>
     </row>
@@ -3380,7 +3380,7 @@
       <c r="H43" s="5"/>
       <c r="I43" s="27"/>
       <c r="J43" s="6" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AMJ43" s="7"/>
     </row>
@@ -3403,7 +3403,7 @@
       <c r="H44" s="10"/>
       <c r="I44" s="22"/>
       <c r="J44" s="109" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AMJ44" s="12"/>
     </row>
@@ -3426,7 +3426,7 @@
       <c r="H45" s="10"/>
       <c r="I45" s="22"/>
       <c r="J45" s="109" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AMJ45" s="12"/>
     </row>
@@ -3449,7 +3449,7 @@
       <c r="H46" s="10"/>
       <c r="I46" s="10"/>
       <c r="J46" s="109" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AMJ46" s="12"/>
     </row>
@@ -3472,7 +3472,7 @@
       <c r="H47" s="10"/>
       <c r="I47" s="22"/>
       <c r="J47" s="109" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AMJ47" s="12"/>
     </row>
@@ -3499,7 +3499,7 @@
         <v>88</v>
       </c>
       <c r="J48" s="6" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AMJ48" s="7"/>
     </row>
@@ -3524,7 +3524,7 @@
         <v>88</v>
       </c>
       <c r="J49" s="109" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AMJ49" s="12"/>
     </row>
@@ -3549,7 +3549,7 @@
         <v>88</v>
       </c>
       <c r="J50" s="109" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AMJ50" s="12"/>
     </row>
@@ -3572,7 +3572,7 @@
       <c r="H51" s="10"/>
       <c r="I51" s="22"/>
       <c r="J51" s="109" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AMJ51" s="12"/>
     </row>
@@ -3595,7 +3595,7 @@
       <c r="H52" s="10"/>
       <c r="I52" s="22"/>
       <c r="J52" s="109" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AMJ52" s="12"/>
     </row>
@@ -3620,7 +3620,7 @@
         <v>23</v>
       </c>
       <c r="J53" s="109" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AMJ53" s="12"/>
     </row>
@@ -3643,7 +3643,7 @@
       <c r="H54" s="10"/>
       <c r="I54" s="22"/>
       <c r="J54" s="109" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AMJ54" s="12"/>
     </row>
@@ -3656,7 +3656,7 @@
         <v>85</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E55" s="13" t="s">
         <v>99</v>
@@ -3666,7 +3666,7 @@
       <c r="H55" s="10"/>
       <c r="I55" s="22"/>
       <c r="J55" s="109" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AMJ55" s="12"/>
     </row>
@@ -3679,17 +3679,17 @@
         <v>85</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F56" s="10"/>
       <c r="G56" s="13"/>
       <c r="H56" s="10"/>
       <c r="I56" s="22"/>
       <c r="J56" s="109" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AMJ56" s="12"/>
     </row>
@@ -3714,7 +3714,7 @@
         <v>23</v>
       </c>
       <c r="J57" s="11" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AMJ57" s="12"/>
     </row>
@@ -3737,7 +3737,7 @@
       <c r="H58" s="10"/>
       <c r="I58" s="10"/>
       <c r="J58" s="109" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AMJ58" s="12"/>
     </row>
@@ -3760,7 +3760,7 @@
       <c r="H59" s="10"/>
       <c r="I59" s="10"/>
       <c r="J59" s="109" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AMJ59" s="12"/>
     </row>
@@ -3783,7 +3783,7 @@
       <c r="H60" s="10"/>
       <c r="I60" s="10"/>
       <c r="J60" s="109" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AMJ60" s="12"/>
     </row>
@@ -3806,7 +3806,7 @@
       <c r="H61" s="10"/>
       <c r="I61" s="10"/>
       <c r="J61" s="109" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AMJ61" s="12"/>
     </row>
@@ -3829,7 +3829,7 @@
       <c r="H62" s="10"/>
       <c r="I62" s="10"/>
       <c r="J62" s="109" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AMJ62" s="12"/>
     </row>
@@ -3852,7 +3852,7 @@
       <c r="H63" s="17"/>
       <c r="I63" s="17"/>
       <c r="J63" s="18" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AMJ63" s="19"/>
     </row>
@@ -3877,7 +3877,7 @@
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
       <c r="J64" s="6" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="65" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -3899,7 +3899,7 @@
       <c r="H65" s="10"/>
       <c r="I65" s="10"/>
       <c r="J65" s="11" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="66" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -3921,7 +3921,7 @@
       <c r="H66" s="10"/>
       <c r="I66" s="10"/>
       <c r="J66" s="11" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="67" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -3943,7 +3943,7 @@
       <c r="H67" s="10"/>
       <c r="I67" s="10"/>
       <c r="J67" s="11" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="68" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -3965,7 +3965,7 @@
       <c r="H68" s="10"/>
       <c r="I68" s="10"/>
       <c r="J68" s="109" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="69" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -3987,7 +3987,7 @@
       <c r="H69" s="10"/>
       <c r="I69" s="10"/>
       <c r="J69" s="109" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="70" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -4009,7 +4009,7 @@
       <c r="H70" s="10"/>
       <c r="I70" s="10"/>
       <c r="J70" s="109" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="71" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -4031,7 +4031,7 @@
       <c r="H71" s="10"/>
       <c r="I71" s="10"/>
       <c r="J71" s="109" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="72" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -4053,7 +4053,7 @@
       <c r="H72" s="10"/>
       <c r="I72" s="10"/>
       <c r="J72" s="109" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="73" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -4075,7 +4075,7 @@
       <c r="H73" s="10"/>
       <c r="I73" s="10"/>
       <c r="J73" s="109" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="74" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -4097,7 +4097,7 @@
       <c r="H74" s="10"/>
       <c r="I74" s="10"/>
       <c r="J74" s="109" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="75" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -4119,7 +4119,7 @@
       <c r="H75" s="10"/>
       <c r="I75" s="10"/>
       <c r="J75" s="109" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="76" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -4141,7 +4141,7 @@
       <c r="H76" s="10"/>
       <c r="I76" s="10"/>
       <c r="J76" s="109" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="77" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -4163,7 +4163,7 @@
       <c r="H77" s="10"/>
       <c r="I77" s="10"/>
       <c r="J77" s="109" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="78" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -4185,7 +4185,7 @@
       <c r="H78" s="10"/>
       <c r="I78" s="10"/>
       <c r="J78" s="109" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="79" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -4207,7 +4207,7 @@
       <c r="H79" s="10"/>
       <c r="I79" s="10"/>
       <c r="J79" s="109" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="80" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -4229,7 +4229,7 @@
       <c r="H80" s="10"/>
       <c r="I80" s="10"/>
       <c r="J80" s="109" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="81" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -4251,7 +4251,7 @@
       <c r="H81" s="10"/>
       <c r="I81" s="10"/>
       <c r="J81" s="109" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="82" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -4272,10 +4272,10 @@
       <c r="G82" s="35"/>
       <c r="H82" s="10"/>
       <c r="I82" s="10" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J82" s="11" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="83" spans="1:10" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4296,10 +4296,10 @@
       <c r="G83" s="35"/>
       <c r="H83" s="10"/>
       <c r="I83" s="10" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J83" s="11" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="84" spans="1:10" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -4345,7 +4345,7 @@
       <c r="H86" s="5"/>
       <c r="I86" s="5"/>
       <c r="J86" s="6" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="87" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -4367,7 +4367,7 @@
       <c r="H87" s="10"/>
       <c r="I87" s="10"/>
       <c r="J87" s="11" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="88" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -4382,14 +4382,14 @@
         <v>158</v>
       </c>
       <c r="E88" s="13" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F88" s="10"/>
       <c r="G88" s="13"/>
       <c r="H88" s="10"/>
       <c r="I88" s="10"/>
       <c r="J88" s="11" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="89" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -4401,17 +4401,17 @@
         <v>153</v>
       </c>
       <c r="D89" s="13" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E89" s="13" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F89" s="10"/>
       <c r="G89" s="13"/>
       <c r="H89" s="10"/>
       <c r="I89" s="10"/>
       <c r="J89" s="11" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="90" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -4426,7 +4426,7 @@
         <v>47</v>
       </c>
       <c r="E90" s="14" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F90" s="10"/>
       <c r="G90" s="14"/>
@@ -4435,7 +4435,7 @@
         <v>23</v>
       </c>
       <c r="J90" s="11" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="91" spans="1:10" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4447,17 +4447,17 @@
         <v>153</v>
       </c>
       <c r="D91" s="14" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E91" s="14" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F91" s="10"/>
       <c r="G91" s="14"/>
       <c r="H91" s="10"/>
       <c r="I91" s="21"/>
       <c r="J91" s="11" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="92" spans="1:10" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -4515,6 +4515,9 @@
       <c r="I95" s="5" t="s">
         <v>340</v>
       </c>
+      <c r="J95" s="6" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="96" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="101"/>
@@ -4534,7 +4537,10 @@
       <c r="G96" s="9"/>
       <c r="H96" s="10"/>
       <c r="I96" s="10" t="s">
-        <v>383</v>
+        <v>381</v>
+      </c>
+      <c r="J96" s="11" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="97" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -4546,7 +4552,7 @@
         <v>160</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E97" s="9" t="s">
         <v>163</v>
@@ -4555,6 +4561,9 @@
       <c r="G97" s="9"/>
       <c r="H97" s="10"/>
       <c r="I97" s="10"/>
+      <c r="J97" s="11" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="98" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="101"/>
@@ -4575,7 +4584,7 @@
       <c r="H98" s="10"/>
       <c r="I98" s="10"/>
       <c r="J98" s="11" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="99" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -4598,6 +4607,9 @@
       <c r="I99" s="10" t="s">
         <v>337</v>
       </c>
+      <c r="J99" s="109" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="100" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="101"/>
@@ -4608,7 +4620,7 @@
         <v>160</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>344</v>
+        <v>386</v>
       </c>
       <c r="E100" s="9" t="s">
         <v>336</v>
@@ -4617,7 +4629,10 @@
       <c r="G100" s="9"/>
       <c r="H100" s="10"/>
       <c r="I100" s="10" t="s">
-        <v>382</v>
+        <v>380</v>
+      </c>
+      <c r="J100" s="109" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="101" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -4629,7 +4644,7 @@
         <v>160</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E101" s="9" t="s">
         <v>338</v>
@@ -4640,6 +4655,9 @@
       <c r="I101" s="10" t="s">
         <v>339</v>
       </c>
+      <c r="J101" s="109" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="102" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="101"/>
@@ -4650,7 +4668,7 @@
         <v>160</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E102" s="9" t="s">
         <v>341</v>
@@ -4661,6 +4679,9 @@
       <c r="I102" s="10" t="s">
         <v>342</v>
       </c>
+      <c r="J102" s="109" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="103" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="101"/>
@@ -4671,15 +4692,18 @@
         <v>160</v>
       </c>
       <c r="D103" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="E103" s="9" t="s">
         <v>348</v>
-      </c>
-      <c r="E103" s="9" t="s">
-        <v>350</v>
       </c>
       <c r="F103" s="10"/>
       <c r="G103" s="9"/>
       <c r="H103" s="10"/>
       <c r="I103" s="10"/>
+      <c r="J103" s="109" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="104" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="101"/>
@@ -4690,16 +4714,19 @@
         <v>160</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F104" s="10"/>
       <c r="G104" s="9"/>
       <c r="H104" s="10"/>
       <c r="I104" s="10" t="s">
-        <v>355</v>
+        <v>353</v>
+      </c>
+      <c r="J104" s="11" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="105" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -4711,15 +4738,18 @@
         <v>160</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F105" s="10"/>
       <c r="G105" s="9"/>
       <c r="H105" s="10"/>
       <c r="I105" s="10"/>
+      <c r="J105" s="109" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="106" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="101"/>
@@ -4730,15 +4760,18 @@
         <v>160</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F106" s="10"/>
       <c r="G106" s="9"/>
       <c r="H106" s="10"/>
       <c r="I106" s="10"/>
+      <c r="J106" s="109" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="107" spans="1:10" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="101"/>
@@ -4793,15 +4826,18 @@
         <v>160</v>
       </c>
       <c r="D111" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="E111" s="13" t="s">
         <v>347</v>
-      </c>
-      <c r="E111" s="13" t="s">
-        <v>349</v>
       </c>
       <c r="F111" s="10"/>
       <c r="G111" s="13"/>
       <c r="H111" s="10"/>
       <c r="I111" s="10"/>
+      <c r="J111" s="11" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="112" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="101"/>
@@ -4812,17 +4848,20 @@
         <v>160</v>
       </c>
       <c r="D112" s="13" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E112" s="13" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F112" s="10"/>
       <c r="G112" s="13"/>
       <c r="H112" s="10"/>
       <c r="I112" s="10"/>
-    </row>
-    <row r="113" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J112" s="11" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="101"/>
       <c r="B113" s="13" t="s">
         <v>12</v>
@@ -4831,7 +4870,7 @@
         <v>160</v>
       </c>
       <c r="D113" s="13" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E113" s="13" t="s">
         <v>163</v>
@@ -4840,8 +4879,11 @@
       <c r="G113" s="13"/>
       <c r="H113" s="10"/>
       <c r="I113" s="10"/>
-    </row>
-    <row r="114" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J113" s="11" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="101"/>
       <c r="B114" s="13" t="s">
         <v>12</v>
@@ -4850,17 +4892,17 @@
         <v>160</v>
       </c>
       <c r="D114" s="13" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E114" s="13" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F114" s="10"/>
       <c r="G114" s="13"/>
       <c r="H114" s="10"/>
       <c r="I114" s="10"/>
     </row>
-    <row r="115" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="101"/>
       <c r="B115" s="13" t="s">
         <v>12</v>
@@ -4869,19 +4911,19 @@
         <v>160</v>
       </c>
       <c r="D115" s="13" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E115" s="13" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F115" s="10"/>
       <c r="G115" s="13"/>
       <c r="H115" s="10"/>
       <c r="I115" s="10" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="101"/>
       <c r="B116" s="13" t="s">
         <v>12</v>
@@ -4890,17 +4932,17 @@
         <v>160</v>
       </c>
       <c r="D116" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="E116" s="13" t="s">
         <v>364</v>
-      </c>
-      <c r="E116" s="13" t="s">
-        <v>366</v>
       </c>
       <c r="F116" s="10"/>
       <c r="G116" s="13"/>
       <c r="H116" s="10"/>
       <c r="I116" s="10"/>
     </row>
-    <row r="117" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="101"/>
       <c r="B117" s="13" t="s">
         <v>12</v>
@@ -4909,17 +4951,17 @@
         <v>160</v>
       </c>
       <c r="D117" s="13" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E117" s="13" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F117" s="10"/>
       <c r="G117" s="13"/>
       <c r="H117" s="10"/>
       <c r="I117" s="10"/>
     </row>
-    <row r="118" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="101"/>
       <c r="B118" s="13" t="s">
         <v>12</v>
@@ -4928,17 +4970,17 @@
         <v>160</v>
       </c>
       <c r="D118" s="13" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E118" s="13" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F118" s="10"/>
       <c r="G118" s="13"/>
       <c r="H118" s="10"/>
       <c r="I118" s="10"/>
     </row>
-    <row r="119" spans="1:9" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="101"/>
       <c r="B119" s="13"/>
       <c r="C119" s="13"/>
@@ -4949,7 +4991,7 @@
       <c r="H119" s="10"/>
       <c r="I119" s="10"/>
     </row>
-    <row r="120" spans="1:9" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="101"/>
       <c r="B120" s="13"/>
       <c r="C120" s="13"/>
@@ -4960,7 +5002,7 @@
       <c r="H120" s="10"/>
       <c r="I120" s="10"/>
     </row>
-    <row r="121" spans="1:9" s="18" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" s="18" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="102"/>
       <c r="B121" s="104"/>
       <c r="C121" s="104"/>
@@ -4971,7 +5013,7 @@
       <c r="H121" s="17"/>
       <c r="I121" s="17"/>
     </row>
-    <row r="122" spans="1:9" s="100" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" s="100" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="96"/>
       <c r="B122" s="97"/>
       <c r="C122" s="107"/>
@@ -4982,7 +5024,7 @@
       <c r="H122" s="108"/>
       <c r="I122" s="108"/>
     </row>
-    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="43" t="s">
         <v>165</v>
       </c>
@@ -5007,7 +5049,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="36" t="s">
         <v>165</v>
       </c>
@@ -5032,7 +5074,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="36" t="s">
         <v>165</v>
       </c>
@@ -5057,7 +5099,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="36" t="s">
         <v>165</v>
       </c>
@@ -5078,7 +5120,7 @@
       <c r="H126" s="10"/>
       <c r="I126" s="10"/>
     </row>
-    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="36" t="s">
         <v>165</v>
       </c>
@@ -5099,7 +5141,7 @@
       <c r="H127" s="34"/>
       <c r="I127" s="34"/>
     </row>
-    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="36" t="s">
         <v>165</v>
       </c>

--- a/GameDesign/Planning_Dust'n'Groove.xlsx
+++ b/GameDesign/Planning_Dust'n'Groove.xlsx
@@ -20,6 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1">Général!$A$1:$I$199</definedName>
   </definedNames>
   <calcPr calcId="145621" iterateDelta="1E-4"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
